--- a/Output/ManualCheck.xlsx
+++ b/Output/ManualCheck.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="343">
   <si>
     <t>Domain</t>
   </si>
@@ -52,6 +52,9 @@
     <t>bloggers.jp</t>
   </si>
   <si>
+    <t>consumerdatastandards.com</t>
+  </si>
+  <si>
     <t>cungcap.net</t>
   </si>
   <si>
@@ -82,6 +85,15 @@
     <t>sitelike.org</t>
   </si>
   <si>
+    <t>technofizi.net</t>
+  </si>
+  <si>
+    <t>tntcode.com</t>
+  </si>
+  <si>
+    <t>vnngaynay.net</t>
+  </si>
+  <si>
     <t>wipsites.com</t>
   </si>
   <si>
@@ -97,24 +109,6 @@
     <t>ping.bloggers.jp/index.php/10,%208-1/article/13/BestFiles.org</t>
   </si>
   <si>
-    <t>ping.bloggers.jp/index.php/10,%208-1/article/automata.cc/https:/mejiatelevision.com</t>
-  </si>
-  <si>
-    <t>ping.bloggers.jp/index.php/10,%208-1/article/https:/https:/chaamba.info</t>
-  </si>
-  <si>
-    <t>ping.bloggers.jp/index.php/10,%208-1/article/https:/https:/fnsouza.info</t>
-  </si>
-  <si>
-    <t>ping.bloggers.jp/index.php/10,%208-1/article/https:/https:/latoqueblanche.info</t>
-  </si>
-  <si>
-    <t>ping.bloggers.jp/index.php/10,%208-1/article/https:/https:/nradio.info</t>
-  </si>
-  <si>
-    <t>ping.bloggers.jp/index.php/10,%208-1/article/https:/https:/shpsorestless.info</t>
-  </si>
-  <si>
     <t>ping.bloggers.jp/index.php/10,%208-1/article/tatuirovki.198kaz.ru/anjaliarya.info</t>
   </si>
   <si>
@@ -124,9 +118,6 @@
     <t>ping.bloggers.jp/index.php/automata.cc/https:/stroitelstvo.me</t>
   </si>
   <si>
-    <t>ping.bloggers.jp/index.php/cgi-bin/14/pitmaster.info</t>
-  </si>
-  <si>
     <t>ping.bloggers.jp/index.php/cgi-bin/14/the-verandah-residences.co</t>
   </si>
   <si>
@@ -136,9 +127,6 @@
     <t>ping.bloggers.jp/index.php/cgi-bin/adzbux.com/mejiatelevision.com</t>
   </si>
   <si>
-    <t>ping.bloggers.jp/index.php/cgi-bin/http:/flortoclodunk.tk/https:/orai-nagasaki.com</t>
-  </si>
-  <si>
     <t>ping.bloggers.jp/index.php/cgi-bin/http:/franananen.tk/botlink.info</t>
   </si>
   <si>
@@ -148,63 +136,18 @@
     <t>ping.bloggers.jp/index.php/cgi-bin/http:/franananen.tk/funfonez.com</t>
   </si>
   <si>
-    <t>ping.bloggers.jp/index.php/cgi-bin/http:/franananen.tk/https:/gametelcontroller.com</t>
-  </si>
-  <si>
-    <t>ping.bloggers.jp/index.php/cgi-bin/http:/franananen.tk/https:/huturjo.info</t>
-  </si>
-  <si>
-    <t>ping.bloggers.jp/index.php/cgi-bin/http:/franananen.tk/https:/insurancedsc.me</t>
-  </si>
-  <si>
-    <t>ping.bloggers.jp/index.php/cgi-bin/http:/franananen.tk/https:/meadowbrookmanor.net</t>
-  </si>
-  <si>
-    <t>ping.bloggers.jp/index.php/cgi-bin/http:/franananen.tk/https:/meubelminimalis.com</t>
-  </si>
-  <si>
-    <t>ping.bloggers.jp/index.php/cgi-bin/http:/franananen.tk/https:/socko-entertainment.com</t>
-  </si>
-  <si>
     <t>ping.bloggers.jp/index.php/cgi-bin/http:/franananen.tk/jaredp.info</t>
   </si>
   <si>
-    <t>ping.bloggers.jp/index.php/cgi-bin/http:/franananen.tk/sna-news.net</t>
-  </si>
-  <si>
     <t>ping.bloggers.jp/index.php/cgi-bin/http:/the-misc.com</t>
   </si>
   <si>
-    <t>ping.bloggers.jp/index.php/cgi-bin/http:/www.evearabia.com/https:/meethookup.info</t>
-  </si>
-  <si>
     <t>ping.bloggers.jp/index.php/cgi-bin/https:/crochetpatterns.info</t>
   </si>
   <si>
-    <t>ping.bloggers.jp/index.php/cgi-bin/intyoga.ru/GymBaza.pro</t>
-  </si>
-  <si>
     <t>ping.bloggers.jp/index.php/cgi-bin/intyoga.ru/dreaminggenius.com</t>
   </si>
   <si>
-    <t>ping.bloggers.jp/index.php/cgi-bin/intyoga.ru/keff.me</t>
-  </si>
-  <si>
-    <t>ping.bloggers.jp/index.php/cgi-bin/intyoga.ru/sup.2nba.ru/https:/area-itabashi.info</t>
-  </si>
-  <si>
-    <t>ping.bloggers.jp/index.php/cgi-bin/intyoga.ru/sup.2nba.ru/https:/hohoso.info</t>
-  </si>
-  <si>
-    <t>ping.bloggers.jp/index.php/cgi-bin/intyoga.ru/sup.2nba.ru/https:/rcrc.info</t>
-  </si>
-  <si>
-    <t>ping.bloggers.jp/index.php/cgi-bin/jonathonstable.com</t>
-  </si>
-  <si>
-    <t>ping.bloggers.jp/index.php/cgi-bin/netbokov.ru/cmoney.info</t>
-  </si>
-  <si>
     <t>ping.bloggers.jp/index.php/cgi-bin/netbokov.ru/shelves.kinderreich-nuernberg.de</t>
   </si>
   <si>
@@ -238,33 +181,6 @@
     <t>ping.bloggers.jp/index.php/www.wesharetemplates.com/https:/tvnewsclips.info</t>
   </si>
   <si>
-    <t>ping.bloggers.jp/index.php/www.wesharetemplates.com/https:/xptqfec.xyz/bellforkcoc.org</t>
-  </si>
-  <si>
-    <t>ping.bloggers.jp/index.php/www.wesharetemplates.com/https:/xptqfec.xyz/centrainfo.com</t>
-  </si>
-  <si>
-    <t>ping.bloggers.jp/index.php/www.wesharetemplates.com/https:/xptqfec.xyz/ciaoamore.info</t>
-  </si>
-  <si>
-    <t>ping.bloggers.jp/index.php/www.wesharetemplates.com/https:/xptqfec.xyz/doors.thesmokehouseny.com</t>
-  </si>
-  <si>
-    <t>ping.bloggers.jp/index.php/www.wesharetemplates.com/https:/xptqfec.xyz/ondemandbeat.info</t>
-  </si>
-  <si>
-    <t>ping.bloggers.jp/index.php/www.wesharetemplates.com/www.evearabia.com/https:/banatgo.com</t>
-  </si>
-  <si>
-    <t>ping.bloggers.jp/index.php/www.wesharetemplates.com/www.evearabia.com/https:/benjaminlemaire.me</t>
-  </si>
-  <si>
-    <t>ping.bloggers.jp/index.php/www.wesharetemplates.com/www.evearabia.com/https:/bomberflight.info</t>
-  </si>
-  <si>
-    <t>ping.bloggers.jp/index.php/www.wesharetemplates.com/www.evearabia.com/vidy-manikura.198kaz.ru/skitjs.com</t>
-  </si>
-  <si>
     <t>ping.bloggers.jp/index.php/www.wesharetemplates.com/yoga-world.athff.ru/bandarbo.info</t>
   </si>
   <si>
@@ -274,21 +190,33 @@
     <t>ping.bloggers.jp/index.php/www.wesharetemplates.com/yoga-world.athff.ru/sechaufferaubois.com</t>
   </si>
   <si>
+    <t>consumerdatastandards.com/f-companies/facebook-login-forgot-email.html</t>
+  </si>
+  <si>
+    <t>consumerdatastandards.com/f-companies/facebook-login-gmail-email.html</t>
+  </si>
+  <si>
+    <t>consumerdatastandards.com/f-companies/forgot-fb-login-email.html</t>
+  </si>
+  <si>
+    <t>consumerdatastandards.com/x-companies/xmind-login.html</t>
+  </si>
+  <si>
+    <t>d.cungcap.net/d/lucidgen.com</t>
+  </si>
+  <si>
+    <t>www.fbscan.com/find/gen.com-youtube</t>
+  </si>
+  <si>
+    <t>www.fbscan.com/find/lucidgen.com</t>
+  </si>
+  <si>
+    <t>www.fbscan.com/find/mail-merge-f9</t>
+  </si>
+  <si>
     <t>None</t>
   </si>
   <si>
-    <t>d.cungcap.net/d/lucidgen.com</t>
-  </si>
-  <si>
-    <t>www.fbscan.com/find/gen.com-youtube</t>
-  </si>
-  <si>
-    <t>www.fbscan.com/find/lucidgen.com</t>
-  </si>
-  <si>
-    <t>www.fbscan.com/find/mail-merge-f9</t>
-  </si>
-  <si>
     <t>forobeta.com/temas/colocar-anuncio-en-la-version-amp.857514/</t>
   </si>
   <si>
@@ -301,13 +229,10 @@
     <t>www.jamviet.com/blog-comment-cach-lay-backlink-nay-van-tot-trong-seo.html</t>
   </si>
   <si>
-    <t>kriesi.at/support/profile/nikko/replies/page/21/</t>
-  </si>
-  <si>
-    <t>kriesi.at/support/profile/nikko/replies/page/22/</t>
-  </si>
-  <si>
-    <t>kriesi.at/support/profile/nikko/replies/page/23/</t>
+    <t>kriesi.at/support/profile/nikko/replies/page/26/</t>
+  </si>
+  <si>
+    <t>kriesi.at/support/profile/nikko/replies/page/27/</t>
   </si>
   <si>
     <t>www.nichesitemastery.com/search/emoji-copy-and-paste-fb</t>
@@ -316,7 +241,10 @@
     <t>www.nichesitemastery.com/search/powerpoint-icons</t>
   </si>
   <si>
-    <t>www.nichesitemastery.com/search/zalo-pc</t>
+    <t>www.nichesitemastery.com/search/shopee-picture</t>
+  </si>
+  <si>
+    <t>www.nichesitemastery.com/search/tai-mien-phi-coccoc</t>
   </si>
   <si>
     <t>www.nichesitemastery.com/site/lucidgen.com</t>
@@ -388,9 +316,6 @@
     <t>www.sitelike.org/similar/digimarkvn.com/</t>
   </si>
   <si>
-    <t>www.sitelike.org/similar/dinhlongplus.com/</t>
-  </si>
-  <si>
     <t>www.sitelike.org/similar/dochacmarketing.com/</t>
   </si>
   <si>
@@ -568,6 +493,9 @@
     <t>www.sitelike.org/similar/thanhthinhbui.com/</t>
   </si>
   <si>
+    <t>www.sitelike.org/similar/thanhtoanblog.com/</t>
+  </si>
+  <si>
     <t>www.sitelike.org/similar/thinhweb.com/</t>
   </si>
   <si>
@@ -598,6 +526,21 @@
     <t>www.sitelike.org/similar/yaytext.com/</t>
   </si>
   <si>
+    <t>technofizi.net/sitelike/lucidgen.com</t>
+  </si>
+  <si>
+    <t>domains.tntcode.com/ip/103.221.222.30</t>
+  </si>
+  <si>
+    <t>domains.tntcode.com/ip/45.252.248.23</t>
+  </si>
+  <si>
+    <t>domains.tntcode.com/ip/45.252.249.21</t>
+  </si>
+  <si>
+    <t>vnngaynay.net/phan-mem-lay-so-dien-thoai-facebook-mien-phi-moi-nhat/</t>
+  </si>
+  <si>
     <t>www.wipsites.com/search/tai-mien-phi-office-2016-co-crack</t>
   </si>
   <si>
@@ -613,24 +556,6 @@
     <t>/index.php/10,%208-1/article/13/BestFiles.org</t>
   </si>
   <si>
-    <t>/index.php/10,%208-1/article/automata.cc/https:/mejiatelevision.com</t>
-  </si>
-  <si>
-    <t>/index.php/10,%208-1/article/https:/https:/chaamba.info</t>
-  </si>
-  <si>
-    <t>/index.php/10,%208-1/article/https:/https:/fnsouza.info</t>
-  </si>
-  <si>
-    <t>/index.php/10,%208-1/article/https:/https:/latoqueblanche.info</t>
-  </si>
-  <si>
-    <t>/index.php/10,%208-1/article/https:/https:/nradio.info</t>
-  </si>
-  <si>
-    <t>/index.php/10,%208-1/article/https:/https:/shpsorestless.info</t>
-  </si>
-  <si>
     <t>/index.php/10,%208-1/article/tatuirovki.198kaz.ru/anjaliarya.info</t>
   </si>
   <si>
@@ -640,9 +565,6 @@
     <t>/index.php/automata.cc/https:/stroitelstvo.me</t>
   </si>
   <si>
-    <t>/index.php/cgi-bin/14/pitmaster.info</t>
-  </si>
-  <si>
     <t>/index.php/cgi-bin/14/the-verandah-residences.co</t>
   </si>
   <si>
@@ -652,9 +574,6 @@
     <t>/index.php/cgi-bin/adzbux.com/mejiatelevision.com</t>
   </si>
   <si>
-    <t>/index.php/cgi-bin/http:/flortoclodunk.tk/https:/orai-nagasaki.com</t>
-  </si>
-  <si>
     <t>/index.php/cgi-bin/http:/franananen.tk/botlink.info</t>
   </si>
   <si>
@@ -664,63 +583,18 @@
     <t>/index.php/cgi-bin/http:/franananen.tk/funfonez.com</t>
   </si>
   <si>
-    <t>/index.php/cgi-bin/http:/franananen.tk/https:/gametelcontroller.com</t>
-  </si>
-  <si>
-    <t>/index.php/cgi-bin/http:/franananen.tk/https:/huturjo.info</t>
-  </si>
-  <si>
-    <t>/index.php/cgi-bin/http:/franananen.tk/https:/insurancedsc.me</t>
-  </si>
-  <si>
-    <t>/index.php/cgi-bin/http:/franananen.tk/https:/meadowbrookmanor.net</t>
-  </si>
-  <si>
-    <t>/index.php/cgi-bin/http:/franananen.tk/https:/meubelminimalis.com</t>
-  </si>
-  <si>
-    <t>/index.php/cgi-bin/http:/franananen.tk/https:/socko-entertainment.com</t>
-  </si>
-  <si>
     <t>/index.php/cgi-bin/http:/franananen.tk/jaredp.info</t>
   </si>
   <si>
-    <t>/index.php/cgi-bin/http:/franananen.tk/sna-news.net</t>
-  </si>
-  <si>
     <t>/index.php/cgi-bin/http:/the-misc.com</t>
   </si>
   <si>
-    <t>/index.php/cgi-bin/http:/www.evearabia.com/https:/meethookup.info</t>
-  </si>
-  <si>
     <t>/index.php/cgi-bin/https:/crochetpatterns.info</t>
   </si>
   <si>
-    <t>/index.php/cgi-bin/intyoga.ru/GymBaza.pro</t>
-  </si>
-  <si>
     <t>/index.php/cgi-bin/intyoga.ru/dreaminggenius.com</t>
   </si>
   <si>
-    <t>/index.php/cgi-bin/intyoga.ru/keff.me</t>
-  </si>
-  <si>
-    <t>/index.php/cgi-bin/intyoga.ru/sup.2nba.ru/https:/area-itabashi.info</t>
-  </si>
-  <si>
-    <t>/index.php/cgi-bin/intyoga.ru/sup.2nba.ru/https:/hohoso.info</t>
-  </si>
-  <si>
-    <t>/index.php/cgi-bin/intyoga.ru/sup.2nba.ru/https:/rcrc.info</t>
-  </si>
-  <si>
-    <t>/index.php/cgi-bin/jonathonstable.com</t>
-  </si>
-  <si>
-    <t>/index.php/cgi-bin/netbokov.ru/cmoney.info</t>
-  </si>
-  <si>
     <t>/index.php/cgi-bin/netbokov.ru/shelves.kinderreich-nuernberg.de</t>
   </si>
   <si>
@@ -754,33 +628,6 @@
     <t>/index.php/www.wesharetemplates.com/https:/tvnewsclips.info</t>
   </si>
   <si>
-    <t>/index.php/www.wesharetemplates.com/https:/xptqfec.xyz/bellforkcoc.org</t>
-  </si>
-  <si>
-    <t>/index.php/www.wesharetemplates.com/https:/xptqfec.xyz/centrainfo.com</t>
-  </si>
-  <si>
-    <t>/index.php/www.wesharetemplates.com/https:/xptqfec.xyz/ciaoamore.info</t>
-  </si>
-  <si>
-    <t>/index.php/www.wesharetemplates.com/https:/xptqfec.xyz/doors.thesmokehouseny.com</t>
-  </si>
-  <si>
-    <t>/index.php/www.wesharetemplates.com/https:/xptqfec.xyz/ondemandbeat.info</t>
-  </si>
-  <si>
-    <t>/index.php/www.wesharetemplates.com/www.evearabia.com/https:/banatgo.com</t>
-  </si>
-  <si>
-    <t>/index.php/www.wesharetemplates.com/www.evearabia.com/https:/benjaminlemaire.me</t>
-  </si>
-  <si>
-    <t>/index.php/www.wesharetemplates.com/www.evearabia.com/https:/bomberflight.info</t>
-  </si>
-  <si>
-    <t>/index.php/www.wesharetemplates.com/www.evearabia.com/vidy-manikura.198kaz.ru/skitjs.com</t>
-  </si>
-  <si>
     <t>/index.php/www.wesharetemplates.com/yoga-world.athff.ru/bandarbo.info</t>
   </si>
   <si>
@@ -790,6 +637,18 @@
     <t>/index.php/www.wesharetemplates.com/yoga-world.athff.ru/sechaufferaubois.com</t>
   </si>
   <si>
+    <t>/f-companies/facebook-login-forgot-email.html</t>
+  </si>
+  <si>
+    <t>/f-companies/facebook-login-gmail-email.html</t>
+  </si>
+  <si>
+    <t>/f-companies/forgot-fb-login-email.html</t>
+  </si>
+  <si>
+    <t>/x-companies/xmind-login.html</t>
+  </si>
+  <si>
     <t>/d/lucidgen.com</t>
   </si>
   <si>
@@ -814,13 +673,10 @@
     <t>/blog-comment-cach-lay-backlink-nay-van-tot-trong-seo.html</t>
   </si>
   <si>
-    <t>/support/profile/nikko/replies/page/21/</t>
-  </si>
-  <si>
-    <t>/support/profile/nikko/replies/page/22/</t>
-  </si>
-  <si>
-    <t>/support/profile/nikko/replies/page/23/</t>
+    <t>/support/profile/nikko/replies/page/26/</t>
+  </si>
+  <si>
+    <t>/support/profile/nikko/replies/page/27/</t>
   </si>
   <si>
     <t>/search/emoji-copy-and-paste-fb</t>
@@ -829,7 +685,10 @@
     <t>/search/powerpoint-icons</t>
   </si>
   <si>
-    <t>/search/zalo-pc</t>
+    <t>/search/shopee-picture</t>
+  </si>
+  <si>
+    <t>/search/tai-mien-phi-coccoc</t>
   </si>
   <si>
     <t>/site/lucidgen.com</t>
@@ -901,9 +760,6 @@
     <t>/similar/digimarkvn.com/</t>
   </si>
   <si>
-    <t>/similar/dinhlongplus.com/</t>
-  </si>
-  <si>
     <t>/similar/dochacmarketing.com/</t>
   </si>
   <si>
@@ -1081,6 +937,9 @@
     <t>/similar/thanhthinhbui.com/</t>
   </si>
   <si>
+    <t>/similar/thanhtoanblog.com/</t>
+  </si>
+  <si>
     <t>/similar/thinhweb.com/</t>
   </si>
   <si>
@@ -1111,6 +970,21 @@
     <t>/similar/yaytext.com/</t>
   </si>
   <si>
+    <t>/sitelike/lucidgen.com</t>
+  </si>
+  <si>
+    <t>/ip/103.221.222.30</t>
+  </si>
+  <si>
+    <t>/ip/45.252.248.23</t>
+  </si>
+  <si>
+    <t>/ip/45.252.249.21</t>
+  </si>
+  <si>
+    <t>/phan-mem-lay-so-dien-thoai-facebook-mien-phi-moi-nhat/</t>
+  </si>
+  <si>
     <t>/search/tai-mien-phi-office-2016-co-crack</t>
   </si>
   <si>
@@ -1126,6 +1000,9 @@
     <t>domain:bloggers.jp</t>
   </si>
   <si>
+    <t>domain:consumerdatastandards.com</t>
+  </si>
+  <si>
     <t>domain:cungcap.net</t>
   </si>
   <si>
@@ -1154,6 +1031,15 @@
   </si>
   <si>
     <t>domain:sitelike.org</t>
+  </si>
+  <si>
+    <t>domain:technofizi.net</t>
+  </si>
+  <si>
+    <t>domain:tntcode.com</t>
+  </si>
+  <si>
+    <t>domain:vnngaynay.net</t>
   </si>
   <si>
     <t>domain:wipsites.com</t>
@@ -1514,7 +1400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H177"/>
+  <dimension ref="A1:H155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1551,25 +1437,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="D2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E2">
-        <v>40043</v>
+        <v>65672</v>
       </c>
       <c r="F2" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="G2" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="H2" t="s">
-        <v>366</v>
+        <v>324</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1577,25 +1463,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="D3">
         <v>91</v>
       </c>
       <c r="E3">
-        <v>32461120</v>
+        <v>32711987</v>
       </c>
       <c r="F3" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="G3" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="H3" t="s">
-        <v>367</v>
+        <v>325</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1603,13 +1489,13 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="D4">
-        <v>1.1</v>
+        <v>2.9</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1621,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>368</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1629,16 +1515,16 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="D5" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="E5" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="F5">
         <v>29</v>
@@ -1647,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>369</v>
+        <v>327</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1655,16 +1541,16 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="D6" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="E6" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="F6">
         <v>29</v>
@@ -1673,7 +1559,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>369</v>
+        <v>327</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1681,16 +1567,16 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="D7" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="E7" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="F7">
         <v>29</v>
@@ -1699,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>369</v>
+        <v>327</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1707,16 +1593,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="D8" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="E8" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="F8">
         <v>29</v>
@@ -1725,7 +1611,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>369</v>
+        <v>327</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1733,16 +1619,16 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="D9" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="E9" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="F9">
         <v>29</v>
@@ -1751,7 +1637,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>369</v>
+        <v>327</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1759,16 +1645,16 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="D10" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="E10" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="F10">
         <v>29</v>
@@ -1777,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>369</v>
+        <v>327</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1785,16 +1671,16 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="D11" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="E11" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="F11">
         <v>29</v>
@@ -1803,7 +1689,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>369</v>
+        <v>327</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1811,16 +1697,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="D12" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="F12">
         <v>29</v>
@@ -1829,7 +1715,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>369</v>
+        <v>327</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1837,16 +1723,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="D13" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="E13" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="F13">
         <v>29</v>
@@ -1855,7 +1741,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>369</v>
+        <v>327</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1863,16 +1749,16 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="D14" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="E14" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="F14">
         <v>29</v>
@@ -1881,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>369</v>
+        <v>327</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1889,16 +1775,16 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="D15" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="E15" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="F15">
         <v>29</v>
@@ -1907,7 +1793,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>369</v>
+        <v>327</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1915,16 +1801,16 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="D16" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="E16" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="F16">
         <v>29</v>
@@ -1933,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>369</v>
+        <v>327</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1941,16 +1827,16 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="D17" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="E17" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="F17">
         <v>29</v>
@@ -1959,7 +1845,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>369</v>
+        <v>327</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1967,16 +1853,16 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="D18" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="E18" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="F18">
         <v>29</v>
@@ -1985,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>369</v>
+        <v>327</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1993,16 +1879,16 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="D19" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="E19" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="F19">
         <v>29</v>
@@ -2011,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>369</v>
+        <v>327</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2019,16 +1905,16 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="D20" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="E20" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="F20">
         <v>29</v>
@@ -2037,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>369</v>
+        <v>327</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2045,16 +1931,16 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="D21" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="E21" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="F21">
         <v>29</v>
@@ -2063,7 +1949,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>369</v>
+        <v>327</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2071,16 +1957,16 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C22" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="D22" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="E22" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="F22">
         <v>29</v>
@@ -2089,7 +1975,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>369</v>
+        <v>327</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2097,16 +1983,16 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="D23" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="E23" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="F23">
         <v>29</v>
@@ -2115,7 +2001,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>369</v>
+        <v>327</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2123,16 +2009,16 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C24" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="D24" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="E24" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="F24">
         <v>29</v>
@@ -2141,7 +2027,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>369</v>
+        <v>327</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2149,16 +2035,16 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C25" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="D25" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="E25" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="F25">
         <v>29</v>
@@ -2167,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>369</v>
+        <v>327</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2175,16 +2061,16 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C26" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="D26" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="E26" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="F26">
         <v>29</v>
@@ -2193,7 +2079,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>369</v>
+        <v>327</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2201,16 +2087,16 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C27" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="D27" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="E27" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="F27">
         <v>29</v>
@@ -2219,7 +2105,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>369</v>
+        <v>327</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2227,16 +2113,16 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C28" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="D28" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="E28" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="F28">
         <v>29</v>
@@ -2245,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>369</v>
+        <v>327</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2253,16 +2139,16 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C29" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="D29" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="E29" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="F29">
         <v>29</v>
@@ -2271,7 +2157,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>369</v>
+        <v>327</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2279,16 +2165,16 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C30" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="D30" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="E30" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="F30">
         <v>29</v>
@@ -2297,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>369</v>
+        <v>327</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2305,16 +2191,16 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C31" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="D31" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="E31" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="F31">
         <v>29</v>
@@ -2323,7 +2209,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>369</v>
+        <v>327</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2331,16 +2217,16 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C32" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="D32" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="E32" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="F32">
         <v>29</v>
@@ -2349,3777 +2235,3205 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>369</v>
+        <v>327</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B33" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C33" t="s">
-        <v>226</v>
-      </c>
-      <c r="D33" t="s">
-        <v>86</v>
-      </c>
-      <c r="E33" t="s">
-        <v>86</v>
+        <v>207</v>
+      </c>
+      <c r="D33">
+        <v>44</v>
+      </c>
+      <c r="E33">
+        <v>194218</v>
       </c>
       <c r="F33">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" t="s">
-        <v>369</v>
+        <v>328</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B34" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C34" t="s">
-        <v>227</v>
-      </c>
-      <c r="D34" t="s">
-        <v>86</v>
-      </c>
-      <c r="E34" t="s">
-        <v>86</v>
+        <v>208</v>
+      </c>
+      <c r="D34">
+        <v>44</v>
+      </c>
+      <c r="E34">
+        <v>194218</v>
       </c>
       <c r="F34">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" t="s">
-        <v>369</v>
+        <v>328</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B35" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C35" t="s">
-        <v>228</v>
-      </c>
-      <c r="D35" t="s">
-        <v>86</v>
-      </c>
-      <c r="E35" t="s">
-        <v>86</v>
+        <v>209</v>
+      </c>
+      <c r="D35">
+        <v>44</v>
+      </c>
+      <c r="E35">
+        <v>194218</v>
       </c>
       <c r="F35">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>369</v>
+        <v>328</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B36" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C36" t="s">
-        <v>229</v>
-      </c>
-      <c r="D36" t="s">
-        <v>86</v>
-      </c>
-      <c r="E36" t="s">
-        <v>86</v>
+        <v>210</v>
+      </c>
+      <c r="D36">
+        <v>44</v>
+      </c>
+      <c r="E36">
+        <v>194218</v>
       </c>
       <c r="F36">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" t="s">
-        <v>369</v>
+        <v>328</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B37" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C37" t="s">
-        <v>230</v>
-      </c>
-      <c r="D37" t="s">
-        <v>86</v>
-      </c>
-      <c r="E37" t="s">
-        <v>86</v>
-      </c>
-      <c r="F37">
-        <v>29</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
+        <v>211</v>
+      </c>
+      <c r="D37">
+        <v>68</v>
+      </c>
+      <c r="E37">
+        <v>40456</v>
+      </c>
+      <c r="F37" t="s">
+        <v>66</v>
+      </c>
+      <c r="G37" t="s">
+        <v>66</v>
       </c>
       <c r="H37" t="s">
-        <v>369</v>
+        <v>329</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B38" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C38" t="s">
-        <v>231</v>
-      </c>
-      <c r="D38" t="s">
-        <v>86</v>
-      </c>
-      <c r="E38" t="s">
-        <v>86</v>
+        <v>212</v>
+      </c>
+      <c r="D38">
+        <v>42</v>
+      </c>
+      <c r="E38">
+        <v>6280</v>
       </c>
       <c r="F38">
+        <v>28</v>
+      </c>
+      <c r="G38">
         <v>29</v>
       </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
       <c r="H38" t="s">
-        <v>369</v>
+        <v>330</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B39" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C39" t="s">
-        <v>232</v>
-      </c>
-      <c r="D39" t="s">
-        <v>86</v>
-      </c>
-      <c r="E39" t="s">
-        <v>86</v>
+        <v>213</v>
+      </c>
+      <c r="D39">
+        <v>42</v>
+      </c>
+      <c r="E39">
+        <v>6280</v>
       </c>
       <c r="F39">
+        <v>28</v>
+      </c>
+      <c r="G39">
         <v>29</v>
       </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
       <c r="H39" t="s">
-        <v>369</v>
+        <v>330</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B40" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C40" t="s">
-        <v>233</v>
-      </c>
-      <c r="D40" t="s">
-        <v>86</v>
-      </c>
-      <c r="E40" t="s">
-        <v>86</v>
+        <v>214</v>
+      </c>
+      <c r="D40">
+        <v>42</v>
+      </c>
+      <c r="E40">
+        <v>6280</v>
       </c>
       <c r="F40">
+        <v>28</v>
+      </c>
+      <c r="G40">
         <v>29</v>
       </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
       <c r="H40" t="s">
-        <v>369</v>
+        <v>330</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B41" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C41" t="s">
-        <v>234</v>
-      </c>
-      <c r="D41" t="s">
-        <v>86</v>
-      </c>
-      <c r="E41" t="s">
-        <v>86</v>
-      </c>
-      <c r="F41">
-        <v>29</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
+        <v>66</v>
+      </c>
+      <c r="D41">
+        <v>65</v>
+      </c>
+      <c r="E41">
+        <v>61542</v>
+      </c>
+      <c r="F41" t="s">
+        <v>66</v>
+      </c>
+      <c r="G41" t="s">
+        <v>66</v>
       </c>
       <c r="H41" t="s">
-        <v>369</v>
+        <v>331</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B42" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C42" t="s">
-        <v>235</v>
-      </c>
-      <c r="D42" t="s">
-        <v>86</v>
-      </c>
-      <c r="E42" t="s">
-        <v>86</v>
-      </c>
-      <c r="F42">
-        <v>29</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
+        <v>215</v>
+      </c>
+      <c r="D42">
+        <v>65</v>
+      </c>
+      <c r="E42">
+        <v>61542</v>
+      </c>
+      <c r="F42" t="s">
+        <v>66</v>
+      </c>
+      <c r="G42" t="s">
+        <v>66</v>
       </c>
       <c r="H42" t="s">
-        <v>369</v>
+        <v>331</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B43" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C43" t="s">
-        <v>236</v>
-      </c>
-      <c r="D43" t="s">
-        <v>86</v>
-      </c>
-      <c r="E43" t="s">
-        <v>86</v>
-      </c>
-      <c r="F43">
-        <v>29</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
+        <v>66</v>
+      </c>
+      <c r="D43">
+        <v>38</v>
+      </c>
+      <c r="E43">
+        <v>43353</v>
+      </c>
+      <c r="F43" t="s">
+        <v>66</v>
+      </c>
+      <c r="G43" t="s">
+        <v>66</v>
       </c>
       <c r="H43" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B44" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C44" t="s">
-        <v>237</v>
-      </c>
-      <c r="D44" t="s">
-        <v>86</v>
-      </c>
-      <c r="E44" t="s">
-        <v>86</v>
-      </c>
-      <c r="F44">
-        <v>29</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
+        <v>216</v>
+      </c>
+      <c r="D44">
+        <v>38</v>
+      </c>
+      <c r="E44">
+        <v>43353</v>
+      </c>
+      <c r="F44" t="s">
+        <v>66</v>
+      </c>
+      <c r="G44" t="s">
+        <v>66</v>
       </c>
       <c r="H44" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B45" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C45" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="D45" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="E45" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="F45">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G45">
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>369</v>
+        <v>333</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B46" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C46" t="s">
-        <v>239</v>
-      </c>
-      <c r="D46" t="s">
-        <v>86</v>
-      </c>
-      <c r="E46" t="s">
-        <v>86</v>
+        <v>218</v>
+      </c>
+      <c r="D46">
+        <v>31</v>
+      </c>
+      <c r="E46">
+        <v>3246</v>
       </c>
       <c r="F46">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H46" t="s">
-        <v>369</v>
+        <v>334</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B47" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C47" t="s">
-        <v>240</v>
-      </c>
-      <c r="D47" t="s">
-        <v>86</v>
-      </c>
-      <c r="E47" t="s">
-        <v>86</v>
-      </c>
-      <c r="F47">
-        <v>29</v>
-      </c>
-      <c r="G47">
-        <v>0</v>
+        <v>66</v>
+      </c>
+      <c r="D47">
+        <v>91</v>
+      </c>
+      <c r="E47">
+        <v>10729</v>
+      </c>
+      <c r="F47" t="s">
+        <v>66</v>
+      </c>
+      <c r="G47" t="s">
+        <v>66</v>
       </c>
       <c r="H47" t="s">
-        <v>369</v>
+        <v>335</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B48" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C48" t="s">
-        <v>241</v>
-      </c>
-      <c r="D48" t="s">
-        <v>86</v>
-      </c>
-      <c r="E48" t="s">
-        <v>86</v>
-      </c>
-      <c r="F48">
-        <v>29</v>
-      </c>
-      <c r="G48">
-        <v>0</v>
+        <v>219</v>
+      </c>
+      <c r="D48">
+        <v>91</v>
+      </c>
+      <c r="E48">
+        <v>10729</v>
+      </c>
+      <c r="F48" t="s">
+        <v>66</v>
+      </c>
+      <c r="G48" t="s">
+        <v>66</v>
       </c>
       <c r="H48" t="s">
-        <v>369</v>
+        <v>335</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B49" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C49" t="s">
-        <v>242</v>
-      </c>
-      <c r="D49" t="s">
-        <v>86</v>
-      </c>
-      <c r="E49" t="s">
-        <v>86</v>
-      </c>
-      <c r="F49">
-        <v>29</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
+        <v>220</v>
+      </c>
+      <c r="D49">
+        <v>91</v>
+      </c>
+      <c r="E49">
+        <v>10729</v>
+      </c>
+      <c r="F49" t="s">
+        <v>66</v>
+      </c>
+      <c r="G49" t="s">
+        <v>66</v>
       </c>
       <c r="H49" t="s">
-        <v>369</v>
+        <v>335</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B50" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C50" t="s">
-        <v>243</v>
-      </c>
-      <c r="D50" t="s">
-        <v>86</v>
-      </c>
-      <c r="E50" t="s">
-        <v>86</v>
-      </c>
-      <c r="F50">
-        <v>29</v>
-      </c>
-      <c r="G50">
-        <v>0</v>
+        <v>221</v>
+      </c>
+      <c r="D50">
+        <v>41</v>
+      </c>
+      <c r="E50">
+        <v>5152</v>
+      </c>
+      <c r="F50" t="s">
+        <v>66</v>
+      </c>
+      <c r="G50" t="s">
+        <v>66</v>
       </c>
       <c r="H50" t="s">
-        <v>369</v>
+        <v>336</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B51" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C51" t="s">
-        <v>244</v>
-      </c>
-      <c r="D51" t="s">
-        <v>86</v>
-      </c>
-      <c r="E51" t="s">
-        <v>86</v>
-      </c>
-      <c r="F51">
-        <v>29</v>
-      </c>
-      <c r="G51">
-        <v>0</v>
+        <v>222</v>
+      </c>
+      <c r="D51">
+        <v>41</v>
+      </c>
+      <c r="E51">
+        <v>5152</v>
+      </c>
+      <c r="F51" t="s">
+        <v>66</v>
+      </c>
+      <c r="G51" t="s">
+        <v>66</v>
       </c>
       <c r="H51" t="s">
-        <v>369</v>
+        <v>336</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B52" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C52" t="s">
-        <v>245</v>
-      </c>
-      <c r="D52" t="s">
-        <v>86</v>
-      </c>
-      <c r="E52" t="s">
-        <v>86</v>
-      </c>
-      <c r="F52">
-        <v>29</v>
-      </c>
-      <c r="G52">
-        <v>0</v>
+        <v>223</v>
+      </c>
+      <c r="D52">
+        <v>41</v>
+      </c>
+      <c r="E52">
+        <v>5152</v>
+      </c>
+      <c r="F52" t="s">
+        <v>66</v>
+      </c>
+      <c r="G52" t="s">
+        <v>66</v>
       </c>
       <c r="H52" t="s">
-        <v>369</v>
+        <v>336</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B53" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C53" t="s">
-        <v>246</v>
-      </c>
-      <c r="D53" t="s">
-        <v>86</v>
-      </c>
-      <c r="E53" t="s">
-        <v>86</v>
-      </c>
-      <c r="F53">
-        <v>29</v>
-      </c>
-      <c r="G53">
-        <v>0</v>
+        <v>224</v>
+      </c>
+      <c r="D53">
+        <v>41</v>
+      </c>
+      <c r="E53">
+        <v>5152</v>
+      </c>
+      <c r="F53" t="s">
+        <v>66</v>
+      </c>
+      <c r="G53" t="s">
+        <v>66</v>
       </c>
       <c r="H53" t="s">
-        <v>369</v>
+        <v>336</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B54" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C54" t="s">
-        <v>247</v>
-      </c>
-      <c r="D54" t="s">
-        <v>86</v>
-      </c>
-      <c r="E54" t="s">
-        <v>86</v>
-      </c>
-      <c r="F54">
-        <v>29</v>
-      </c>
-      <c r="G54">
-        <v>0</v>
+        <v>225</v>
+      </c>
+      <c r="D54">
+        <v>41</v>
+      </c>
+      <c r="E54">
+        <v>5152</v>
+      </c>
+      <c r="F54" t="s">
+        <v>66</v>
+      </c>
+      <c r="G54" t="s">
+        <v>66</v>
       </c>
       <c r="H54" t="s">
-        <v>369</v>
+        <v>336</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B55" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C55" t="s">
-        <v>248</v>
-      </c>
-      <c r="D55" t="s">
-        <v>86</v>
-      </c>
-      <c r="E55" t="s">
-        <v>86</v>
-      </c>
-      <c r="F55">
-        <v>29</v>
-      </c>
-      <c r="G55">
-        <v>0</v>
+        <v>66</v>
+      </c>
+      <c r="D55">
+        <v>39</v>
+      </c>
+      <c r="E55">
+        <v>18903</v>
+      </c>
+      <c r="F55" t="s">
+        <v>66</v>
+      </c>
+      <c r="G55" t="s">
+        <v>66</v>
       </c>
       <c r="H55" t="s">
-        <v>369</v>
+        <v>337</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B56" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C56" t="s">
-        <v>249</v>
-      </c>
-      <c r="D56" t="s">
-        <v>86</v>
-      </c>
-      <c r="E56" t="s">
-        <v>86</v>
-      </c>
-      <c r="F56">
-        <v>29</v>
-      </c>
-      <c r="G56">
-        <v>0</v>
+        <v>226</v>
+      </c>
+      <c r="D56">
+        <v>39</v>
+      </c>
+      <c r="E56">
+        <v>18903</v>
+      </c>
+      <c r="F56" t="s">
+        <v>66</v>
+      </c>
+      <c r="G56" t="s">
+        <v>66</v>
       </c>
       <c r="H56" t="s">
-        <v>369</v>
+        <v>337</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B57" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C57" t="s">
-        <v>250</v>
-      </c>
-      <c r="D57" t="s">
-        <v>86</v>
-      </c>
-      <c r="E57" t="s">
-        <v>86</v>
-      </c>
-      <c r="F57">
-        <v>29</v>
-      </c>
-      <c r="G57">
-        <v>0</v>
+        <v>227</v>
+      </c>
+      <c r="D57">
+        <v>39</v>
+      </c>
+      <c r="E57">
+        <v>18903</v>
+      </c>
+      <c r="F57" t="s">
+        <v>66</v>
+      </c>
+      <c r="G57" t="s">
+        <v>66</v>
       </c>
       <c r="H57" t="s">
-        <v>369</v>
+        <v>337</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B58" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C58" t="s">
-        <v>251</v>
-      </c>
-      <c r="D58" t="s">
-        <v>86</v>
-      </c>
-      <c r="E58" t="s">
-        <v>86</v>
-      </c>
-      <c r="F58">
-        <v>29</v>
-      </c>
-      <c r="G58">
-        <v>0</v>
+        <v>228</v>
+      </c>
+      <c r="D58">
+        <v>39</v>
+      </c>
+      <c r="E58">
+        <v>18903</v>
+      </c>
+      <c r="F58" t="s">
+        <v>66</v>
+      </c>
+      <c r="G58" t="s">
+        <v>66</v>
       </c>
       <c r="H58" t="s">
-        <v>369</v>
+        <v>337</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B59" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="C59" t="s">
-        <v>252</v>
-      </c>
-      <c r="D59" t="s">
-        <v>86</v>
-      </c>
-      <c r="E59" t="s">
-        <v>86</v>
-      </c>
-      <c r="F59">
-        <v>29</v>
-      </c>
-      <c r="G59">
-        <v>0</v>
+        <v>66</v>
+      </c>
+      <c r="D59">
+        <v>64</v>
+      </c>
+      <c r="E59">
+        <v>11831620</v>
+      </c>
+      <c r="F59" t="s">
+        <v>66</v>
+      </c>
+      <c r="G59" t="s">
+        <v>66</v>
       </c>
       <c r="H59" t="s">
-        <v>369</v>
+        <v>338</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B60" t="s">
         <v>81</v>
       </c>
       <c r="C60" t="s">
-        <v>253</v>
-      </c>
-      <c r="D60" t="s">
-        <v>86</v>
-      </c>
-      <c r="E60" t="s">
-        <v>86</v>
-      </c>
-      <c r="F60">
-        <v>29</v>
-      </c>
-      <c r="G60">
-        <v>0</v>
+        <v>229</v>
+      </c>
+      <c r="D60">
+        <v>64</v>
+      </c>
+      <c r="E60">
+        <v>11831620</v>
+      </c>
+      <c r="F60" t="s">
+        <v>66</v>
+      </c>
+      <c r="G60" t="s">
+        <v>66</v>
       </c>
       <c r="H60" t="s">
-        <v>369</v>
+        <v>338</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B61" t="s">
         <v>82</v>
       </c>
       <c r="C61" t="s">
-        <v>254</v>
-      </c>
-      <c r="D61" t="s">
-        <v>86</v>
-      </c>
-      <c r="E61" t="s">
-        <v>86</v>
-      </c>
-      <c r="F61">
-        <v>29</v>
-      </c>
-      <c r="G61">
-        <v>0</v>
+        <v>230</v>
+      </c>
+      <c r="D61">
+        <v>64</v>
+      </c>
+      <c r="E61">
+        <v>11831620</v>
+      </c>
+      <c r="F61" t="s">
+        <v>66</v>
+      </c>
+      <c r="G61" t="s">
+        <v>66</v>
       </c>
       <c r="H61" t="s">
-        <v>369</v>
+        <v>338</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B62" t="s">
         <v>83</v>
       </c>
       <c r="C62" t="s">
-        <v>255</v>
-      </c>
-      <c r="D62" t="s">
-        <v>86</v>
-      </c>
-      <c r="E62" t="s">
-        <v>86</v>
-      </c>
-      <c r="F62">
-        <v>29</v>
-      </c>
-      <c r="G62">
-        <v>0</v>
+        <v>231</v>
+      </c>
+      <c r="D62">
+        <v>64</v>
+      </c>
+      <c r="E62">
+        <v>11831620</v>
+      </c>
+      <c r="F62" t="s">
+        <v>66</v>
+      </c>
+      <c r="G62" t="s">
+        <v>66</v>
       </c>
       <c r="H62" t="s">
-        <v>369</v>
+        <v>338</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B63" t="s">
         <v>84</v>
       </c>
       <c r="C63" t="s">
-        <v>256</v>
-      </c>
-      <c r="D63" t="s">
-        <v>86</v>
-      </c>
-      <c r="E63" t="s">
-        <v>86</v>
-      </c>
-      <c r="F63">
-        <v>29</v>
-      </c>
-      <c r="G63">
-        <v>0</v>
+        <v>232</v>
+      </c>
+      <c r="D63">
+        <v>64</v>
+      </c>
+      <c r="E63">
+        <v>11831620</v>
+      </c>
+      <c r="F63" t="s">
+        <v>66</v>
+      </c>
+      <c r="G63" t="s">
+        <v>66</v>
       </c>
       <c r="H63" t="s">
-        <v>369</v>
+        <v>338</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B64" t="s">
         <v>85</v>
       </c>
       <c r="C64" t="s">
-        <v>257</v>
-      </c>
-      <c r="D64" t="s">
-        <v>86</v>
-      </c>
-      <c r="E64" t="s">
-        <v>86</v>
-      </c>
-      <c r="F64">
-        <v>29</v>
-      </c>
-      <c r="G64">
-        <v>0</v>
+        <v>233</v>
+      </c>
+      <c r="D64">
+        <v>64</v>
+      </c>
+      <c r="E64">
+        <v>11831620</v>
+      </c>
+      <c r="F64" t="s">
+        <v>66</v>
+      </c>
+      <c r="G64" t="s">
+        <v>66</v>
       </c>
       <c r="H64" t="s">
-        <v>369</v>
+        <v>338</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B65" t="s">
         <v>86</v>
       </c>
       <c r="C65" t="s">
-        <v>86</v>
+        <v>234</v>
       </c>
       <c r="D65">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E65">
-        <v>45255</v>
+        <v>11831620</v>
       </c>
       <c r="F65" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="G65" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="H65" t="s">
-        <v>370</v>
+        <v>338</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B66" t="s">
         <v>87</v>
       </c>
       <c r="C66" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="D66">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E66">
-        <v>45255</v>
+        <v>11831620</v>
       </c>
       <c r="F66" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="G66" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="H66" t="s">
-        <v>370</v>
+        <v>338</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B67" t="s">
         <v>88</v>
       </c>
       <c r="C67" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
       <c r="D67">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="E67">
-        <v>5778</v>
-      </c>
-      <c r="F67">
-        <v>29</v>
-      </c>
-      <c r="G67">
-        <v>29</v>
+        <v>11831620</v>
+      </c>
+      <c r="F67" t="s">
+        <v>66</v>
+      </c>
+      <c r="G67" t="s">
+        <v>66</v>
       </c>
       <c r="H67" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B68" t="s">
         <v>89</v>
       </c>
       <c r="C68" t="s">
-        <v>260</v>
+        <v>237</v>
       </c>
       <c r="D68">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="E68">
-        <v>5778</v>
-      </c>
-      <c r="F68">
-        <v>29</v>
-      </c>
-      <c r="G68">
-        <v>29</v>
+        <v>11831620</v>
+      </c>
+      <c r="F68" t="s">
+        <v>66</v>
+      </c>
+      <c r="G68" t="s">
+        <v>66</v>
       </c>
       <c r="H68" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B69" t="s">
         <v>90</v>
       </c>
       <c r="C69" t="s">
-        <v>261</v>
+        <v>238</v>
       </c>
       <c r="D69">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="E69">
-        <v>5778</v>
-      </c>
-      <c r="F69">
-        <v>29</v>
-      </c>
-      <c r="G69">
-        <v>29</v>
+        <v>11831620</v>
+      </c>
+      <c r="F69" t="s">
+        <v>66</v>
+      </c>
+      <c r="G69" t="s">
+        <v>66</v>
       </c>
       <c r="H69" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B70" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C70" t="s">
-        <v>86</v>
+        <v>239</v>
       </c>
       <c r="D70">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E70">
-        <v>38412</v>
+        <v>11831620</v>
       </c>
       <c r="F70" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="G70" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="H70" t="s">
-        <v>372</v>
+        <v>338</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B71" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C71" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="D71">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E71">
-        <v>38412</v>
+        <v>11831620</v>
       </c>
       <c r="F71" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="G71" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="H71" t="s">
-        <v>372</v>
+        <v>338</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B72" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C72" t="s">
-        <v>86</v>
+        <v>241</v>
       </c>
       <c r="D72">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="E72">
-        <v>46708</v>
+        <v>11831620</v>
       </c>
       <c r="F72" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="G72" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="H72" t="s">
-        <v>373</v>
+        <v>338</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B73" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C73" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
       <c r="D73">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="E73">
-        <v>46708</v>
+        <v>11831620</v>
       </c>
       <c r="F73" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="G73" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="H73" t="s">
-        <v>373</v>
+        <v>338</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B74" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C74" t="s">
-        <v>264</v>
-      </c>
-      <c r="D74" t="s">
-        <v>86</v>
-      </c>
-      <c r="E74" t="s">
-        <v>86</v>
-      </c>
-      <c r="F74">
-        <v>20</v>
-      </c>
-      <c r="G74">
-        <v>0</v>
+        <v>243</v>
+      </c>
+      <c r="D74">
+        <v>64</v>
+      </c>
+      <c r="E74">
+        <v>11831620</v>
+      </c>
+      <c r="F74" t="s">
+        <v>66</v>
+      </c>
+      <c r="G74" t="s">
+        <v>66</v>
       </c>
       <c r="H74" t="s">
-        <v>374</v>
+        <v>338</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B75" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C75" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="D75">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="E75">
-        <v>3247</v>
-      </c>
-      <c r="F75">
-        <v>23</v>
-      </c>
-      <c r="G75">
-        <v>4</v>
+        <v>11831620</v>
+      </c>
+      <c r="F75" t="s">
+        <v>66</v>
+      </c>
+      <c r="G75" t="s">
+        <v>66</v>
       </c>
       <c r="H75" t="s">
-        <v>375</v>
+        <v>338</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B76" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="C76" t="s">
-        <v>86</v>
+        <v>245</v>
       </c>
       <c r="D76">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="E76">
-        <v>11162</v>
+        <v>11831620</v>
       </c>
       <c r="F76" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="G76" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="H76" t="s">
-        <v>376</v>
+        <v>338</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B77" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C77" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="D77">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="E77">
-        <v>11162</v>
+        <v>11831620</v>
       </c>
       <c r="F77" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="G77" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="H77" t="s">
-        <v>376</v>
+        <v>338</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B78" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C78" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="D78">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="E78">
-        <v>11162</v>
+        <v>11831620</v>
       </c>
       <c r="F78" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="G78" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="H78" t="s">
-        <v>376</v>
+        <v>338</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B79" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C79" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="D79">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="E79">
-        <v>11162</v>
+        <v>11831620</v>
       </c>
       <c r="F79" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="G79" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="H79" t="s">
-        <v>376</v>
+        <v>338</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B80" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C80" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="D80">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="E80">
-        <v>3595</v>
+        <v>11831620</v>
       </c>
       <c r="F80" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="G80" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="H80" t="s">
-        <v>377</v>
+        <v>338</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B81" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C81" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="D81">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="E81">
-        <v>3595</v>
+        <v>11831620</v>
       </c>
       <c r="F81" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="G81" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="H81" t="s">
-        <v>377</v>
+        <v>338</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B82" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C82" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="D82">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="E82">
-        <v>3595</v>
+        <v>11831620</v>
       </c>
       <c r="F82" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="G82" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="H82" t="s">
-        <v>377</v>
+        <v>338</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B83" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C83" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="D83">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="E83">
-        <v>3595</v>
+        <v>11831620</v>
       </c>
       <c r="F83" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="G83" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="H83" t="s">
-        <v>377</v>
+        <v>338</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B84" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C84" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="D84">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="E84">
-        <v>20505</v>
+        <v>11831620</v>
       </c>
       <c r="F84" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="G84" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="H84" t="s">
-        <v>378</v>
+        <v>338</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B85" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C85" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
       <c r="D85">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="E85">
-        <v>20505</v>
+        <v>11831620</v>
       </c>
       <c r="F85" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="G85" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="H85" t="s">
-        <v>378</v>
+        <v>338</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B86" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C86" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="D86">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="E86">
-        <v>20505</v>
+        <v>11831620</v>
       </c>
       <c r="F86" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="G86" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="H86" t="s">
-        <v>378</v>
+        <v>338</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B87" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="C87" t="s">
-        <v>86</v>
+        <v>256</v>
       </c>
       <c r="D87">
         <v>64</v>
       </c>
       <c r="E87">
-        <v>8695329</v>
+        <v>11831620</v>
       </c>
       <c r="F87" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="G87" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="H87" t="s">
-        <v>379</v>
+        <v>338</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C88" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="D88">
         <v>64</v>
       </c>
       <c r="E88">
-        <v>8695329</v>
+        <v>11831620</v>
       </c>
       <c r="F88" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="G88" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="H88" t="s">
-        <v>379</v>
+        <v>338</v>
       </c>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B89" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C89" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="D89">
         <v>64</v>
       </c>
       <c r="E89">
-        <v>8695329</v>
+        <v>11831620</v>
       </c>
       <c r="F89" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="G89" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="H89" t="s">
-        <v>379</v>
+        <v>338</v>
       </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B90" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C90" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D90">
         <v>64</v>
       </c>
       <c r="E90">
-        <v>8695329</v>
+        <v>11831620</v>
       </c>
       <c r="F90" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="G90" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="H90" t="s">
-        <v>379</v>
+        <v>338</v>
       </c>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B91" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C91" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="D91">
         <v>64</v>
       </c>
       <c r="E91">
-        <v>8695329</v>
+        <v>11831620</v>
       </c>
       <c r="F91" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="G91" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="H91" t="s">
-        <v>379</v>
+        <v>338</v>
       </c>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B92" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C92" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="D92">
         <v>64</v>
       </c>
       <c r="E92">
-        <v>8695329</v>
+        <v>11831620</v>
       </c>
       <c r="F92" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="G92" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="H92" t="s">
-        <v>379</v>
+        <v>338</v>
       </c>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B93" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C93" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="D93">
         <v>64</v>
       </c>
       <c r="E93">
-        <v>8695329</v>
+        <v>11831620</v>
       </c>
       <c r="F93" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="G93" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="H93" t="s">
-        <v>379</v>
+        <v>338</v>
       </c>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B94" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C94" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="D94">
         <v>64</v>
       </c>
       <c r="E94">
-        <v>8695329</v>
+        <v>11831620</v>
       </c>
       <c r="F94" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="G94" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="H94" t="s">
-        <v>379</v>
+        <v>338</v>
       </c>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B95" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C95" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="D95">
         <v>64</v>
       </c>
       <c r="E95">
-        <v>8695329</v>
+        <v>11831620</v>
       </c>
       <c r="F95" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="G95" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="H95" t="s">
-        <v>379</v>
+        <v>338</v>
       </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B96" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C96" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
       <c r="D96">
         <v>64</v>
       </c>
       <c r="E96">
-        <v>8695329</v>
+        <v>11831620</v>
       </c>
       <c r="F96" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="G96" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="H96" t="s">
-        <v>379</v>
+        <v>338</v>
       </c>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B97" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C97" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="D97">
         <v>64</v>
       </c>
       <c r="E97">
-        <v>8695329</v>
+        <v>11831620</v>
       </c>
       <c r="F97" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="G97" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="H97" t="s">
-        <v>379</v>
+        <v>338</v>
       </c>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B98" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C98" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="D98">
         <v>64</v>
       </c>
       <c r="E98">
-        <v>8695329</v>
+        <v>11831620</v>
       </c>
       <c r="F98" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="G98" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="H98" t="s">
-        <v>379</v>
+        <v>338</v>
       </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B99" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C99" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="D99">
         <v>64</v>
       </c>
       <c r="E99">
-        <v>8695329</v>
+        <v>11831620</v>
       </c>
       <c r="F99" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="G99" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="H99" t="s">
-        <v>379</v>
+        <v>338</v>
       </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B100" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C100" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="D100">
         <v>64</v>
       </c>
       <c r="E100">
-        <v>8695329</v>
+        <v>11831620</v>
       </c>
       <c r="F100" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="G100" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="H100" t="s">
-        <v>379</v>
+        <v>338</v>
       </c>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B101" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C101" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="D101">
         <v>64</v>
       </c>
       <c r="E101">
-        <v>8695329</v>
+        <v>11831620</v>
       </c>
       <c r="F101" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="G101" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="H101" t="s">
-        <v>379</v>
+        <v>338</v>
       </c>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B102" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C102" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="D102">
         <v>64</v>
       </c>
       <c r="E102">
-        <v>8695329</v>
+        <v>11831620</v>
       </c>
       <c r="F102" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="G102" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="H102" t="s">
-        <v>379</v>
+        <v>338</v>
       </c>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B103" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C103" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="D103">
         <v>64</v>
       </c>
       <c r="E103">
-        <v>8695329</v>
+        <v>11831620</v>
       </c>
       <c r="F103" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="G103" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="H103" t="s">
-        <v>379</v>
+        <v>338</v>
       </c>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B104" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C104" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="D104">
         <v>64</v>
       </c>
       <c r="E104">
-        <v>8695329</v>
+        <v>11831620</v>
       </c>
       <c r="F104" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="G104" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="H104" t="s">
-        <v>379</v>
+        <v>338</v>
       </c>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B105" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C105" t="s">
-        <v>293</v>
+        <v>274</v>
       </c>
       <c r="D105">
         <v>64</v>
       </c>
       <c r="E105">
-        <v>8695329</v>
+        <v>11831620</v>
       </c>
       <c r="F105" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="G105" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="H105" t="s">
-        <v>379</v>
+        <v>338</v>
       </c>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B106" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C106" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="D106">
         <v>64</v>
       </c>
       <c r="E106">
-        <v>8695329</v>
+        <v>11831620</v>
       </c>
       <c r="F106" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="G106" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="H106" t="s">
-        <v>379</v>
+        <v>338</v>
       </c>
     </row>
     <row r="107" spans="1:8">
       <c r="A107" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B107" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C107" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
       <c r="D107">
         <v>64</v>
       </c>
       <c r="E107">
-        <v>8695329</v>
+        <v>11831620</v>
       </c>
       <c r="F107" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="G107" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="H107" t="s">
-        <v>379</v>
+        <v>338</v>
       </c>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B108" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C108" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="D108">
         <v>64</v>
       </c>
       <c r="E108">
-        <v>8695329</v>
+        <v>11831620</v>
       </c>
       <c r="F108" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="G108" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="H108" t="s">
-        <v>379</v>
+        <v>338</v>
       </c>
     </row>
     <row r="109" spans="1:8">
       <c r="A109" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B109" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C109" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="D109">
         <v>64</v>
       </c>
       <c r="E109">
-        <v>8695329</v>
+        <v>11831620</v>
       </c>
       <c r="F109" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="G109" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="H109" t="s">
-        <v>379</v>
+        <v>338</v>
       </c>
     </row>
     <row r="110" spans="1:8">
       <c r="A110" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B110" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C110" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="D110">
         <v>64</v>
       </c>
       <c r="E110">
-        <v>8695329</v>
+        <v>11831620</v>
       </c>
       <c r="F110" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="G110" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="H110" t="s">
-        <v>379</v>
+        <v>338</v>
       </c>
     </row>
     <row r="111" spans="1:8">
       <c r="A111" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B111" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C111" t="s">
-        <v>299</v>
+        <v>280</v>
       </c>
       <c r="D111">
         <v>64</v>
       </c>
       <c r="E111">
-        <v>8695329</v>
+        <v>11831620</v>
       </c>
       <c r="F111" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="G111" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="H111" t="s">
-        <v>379</v>
+        <v>338</v>
       </c>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B112" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C112" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="D112">
         <v>64</v>
       </c>
       <c r="E112">
-        <v>8695329</v>
+        <v>11831620</v>
       </c>
       <c r="F112" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="G112" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="H112" t="s">
-        <v>379</v>
+        <v>338</v>
       </c>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B113" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C113" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="D113">
         <v>64</v>
       </c>
       <c r="E113">
-        <v>8695329</v>
+        <v>11831620</v>
       </c>
       <c r="F113" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="G113" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="H113" t="s">
-        <v>379</v>
+        <v>338</v>
       </c>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B114" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C114" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
       <c r="D114">
         <v>64</v>
       </c>
       <c r="E114">
-        <v>8695329</v>
+        <v>11831620</v>
       </c>
       <c r="F114" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="G114" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="H114" t="s">
-        <v>379</v>
+        <v>338</v>
       </c>
     </row>
     <row r="115" spans="1:8">
       <c r="A115" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B115" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C115" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="D115">
         <v>64</v>
       </c>
       <c r="E115">
-        <v>8695329</v>
+        <v>11831620</v>
       </c>
       <c r="F115" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="G115" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="H115" t="s">
-        <v>379</v>
+        <v>338</v>
       </c>
     </row>
     <row r="116" spans="1:8">
       <c r="A116" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B116" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C116" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="D116">
         <v>64</v>
       </c>
       <c r="E116">
-        <v>8695329</v>
+        <v>11831620</v>
       </c>
       <c r="F116" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="G116" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="H116" t="s">
-        <v>379</v>
+        <v>338</v>
       </c>
     </row>
     <row r="117" spans="1:8">
       <c r="A117" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B117" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C117" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="D117">
         <v>64</v>
       </c>
       <c r="E117">
-        <v>8695329</v>
+        <v>11831620</v>
       </c>
       <c r="F117" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="G117" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="H117" t="s">
-        <v>379</v>
+        <v>338</v>
       </c>
     </row>
     <row r="118" spans="1:8">
       <c r="A118" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B118" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C118" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="D118">
         <v>64</v>
       </c>
       <c r="E118">
-        <v>8695329</v>
+        <v>11831620</v>
       </c>
       <c r="F118" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="G118" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="H118" t="s">
-        <v>379</v>
+        <v>338</v>
       </c>
     </row>
     <row r="119" spans="1:8">
       <c r="A119" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B119" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C119" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
       <c r="D119">
         <v>64</v>
       </c>
       <c r="E119">
-        <v>8695329</v>
+        <v>11831620</v>
       </c>
       <c r="F119" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="G119" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="H119" t="s">
-        <v>379</v>
+        <v>338</v>
       </c>
     </row>
     <row r="120" spans="1:8">
       <c r="A120" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B120" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C120" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="D120">
         <v>64</v>
       </c>
       <c r="E120">
-        <v>8695329</v>
+        <v>11831620</v>
       </c>
       <c r="F120" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="G120" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="H120" t="s">
-        <v>379</v>
+        <v>338</v>
       </c>
     </row>
     <row r="121" spans="1:8">
       <c r="A121" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B121" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C121" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
       <c r="D121">
         <v>64</v>
       </c>
       <c r="E121">
-        <v>8695329</v>
+        <v>11831620</v>
       </c>
       <c r="F121" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="G121" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="H121" t="s">
-        <v>379</v>
+        <v>338</v>
       </c>
     </row>
     <row r="122" spans="1:8">
       <c r="A122" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B122" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C122" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
       <c r="D122">
         <v>64</v>
       </c>
       <c r="E122">
-        <v>8695329</v>
+        <v>11831620</v>
       </c>
       <c r="F122" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="G122" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="H122" t="s">
-        <v>379</v>
+        <v>338</v>
       </c>
     </row>
     <row r="123" spans="1:8">
       <c r="A123" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B123" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C123" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="D123">
         <v>64</v>
       </c>
       <c r="E123">
-        <v>8695329</v>
+        <v>11831620</v>
       </c>
       <c r="F123" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="G123" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="H123" t="s">
-        <v>379</v>
+        <v>338</v>
       </c>
     </row>
     <row r="124" spans="1:8">
       <c r="A124" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B124" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C124" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="D124">
         <v>64</v>
       </c>
       <c r="E124">
-        <v>8695329</v>
+        <v>11831620</v>
       </c>
       <c r="F124" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="G124" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="H124" t="s">
-        <v>379</v>
+        <v>338</v>
       </c>
     </row>
     <row r="125" spans="1:8">
       <c r="A125" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B125" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C125" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="D125">
         <v>64</v>
       </c>
       <c r="E125">
-        <v>8695329</v>
+        <v>11831620</v>
       </c>
       <c r="F125" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="G125" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="H125" t="s">
-        <v>379</v>
+        <v>338</v>
       </c>
     </row>
     <row r="126" spans="1:8">
       <c r="A126" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B126" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C126" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
       <c r="D126">
         <v>64</v>
       </c>
       <c r="E126">
-        <v>8695329</v>
+        <v>11831620</v>
       </c>
       <c r="F126" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="G126" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="H126" t="s">
-        <v>379</v>
+        <v>338</v>
       </c>
     </row>
     <row r="127" spans="1:8">
       <c r="A127" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B127" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C127" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
       <c r="D127">
         <v>64</v>
       </c>
       <c r="E127">
-        <v>8695329</v>
+        <v>11831620</v>
       </c>
       <c r="F127" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="G127" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="H127" t="s">
-        <v>379</v>
+        <v>338</v>
       </c>
     </row>
     <row r="128" spans="1:8">
       <c r="A128" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B128" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C128" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="D128">
         <v>64</v>
       </c>
       <c r="E128">
-        <v>8695329</v>
+        <v>11831620</v>
       </c>
       <c r="F128" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="G128" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="H128" t="s">
-        <v>379</v>
+        <v>338</v>
       </c>
     </row>
     <row r="129" spans="1:8">
       <c r="A129" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B129" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C129" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="D129">
         <v>64</v>
       </c>
       <c r="E129">
-        <v>8695329</v>
+        <v>11831620</v>
       </c>
       <c r="F129" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="G129" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="H129" t="s">
-        <v>379</v>
+        <v>338</v>
       </c>
     </row>
     <row r="130" spans="1:8">
       <c r="A130" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B130" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C130" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
       <c r="D130">
         <v>64</v>
       </c>
       <c r="E130">
-        <v>8695329</v>
+        <v>11831620</v>
       </c>
       <c r="F130" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="G130" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="H130" t="s">
-        <v>379</v>
+        <v>338</v>
       </c>
     </row>
     <row r="131" spans="1:8">
       <c r="A131" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B131" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C131" t="s">
-        <v>319</v>
+        <v>300</v>
       </c>
       <c r="D131">
         <v>64</v>
       </c>
       <c r="E131">
-        <v>8695329</v>
+        <v>11831620</v>
       </c>
       <c r="F131" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="G131" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="H131" t="s">
-        <v>379</v>
+        <v>338</v>
       </c>
     </row>
     <row r="132" spans="1:8">
       <c r="A132" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B132" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C132" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="D132">
         <v>64</v>
       </c>
       <c r="E132">
-        <v>8695329</v>
+        <v>11831620</v>
       </c>
       <c r="F132" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="G132" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="H132" t="s">
-        <v>379</v>
+        <v>338</v>
       </c>
     </row>
     <row r="133" spans="1:8">
       <c r="A133" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B133" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C133" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="D133">
         <v>64</v>
       </c>
       <c r="E133">
-        <v>8695329</v>
+        <v>11831620</v>
       </c>
       <c r="F133" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="G133" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="H133" t="s">
-        <v>379</v>
+        <v>338</v>
       </c>
     </row>
     <row r="134" spans="1:8">
       <c r="A134" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B134" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C134" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="D134">
         <v>64</v>
       </c>
       <c r="E134">
-        <v>8695329</v>
+        <v>11831620</v>
       </c>
       <c r="F134" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="G134" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="H134" t="s">
-        <v>379</v>
+        <v>338</v>
       </c>
     </row>
     <row r="135" spans="1:8">
       <c r="A135" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B135" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C135" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
       <c r="D135">
         <v>64</v>
       </c>
       <c r="E135">
-        <v>8695329</v>
+        <v>11831620</v>
       </c>
       <c r="F135" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="G135" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="H135" t="s">
-        <v>379</v>
+        <v>338</v>
       </c>
     </row>
     <row r="136" spans="1:8">
       <c r="A136" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B136" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C136" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="D136">
         <v>64</v>
       </c>
       <c r="E136">
-        <v>8695329</v>
+        <v>11831620</v>
       </c>
       <c r="F136" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="G136" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="H136" t="s">
-        <v>379</v>
+        <v>338</v>
       </c>
     </row>
     <row r="137" spans="1:8">
       <c r="A137" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B137" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C137" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="D137">
         <v>64</v>
       </c>
       <c r="E137">
-        <v>8695329</v>
+        <v>11831620</v>
       </c>
       <c r="F137" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="G137" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="H137" t="s">
-        <v>379</v>
+        <v>338</v>
       </c>
     </row>
     <row r="138" spans="1:8">
       <c r="A138" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B138" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C138" t="s">
-        <v>326</v>
+        <v>307</v>
       </c>
       <c r="D138">
         <v>64</v>
       </c>
       <c r="E138">
-        <v>8695329</v>
+        <v>11831620</v>
       </c>
       <c r="F138" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="G138" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="H138" t="s">
-        <v>379</v>
+        <v>338</v>
       </c>
     </row>
     <row r="139" spans="1:8">
       <c r="A139" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B139" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C139" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="D139">
         <v>64</v>
       </c>
       <c r="E139">
-        <v>8695329</v>
+        <v>11831620</v>
       </c>
       <c r="F139" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="G139" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="H139" t="s">
-        <v>379</v>
+        <v>338</v>
       </c>
     </row>
     <row r="140" spans="1:8">
       <c r="A140" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B140" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C140" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
       <c r="D140">
         <v>64</v>
       </c>
       <c r="E140">
-        <v>8695329</v>
+        <v>11831620</v>
       </c>
       <c r="F140" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="G140" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="H140" t="s">
-        <v>379</v>
+        <v>338</v>
       </c>
     </row>
     <row r="141" spans="1:8">
       <c r="A141" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B141" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C141" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
       <c r="D141">
         <v>64</v>
       </c>
       <c r="E141">
-        <v>8695329</v>
+        <v>11831620</v>
       </c>
       <c r="F141" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="G141" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="H141" t="s">
-        <v>379</v>
+        <v>338</v>
       </c>
     </row>
     <row r="142" spans="1:8">
       <c r="A142" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B142" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C142" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="D142">
         <v>64</v>
       </c>
       <c r="E142">
-        <v>8695329</v>
+        <v>11831620</v>
       </c>
       <c r="F142" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="G142" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="H142" t="s">
-        <v>379</v>
+        <v>338</v>
       </c>
     </row>
     <row r="143" spans="1:8">
       <c r="A143" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B143" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C143" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="D143">
         <v>64</v>
       </c>
       <c r="E143">
-        <v>8695329</v>
+        <v>11831620</v>
       </c>
       <c r="F143" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="G143" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="H143" t="s">
-        <v>379</v>
+        <v>338</v>
       </c>
     </row>
     <row r="144" spans="1:8">
       <c r="A144" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B144" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C144" t="s">
-        <v>332</v>
+        <v>313</v>
       </c>
       <c r="D144">
         <v>64</v>
       </c>
       <c r="E144">
-        <v>8695329</v>
+        <v>11831620</v>
       </c>
       <c r="F144" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="G144" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="H144" t="s">
-        <v>379</v>
+        <v>338</v>
       </c>
     </row>
     <row r="145" spans="1:8">
       <c r="A145" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B145" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C145" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
       <c r="D145">
         <v>64</v>
       </c>
       <c r="E145">
-        <v>8695329</v>
+        <v>11831620</v>
       </c>
       <c r="F145" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="G145" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="H145" t="s">
-        <v>379</v>
+        <v>338</v>
       </c>
     </row>
     <row r="146" spans="1:8">
       <c r="A146" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B146" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C146" t="s">
-        <v>334</v>
+        <v>315</v>
       </c>
       <c r="D146">
         <v>64</v>
       </c>
       <c r="E146">
-        <v>8695329</v>
+        <v>11831620</v>
       </c>
       <c r="F146" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="G146" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="H146" t="s">
-        <v>379</v>
+        <v>338</v>
       </c>
     </row>
     <row r="147" spans="1:8">
       <c r="A147" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B147" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C147" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="D147">
         <v>64</v>
       </c>
       <c r="E147">
-        <v>8695329</v>
+        <v>11831620</v>
       </c>
       <c r="F147" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="G147" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="H147" t="s">
-        <v>379</v>
+        <v>338</v>
       </c>
     </row>
     <row r="148" spans="1:8">
       <c r="A148" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B148" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C148" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="D148">
         <v>64</v>
       </c>
       <c r="E148">
-        <v>8695329</v>
+        <v>11831620</v>
       </c>
       <c r="F148" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="G148" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="H148" t="s">
-        <v>379</v>
+        <v>338</v>
       </c>
     </row>
     <row r="149" spans="1:8">
       <c r="A149" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B149" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C149" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="D149">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="E149">
-        <v>8695329</v>
+        <v>173440</v>
       </c>
       <c r="F149" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="G149" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="H149" t="s">
-        <v>379</v>
+        <v>339</v>
       </c>
     </row>
     <row r="150" spans="1:8">
       <c r="A150" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B150" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C150" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
       <c r="D150">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E150">
-        <v>8695329</v>
-      </c>
-      <c r="F150" t="s">
-        <v>86</v>
-      </c>
-      <c r="G150" t="s">
-        <v>86</v>
+        <v>3033</v>
+      </c>
+      <c r="F150">
+        <v>36</v>
+      </c>
+      <c r="G150">
+        <v>15</v>
       </c>
       <c r="H150" t="s">
-        <v>379</v>
+        <v>340</v>
       </c>
     </row>
     <row r="151" spans="1:8">
       <c r="A151" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B151" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C151" t="s">
-        <v>339</v>
+        <v>320</v>
       </c>
       <c r="D151">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E151">
-        <v>8695329</v>
-      </c>
-      <c r="F151" t="s">
-        <v>86</v>
-      </c>
-      <c r="G151" t="s">
-        <v>86</v>
+        <v>3033</v>
+      </c>
+      <c r="F151">
+        <v>36</v>
+      </c>
+      <c r="G151">
+        <v>15</v>
       </c>
       <c r="H151" t="s">
-        <v>379</v>
+        <v>340</v>
       </c>
     </row>
     <row r="152" spans="1:8">
       <c r="A152" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B152" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C152" t="s">
+        <v>321</v>
+      </c>
+      <c r="D152">
+        <v>61</v>
+      </c>
+      <c r="E152">
+        <v>3033</v>
+      </c>
+      <c r="F152">
+        <v>36</v>
+      </c>
+      <c r="G152">
+        <v>15</v>
+      </c>
+      <c r="H152" t="s">
         <v>340</v>
-      </c>
-      <c r="D152">
-        <v>64</v>
-      </c>
-      <c r="E152">
-        <v>8695329</v>
-      </c>
-      <c r="F152" t="s">
-        <v>86</v>
-      </c>
-      <c r="G152" t="s">
-        <v>86</v>
-      </c>
-      <c r="H152" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="153" spans="1:8">
       <c r="A153" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B153" t="s">
-        <v>170</v>
+        <v>66</v>
       </c>
       <c r="C153" t="s">
+        <v>66</v>
+      </c>
+      <c r="D153">
+        <v>40</v>
+      </c>
+      <c r="E153">
+        <v>11429</v>
+      </c>
+      <c r="F153">
+        <v>34</v>
+      </c>
+      <c r="G153">
+        <v>1</v>
+      </c>
+      <c r="H153" t="s">
         <v>341</v>
-      </c>
-      <c r="D153">
-        <v>64</v>
-      </c>
-      <c r="E153">
-        <v>8695329</v>
-      </c>
-      <c r="F153" t="s">
-        <v>86</v>
-      </c>
-      <c r="G153" t="s">
-        <v>86</v>
-      </c>
-      <c r="H153" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="154" spans="1:8">
       <c r="A154" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B154" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C154" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
       <c r="D154">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="E154">
-        <v>8695329</v>
-      </c>
-      <c r="F154" t="s">
-        <v>86</v>
-      </c>
-      <c r="G154" t="s">
-        <v>86</v>
+        <v>11429</v>
+      </c>
+      <c r="F154">
+        <v>34</v>
+      </c>
+      <c r="G154">
+        <v>1</v>
       </c>
       <c r="H154" t="s">
-        <v>379</v>
+        <v>341</v>
       </c>
     </row>
     <row r="155" spans="1:8">
       <c r="A155" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B155" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C155" t="s">
-        <v>343</v>
-      </c>
-      <c r="D155">
-        <v>64</v>
-      </c>
-      <c r="E155">
-        <v>8695329</v>
-      </c>
-      <c r="F155" t="s">
-        <v>86</v>
-      </c>
-      <c r="G155" t="s">
-        <v>86</v>
+        <v>323</v>
+      </c>
+      <c r="D155" t="s">
+        <v>66</v>
+      </c>
+      <c r="E155" t="s">
+        <v>66</v>
+      </c>
+      <c r="F155">
+        <v>28</v>
+      </c>
+      <c r="G155">
+        <v>0</v>
       </c>
       <c r="H155" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
-      <c r="A156" t="s">
-        <v>21</v>
-      </c>
-      <c r="B156" t="s">
-        <v>173</v>
-      </c>
-      <c r="C156" t="s">
-        <v>344</v>
-      </c>
-      <c r="D156">
-        <v>64</v>
-      </c>
-      <c r="E156">
-        <v>8695329</v>
-      </c>
-      <c r="F156" t="s">
-        <v>86</v>
-      </c>
-      <c r="G156" t="s">
-        <v>86</v>
-      </c>
-      <c r="H156" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
-      <c r="A157" t="s">
-        <v>21</v>
-      </c>
-      <c r="B157" t="s">
-        <v>174</v>
-      </c>
-      <c r="C157" t="s">
-        <v>345</v>
-      </c>
-      <c r="D157">
-        <v>64</v>
-      </c>
-      <c r="E157">
-        <v>8695329</v>
-      </c>
-      <c r="F157" t="s">
-        <v>86</v>
-      </c>
-      <c r="G157" t="s">
-        <v>86</v>
-      </c>
-      <c r="H157" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
-      <c r="A158" t="s">
-        <v>21</v>
-      </c>
-      <c r="B158" t="s">
-        <v>175</v>
-      </c>
-      <c r="C158" t="s">
-        <v>346</v>
-      </c>
-      <c r="D158">
-        <v>64</v>
-      </c>
-      <c r="E158">
-        <v>8695329</v>
-      </c>
-      <c r="F158" t="s">
-        <v>86</v>
-      </c>
-      <c r="G158" t="s">
-        <v>86</v>
-      </c>
-      <c r="H158" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
-      <c r="A159" t="s">
-        <v>21</v>
-      </c>
-      <c r="B159" t="s">
-        <v>176</v>
-      </c>
-      <c r="C159" t="s">
-        <v>347</v>
-      </c>
-      <c r="D159">
-        <v>64</v>
-      </c>
-      <c r="E159">
-        <v>8695329</v>
-      </c>
-      <c r="F159" t="s">
-        <v>86</v>
-      </c>
-      <c r="G159" t="s">
-        <v>86</v>
-      </c>
-      <c r="H159" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
-      <c r="A160" t="s">
-        <v>21</v>
-      </c>
-      <c r="B160" t="s">
-        <v>177</v>
-      </c>
-      <c r="C160" t="s">
-        <v>348</v>
-      </c>
-      <c r="D160">
-        <v>64</v>
-      </c>
-      <c r="E160">
-        <v>8695329</v>
-      </c>
-      <c r="F160" t="s">
-        <v>86</v>
-      </c>
-      <c r="G160" t="s">
-        <v>86</v>
-      </c>
-      <c r="H160" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
-      <c r="A161" t="s">
-        <v>21</v>
-      </c>
-      <c r="B161" t="s">
-        <v>178</v>
-      </c>
-      <c r="C161" t="s">
-        <v>349</v>
-      </c>
-      <c r="D161">
-        <v>64</v>
-      </c>
-      <c r="E161">
-        <v>8695329</v>
-      </c>
-      <c r="F161" t="s">
-        <v>86</v>
-      </c>
-      <c r="G161" t="s">
-        <v>86</v>
-      </c>
-      <c r="H161" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
-      <c r="A162" t="s">
-        <v>21</v>
-      </c>
-      <c r="B162" t="s">
-        <v>179</v>
-      </c>
-      <c r="C162" t="s">
-        <v>350</v>
-      </c>
-      <c r="D162">
-        <v>64</v>
-      </c>
-      <c r="E162">
-        <v>8695329</v>
-      </c>
-      <c r="F162" t="s">
-        <v>86</v>
-      </c>
-      <c r="G162" t="s">
-        <v>86</v>
-      </c>
-      <c r="H162" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
-      <c r="A163" t="s">
-        <v>21</v>
-      </c>
-      <c r="B163" t="s">
-        <v>180</v>
-      </c>
-      <c r="C163" t="s">
-        <v>351</v>
-      </c>
-      <c r="D163">
-        <v>64</v>
-      </c>
-      <c r="E163">
-        <v>8695329</v>
-      </c>
-      <c r="F163" t="s">
-        <v>86</v>
-      </c>
-      <c r="G163" t="s">
-        <v>86</v>
-      </c>
-      <c r="H163" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
-      <c r="A164" t="s">
-        <v>21</v>
-      </c>
-      <c r="B164" t="s">
-        <v>181</v>
-      </c>
-      <c r="C164" t="s">
-        <v>352</v>
-      </c>
-      <c r="D164">
-        <v>64</v>
-      </c>
-      <c r="E164">
-        <v>8695329</v>
-      </c>
-      <c r="F164" t="s">
-        <v>86</v>
-      </c>
-      <c r="G164" t="s">
-        <v>86</v>
-      </c>
-      <c r="H164" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
-      <c r="A165" t="s">
-        <v>21</v>
-      </c>
-      <c r="B165" t="s">
-        <v>182</v>
-      </c>
-      <c r="C165" t="s">
-        <v>353</v>
-      </c>
-      <c r="D165">
-        <v>64</v>
-      </c>
-      <c r="E165">
-        <v>8695329</v>
-      </c>
-      <c r="F165" t="s">
-        <v>86</v>
-      </c>
-      <c r="G165" t="s">
-        <v>86</v>
-      </c>
-      <c r="H165" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
-      <c r="A166" t="s">
-        <v>21</v>
-      </c>
-      <c r="B166" t="s">
-        <v>183</v>
-      </c>
-      <c r="C166" t="s">
-        <v>354</v>
-      </c>
-      <c r="D166">
-        <v>64</v>
-      </c>
-      <c r="E166">
-        <v>8695329</v>
-      </c>
-      <c r="F166" t="s">
-        <v>86</v>
-      </c>
-      <c r="G166" t="s">
-        <v>86</v>
-      </c>
-      <c r="H166" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
-      <c r="A167" t="s">
-        <v>21</v>
-      </c>
-      <c r="B167" t="s">
-        <v>184</v>
-      </c>
-      <c r="C167" t="s">
-        <v>355</v>
-      </c>
-      <c r="D167">
-        <v>64</v>
-      </c>
-      <c r="E167">
-        <v>8695329</v>
-      </c>
-      <c r="F167" t="s">
-        <v>86</v>
-      </c>
-      <c r="G167" t="s">
-        <v>86</v>
-      </c>
-      <c r="H167" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
-      <c r="A168" t="s">
-        <v>21</v>
-      </c>
-      <c r="B168" t="s">
-        <v>185</v>
-      </c>
-      <c r="C168" t="s">
-        <v>356</v>
-      </c>
-      <c r="D168">
-        <v>64</v>
-      </c>
-      <c r="E168">
-        <v>8695329</v>
-      </c>
-      <c r="F168" t="s">
-        <v>86</v>
-      </c>
-      <c r="G168" t="s">
-        <v>86</v>
-      </c>
-      <c r="H168" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
-      <c r="A169" t="s">
-        <v>21</v>
-      </c>
-      <c r="B169" t="s">
-        <v>186</v>
-      </c>
-      <c r="C169" t="s">
-        <v>357</v>
-      </c>
-      <c r="D169">
-        <v>64</v>
-      </c>
-      <c r="E169">
-        <v>8695329</v>
-      </c>
-      <c r="F169" t="s">
-        <v>86</v>
-      </c>
-      <c r="G169" t="s">
-        <v>86</v>
-      </c>
-      <c r="H169" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
-      <c r="A170" t="s">
-        <v>21</v>
-      </c>
-      <c r="B170" t="s">
-        <v>187</v>
-      </c>
-      <c r="C170" t="s">
-        <v>358</v>
-      </c>
-      <c r="D170">
-        <v>64</v>
-      </c>
-      <c r="E170">
-        <v>8695329</v>
-      </c>
-      <c r="F170" t="s">
-        <v>86</v>
-      </c>
-      <c r="G170" t="s">
-        <v>86</v>
-      </c>
-      <c r="H170" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
-      <c r="A171" t="s">
-        <v>21</v>
-      </c>
-      <c r="B171" t="s">
-        <v>188</v>
-      </c>
-      <c r="C171" t="s">
-        <v>359</v>
-      </c>
-      <c r="D171">
-        <v>64</v>
-      </c>
-      <c r="E171">
-        <v>8695329</v>
-      </c>
-      <c r="F171" t="s">
-        <v>86</v>
-      </c>
-      <c r="G171" t="s">
-        <v>86</v>
-      </c>
-      <c r="H171" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
-      <c r="A172" t="s">
-        <v>21</v>
-      </c>
-      <c r="B172" t="s">
-        <v>189</v>
-      </c>
-      <c r="C172" t="s">
-        <v>360</v>
-      </c>
-      <c r="D172">
-        <v>64</v>
-      </c>
-      <c r="E172">
-        <v>8695329</v>
-      </c>
-      <c r="F172" t="s">
-        <v>86</v>
-      </c>
-      <c r="G172" t="s">
-        <v>86</v>
-      </c>
-      <c r="H172" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
-      <c r="A173" t="s">
-        <v>21</v>
-      </c>
-      <c r="B173" t="s">
-        <v>190</v>
-      </c>
-      <c r="C173" t="s">
-        <v>361</v>
-      </c>
-      <c r="D173">
-        <v>64</v>
-      </c>
-      <c r="E173">
-        <v>8695329</v>
-      </c>
-      <c r="F173" t="s">
-        <v>86</v>
-      </c>
-      <c r="G173" t="s">
-        <v>86</v>
-      </c>
-      <c r="H173" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
-      <c r="A174" t="s">
-        <v>21</v>
-      </c>
-      <c r="B174" t="s">
-        <v>191</v>
-      </c>
-      <c r="C174" t="s">
-        <v>362</v>
-      </c>
-      <c r="D174">
-        <v>64</v>
-      </c>
-      <c r="E174">
-        <v>8695329</v>
-      </c>
-      <c r="F174" t="s">
-        <v>86</v>
-      </c>
-      <c r="G174" t="s">
-        <v>86</v>
-      </c>
-      <c r="H174" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
-      <c r="A175" t="s">
-        <v>21</v>
-      </c>
-      <c r="B175" t="s">
-        <v>192</v>
-      </c>
-      <c r="C175" t="s">
-        <v>363</v>
-      </c>
-      <c r="D175">
-        <v>64</v>
-      </c>
-      <c r="E175">
-        <v>8695329</v>
-      </c>
-      <c r="F175" t="s">
-        <v>86</v>
-      </c>
-      <c r="G175" t="s">
-        <v>86</v>
-      </c>
-      <c r="H175" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
-      <c r="A176" t="s">
-        <v>21</v>
-      </c>
-      <c r="B176" t="s">
-        <v>193</v>
-      </c>
-      <c r="C176" t="s">
-        <v>364</v>
-      </c>
-      <c r="D176">
-        <v>64</v>
-      </c>
-      <c r="E176">
-        <v>8695329</v>
-      </c>
-      <c r="F176" t="s">
-        <v>86</v>
-      </c>
-      <c r="G176" t="s">
-        <v>86</v>
-      </c>
-      <c r="H176" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
-      <c r="A177" t="s">
-        <v>22</v>
-      </c>
-      <c r="B177" t="s">
-        <v>194</v>
-      </c>
-      <c r="C177" t="s">
-        <v>365</v>
-      </c>
-      <c r="D177" t="s">
-        <v>86</v>
-      </c>
-      <c r="E177" t="s">
-        <v>86</v>
-      </c>
-      <c r="F177">
-        <v>30</v>
-      </c>
-      <c r="G177">
-        <v>0</v>
-      </c>
-      <c r="H177" t="s">
-        <v>380</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>

--- a/Output/ManualCheck.xlsx
+++ b/Output/ManualCheck.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G156"/>
+  <dimension ref="A1:G277"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,19 +478,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>www.sitelike.org/similar/tanglike.biz/</t>
+          <t>www.sitelike.org/similar/quetsodienthoai.com/</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>/similar/tanglike.biz/</t>
+          <t>/similar/quetsodienthoai.com/</t>
         </is>
       </c>
       <c r="D2" t="n">
         <v>64</v>
       </c>
       <c r="E2" t="n">
-        <v>11831620</v>
+        <v>14344949</v>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
@@ -498,24 +498,24 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>sitelike.org</t>
+          <t>inthienha.com</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>www.sitelike.org/similar/quetlead.com/</t>
+          <t>inthienha.com/viet-chu-in-dam-nghieng-gach-ngang.htm</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>/similar/quetlead.com/</t>
+          <t>/viet-chu-in-dam-nghieng-gach-ngang.htm</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="E3" t="n">
-        <v>11831620</v>
+        <v>31777</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -523,24 +523,24 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>sitelike.org</t>
+          <t>updownsite.com</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>www.sitelike.org/similar/tadu.vn/</t>
+          <t>www.updownsite.com/site/lucidgen.com</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>/similar/tadu.vn/</t>
+          <t>/site/lucidgen.com</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="E4" t="n">
-        <v>11831620</v>
+        <v>8332</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -548,24 +548,24 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>sitelike.org</t>
+          <t>updownsite.com</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>www.sitelike.org/similar/conganbackan.vn/</t>
+          <t>www.updownsite.com/search/zalo-pc</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>/similar/conganbackan.vn/</t>
+          <t>/search/zalo-pc</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="E5" t="n">
-        <v>11831620</v>
+        <v>8332</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -573,49 +573,53 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>sitelike.org</t>
+          <t>bingparachute.com</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>www.sitelike.org/similar/kiemtienspeed.com/</t>
+          <t>s.bingparachute.com/search</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>/similar/kiemtienspeed.com/</t>
+          <t>/search</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>64</v>
+        <v>2.6</v>
       </c>
       <c r="E6" t="n">
-        <v>11831620</v>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+        <v>95</v>
+      </c>
+      <c r="F6" t="n">
+        <v>21</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>sitelike.org</t>
+          <t>aol.com</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>www.sitelike.org/similar/tanglikevip.net/</t>
+          <t>search.aol.com/reviews</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>/similar/tanglikevip.net/</t>
+          <t>/reviews</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="E7" t="n">
-        <v>11831620</v>
+        <v>36850959</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -623,24 +627,24 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>sitelike.org</t>
+          <t>updownsite.com</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>www.sitelike.org/similar/finduid.com/</t>
+          <t>www.updownsite.com/search/create-gmail-account-email-in-outlook</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>/similar/finduid.com/</t>
+          <t>/search/create-gmail-account-email-in-outlook</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="E8" t="n">
-        <v>11831620</v>
+        <v>8332</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -648,24 +652,24 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>sitelike.org</t>
+          <t>prostats.org</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>www.sitelike.org/similar/puziness.com/</t>
+          <t>lucidgen.com.prostats.org/</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>/similar/puziness.com/</t>
+          <t>/</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="E9" t="n">
-        <v>11831620</v>
+        <v>462715</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -673,149 +677,169 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>similars.net</t>
+          <t>gridserver.com</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>similars.net/alternatives-to/taidv.com</t>
+          <t>s108313.gridserver.com/4fdt8l/how-to-find-my-messenger-code-2021.html</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>/alternatives-to/taidv.com</t>
+          <t>/4fdt8l/how-to-find-my-messenger-code-2021.html</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="E10" t="n">
-        <v>18903</v>
-      </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
+        <v>19553</v>
+      </c>
+      <c r="F10" t="n">
+        <v>11</v>
+      </c>
+      <c r="G10" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>sitelike.org</t>
+          <t>nichesitemastery.com</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>www.sitelike.org/similar/namlh.me/</t>
+          <t>www.nichesitemastery.com/search/shopee-picture</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>/similar/namlh.me/</t>
+          <t>/search/shopee-picture</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="E11" t="n">
-        <v>11831620</v>
-      </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
+        <v>6992</v>
+      </c>
+      <c r="F11" t="n">
+        <v>21</v>
+      </c>
+      <c r="G11" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>sitelike.org</t>
+          <t>affiliatepal.net</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>www.sitelike.org/similar/thanhthinhbui.com/</t>
+          <t>affiliatepal.net/amp-adsense/</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>/similar/thanhthinhbui.com/</t>
+          <t>/amp-adsense/</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="E12" t="n">
-        <v>11831620</v>
-      </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
+        <v>49297</v>
+      </c>
+      <c r="F12" t="n">
+        <v>34</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>aol.com</t>
+          <t>nichesitemastery.com</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>search.aol.com/reviews</t>
+          <t>www.nichesitemastery.com/site/lucidgen.com</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>/reviews</t>
+          <t>/site/lucidgen.com</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="E13" t="n">
-        <v>32711987</v>
-      </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
+        <v>6992</v>
+      </c>
+      <c r="F13" t="n">
+        <v>21</v>
+      </c>
+      <c r="G13" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>similars.net</t>
+          <t>nichesitemastery.com</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>similars.net/sites-about/%C3%ADnh%20%C4%91%E1%BB%83</t>
+          <t>www.nichesitemastery.com/search/powerpoint-icons</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>/sites-about/%C3%ADnh%20%C4%91%E1%BB%83</t>
+          <t>/search/powerpoint-icons</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E14" t="n">
-        <v>18903</v>
-      </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
+        <v>6992</v>
+      </c>
+      <c r="F14" t="n">
+        <v>21</v>
+      </c>
+      <c r="G14" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>sitelike.org</t>
+          <t>updownsite.com</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>www.sitelike.org/similar/bkviet.com/</t>
+          <t>www.updownsite.com/search/emoji-copy-and-paste-facebook</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>/similar/bkviet.com/</t>
+          <t>/search/emoji-copy-and-paste-facebook</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="E15" t="n">
-        <v>11831620</v>
+        <v>8332</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -823,153 +847,169 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>sitelike.org</t>
+          <t>cdrnys.org</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>www.sitelike.org/similar/blogloi.com/</t>
+          <t>cdrnys.org/p1t1u/add-google-analytics-to-tag-manager.html</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>/similar/blogloi.com/</t>
+          <t>/p1t1u/add-google-analytics-to-tag-manager.html</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E16" t="n">
-        <v>11831620</v>
-      </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
+        <v>7163</v>
+      </c>
+      <c r="F16" t="n">
+        <v>49</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>sitelike.org</t>
+          <t>socialgrep.com</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>www.sitelike.org/similar/digimarkvn.com/</t>
+          <t>www.socialgrep.com/search</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>/similar/digimarkvn.com/</t>
+          <t>/search</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="E17" t="n">
-        <v>11831620</v>
-      </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
+        <v>698537</v>
+      </c>
+      <c r="F17" t="n">
+        <v>26</v>
+      </c>
+      <c r="G17" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>sitelike.org</t>
+          <t>nichesblog.com</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>www.sitelike.org/similar/lucidgen.com/</t>
+          <t>www.nichesblog.com/search/gmail-outlook</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>/similar/lucidgen.com/</t>
+          <t>/search/gmail-outlook</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="E18" t="n">
-        <v>11831620</v>
-      </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
+        <v>6797</v>
+      </c>
+      <c r="F18" t="n">
+        <v>33</v>
+      </c>
+      <c r="G18" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>tntcode.com</t>
+          <t>jamviet.com</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>domains.tntcode.com/ip/103.221.222.30</t>
+          <t>www.jamviet.com/blog-comment-cach-lay-backlink-nay-van-tot-trong-seo.html</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>/ip/103.221.222.30</t>
+          <t>/blog-comment-cach-lay-backlink-nay-van-tot-trong-seo.html</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E19" t="n">
-        <v>3033</v>
+        <v>3054</v>
       </c>
       <c r="F19" t="n">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="G19" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>sitelike.org</t>
+          <t>fbscan.com</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>www.sitelike.org/similar/vltoolkit.com/</t>
+          <t>www.fbscan.com/find/create-gmail-account-email-in-outlook</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>/similar/vltoolkit.com/</t>
+          <t>/find/create-gmail-account-email-in-outlook</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="E20" t="n">
-        <v>11831620</v>
-      </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
+        <v>7053</v>
+      </c>
+      <c r="F20" t="n">
+        <v>31</v>
+      </c>
+      <c r="G20" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>sitelike.org</t>
+          <t>onnuri.org</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>www.sitelike.org/similar/mrh.com.vn/</t>
+          <t>en.onnuri.org/wp-content/uploads/2018/znptaps/contact-form-7-smtp-plugin.html</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>/similar/mrh.com.vn/</t>
+          <t>/wp-content/uploads/2018/znptaps/contact-form-7-smtp-plugin.html</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="E21" t="n">
-        <v>11831620</v>
+        <v>15049</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -977,49 +1017,53 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>sitelike.org</t>
+          <t>affiliatepal.net</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>www.sitelike.org/similar/quangcaosieutoc.com/</t>
+          <t>affiliatepal.net/blog/page/8/</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>/similar/quangcaosieutoc.com/</t>
+          <t>/blog/page/8/</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="E22" t="n">
-        <v>11831620</v>
-      </c>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
+        <v>49297</v>
+      </c>
+      <c r="F22" t="n">
+        <v>34</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>sitelike.org</t>
+          <t>updownsite.com</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>www.sitelike.org/similar/canhrau.com/</t>
+          <t>www.updownsite.com/search/minh-ngoc-mien-bac</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>/similar/canhrau.com/</t>
+          <t>/search/minh-ngoc-mien-bac</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="E23" t="n">
-        <v>11831620</v>
+        <v>8332</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -1027,24 +1071,24 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>sitelike.org</t>
+          <t>updownsite.com</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>www.sitelike.org/similar/nuu.edu.vn/</t>
+          <t>www.updownsite.com/search/emoji-copy-and-paste-fb</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>/similar/nuu.edu.vn/</t>
+          <t>/search/emoji-copy-and-paste-fb</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="E24" t="n">
-        <v>11831620</v>
+        <v>8332</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -1052,24 +1096,24 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>sitelike.org</t>
+          <t>cungcap.net</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>www.sitelike.org/similar/muabantenmien.com/</t>
+          <t>d.cungcap.net/d/lucidgen.com</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>/similar/muabantenmien.com/</t>
+          <t>/d/lucidgen.com</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E25" t="n">
-        <v>11831620</v>
+        <v>50727</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -1077,103 +1121,107 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>sitelike.org</t>
+          <t>technofizi.net</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>www.sitelike.org/similar/tip.com.vn/</t>
+          <t>technofizi.net/sitelike/lucidgen.com</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>/similar/tip.com.vn/</t>
+          <t>/sitelike/lucidgen.com</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="E26" t="n">
-        <v>11831620</v>
-      </c>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
+        <v>437588</v>
+      </c>
+      <c r="F26" t="n">
+        <v>45</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>bingparachute.com</t>
+          <t>updownsite.com</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>s.bingparachute.com/search</t>
+          <t>www.updownsite.com/search/authenticator-google-on-pc</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>/search</t>
+          <t>/search/authenticator-google-on-pc</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>2.9</v>
+        <v>39</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>23</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
+        <v>8332</v>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>sitelike.org</t>
+          <t>nichesitemastery.com</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>www.sitelike.org/similar/thanhtoanblog.com/</t>
+          <t>www.nichesitemastery.com/search/emoji-copy-and-paste-fb</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>/similar/thanhtoanblog.com/</t>
+          <t>/search/emoji-copy-and-paste-fb</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="E28" t="n">
-        <v>11831620</v>
-      </c>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
+        <v>6992</v>
+      </c>
+      <c r="F28" t="n">
+        <v>21</v>
+      </c>
+      <c r="G28" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>sitelike.org</t>
+          <t>kriesi.at</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>www.sitelike.org/similar/pus.edu.vn/</t>
+          <t>kriesi.at/support/profile/nikko/replies/page/32/</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>/similar/pus.edu.vn/</t>
+          <t>/support/profile/nikko/replies/page/32/</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="E29" t="n">
-        <v>11831620</v>
+        <v>6393</v>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
@@ -1181,49 +1229,53 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>sitelike.org</t>
+          <t>1ty.vn</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>www.sitelike.org/similar/atpcare.vn/</t>
+          <t>1ty.vn/Phai-Lam-Gi-Khi-May-Quet-Adobe-Khong-Ho-tro-cai-dat-Truoc-24281231739</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>/similar/atpcare.vn/</t>
+          <t>/Phai-Lam-Gi-Khi-May-Quet-Adobe-Khong-Ho-tro-cai-dat-Truoc-24281231739</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="E30" t="n">
-        <v>11831620</v>
-      </c>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
+        <v>68394</v>
+      </c>
+      <c r="F30" t="n">
+        <v>31</v>
+      </c>
+      <c r="G30" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>nichesitemastery.com</t>
+          <t>forobeta.com</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>www.nichesitemastery.com/site/lucidgen.com</t>
+          <t>forobeta.com/temas/colocar-anuncio-en-la-version-amp.857514/</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>/site/lucidgen.com</t>
+          <t>/temas/colocar-anuncio-en-la-version-amp.857514/</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="E31" t="n">
-        <v>5152</v>
+        <v>61799</v>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
@@ -1231,203 +1283,227 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>sitelike.org</t>
+          <t>nichesitemastery.com</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>www.sitelike.org/similar/fitwp.com/</t>
+          <t>www.nichesitemastery.com/search/authenticator-google-chrome</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>/similar/fitwp.com/</t>
+          <t>/search/authenticator-google-chrome</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="E32" t="n">
-        <v>11831620</v>
-      </c>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
+        <v>6992</v>
+      </c>
+      <c r="F32" t="n">
+        <v>21</v>
+      </c>
+      <c r="G32" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>vnngaynay.net</t>
+          <t>affiliatepal.net</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>vnngaynay.net/phan-mem-lay-so-dien-thoai-facebook-mien-phi-moi-nhat/</t>
+          <t>affiliatepal.net/duplicate-campaign-adwords/</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>/phan-mem-lay-so-dien-thoai-facebook-mien-phi-moi-nhat/</t>
+          <t>/duplicate-campaign-adwords/</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E33" t="n">
-        <v>11429</v>
+        <v>49297</v>
       </c>
       <c r="F33" t="n">
         <v>34</v>
       </c>
       <c r="G33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>sitelike.org</t>
+          <t>plex.page</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>www.sitelike.org/similar/donniechu.com/</t>
+          <t>plex.page/Google_Authenticator_For_Pc</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>/similar/donniechu.com/</t>
+          <t>/Google_Authenticator_For_Pc</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="E34" t="n">
-        <v>11831620</v>
-      </c>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
+        <v>135351</v>
+      </c>
+      <c r="F34" t="n">
+        <v>34</v>
+      </c>
+      <c r="G34" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>sitelike.org</t>
+          <t>affiliatepal.net</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>www.sitelike.org/similar/hidropship.com/</t>
+          <t>affiliatepal.net/duplicate-adwords-campaign/</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>/similar/hidropship.com/</t>
+          <t>/duplicate-adwords-campaign/</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="E35" t="n">
-        <v>11831620</v>
-      </c>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
+        <v>49297</v>
+      </c>
+      <c r="F35" t="n">
+        <v>34</v>
+      </c>
+      <c r="G35" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>sitelike.org</t>
+          <t>advancedsitestats.com</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>www.sitelike.org/similar/mona.solutions/</t>
+          <t>advancedsitestats.com/zalo.no/</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>/similar/mona.solutions/</t>
+          <t>/zalo.no/</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="E36" t="n">
-        <v>11831620</v>
-      </c>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
+        <v>45819</v>
+      </c>
+      <c r="F36" t="n">
+        <v>27</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>sitelike.org</t>
+          <t>tntcode.com</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>www.sitelike.org/similar/phanmemninja.com/</t>
+          <t>domains.tntcode.com/ip/45.252.248.23</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>/similar/phanmemninja.com/</t>
+          <t>/ip/45.252.248.23</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E37" t="n">
-        <v>11831620</v>
-      </c>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
+        <v>3726</v>
+      </c>
+      <c r="F37" t="n">
+        <v>55</v>
+      </c>
+      <c r="G37" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>sitelike.org</t>
+          <t>alotoi.com</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>www.sitelike.org/similar/getviim.com/</t>
+          <t>alotoi.com/thong-bao-binh-luan-wordpress/</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>/similar/getviim.com/</t>
+          <t>/thong-bao-binh-luan-wordpress/</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E38" t="n">
-        <v>11831620</v>
-      </c>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
+        <v>3463</v>
+      </c>
+      <c r="F38" t="n">
+        <v>8</v>
+      </c>
+      <c r="G38" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>sitelike.org</t>
+          <t>similars.net</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>www.sitelike.org/similar/sotel.vn/</t>
+          <t>similars.net/sites-about/%C3%ADnh%20%C4%91%E1%BB%83</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>/similar/sotel.vn/</t>
+          <t>/sites-about/%C3%ADnh%20%C4%91%E1%BB%83</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="E39" t="n">
-        <v>11831620</v>
+        <v>39578</v>
       </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
@@ -1435,24 +1511,24 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>sitelike.org</t>
+          <t>tecupdate.com</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>www.sitelike.org/similar/appnet.edu.vn/</t>
+          <t>www.tecupdate.com/google-authenticator-pc/</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>/similar/appnet.edu.vn/</t>
+          <t>/google-authenticator-pc/</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="E40" t="n">
-        <v>11831620</v>
+        <v>909972</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -1460,2902 +1536,6639 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>sitelike.org</t>
+          <t>nichesitemastery.com</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>www.sitelike.org/similar/fchat.vn/</t>
+          <t>www.nichesitemastery.com/search/zalo-pc</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>/similar/fchat.vn/</t>
+          <t>/search/zalo-pc</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="E41" t="n">
-        <v>11831620</v>
-      </c>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
+        <v>6992</v>
+      </c>
+      <c r="F41" t="n">
+        <v>21</v>
+      </c>
+      <c r="G41" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>sitelike.org</t>
+          <t>nichesitemastery.com</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>www.sitelike.org/similar/pearcemarketing.co.uk/</t>
+          <t>www.nichesitemastery.com/search/tai-mien-phi-coccoc</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>/similar/pearcemarketing.co.uk/</t>
+          <t>/search/tai-mien-phi-coccoc</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="E42" t="n">
-        <v>11831620</v>
-      </c>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
+        <v>6992</v>
+      </c>
+      <c r="F42" t="n">
+        <v>21</v>
+      </c>
+      <c r="G42" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>sitelike.org</t>
+          <t>nichesitemastery.com</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>www.sitelike.org/similar/soshareit.com/</t>
+          <t>www.nichesitemastery.com/search/coccoc-download-for-pc</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>/similar/soshareit.com/</t>
+          <t>/search/coccoc-download-for-pc</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="E43" t="n">
-        <v>11831620</v>
-      </c>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
+        <v>6992</v>
+      </c>
+      <c r="F43" t="n">
+        <v>21</v>
+      </c>
+      <c r="G43" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>sitelike.org</t>
+          <t>fbscan.com</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>www.sitelike.org/similar/plus24h.com/</t>
+          <t>www.fbscan.com/find/adsense-amp</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>/similar/plus24h.com/</t>
+          <t>/find/adsense-amp</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="E44" t="n">
-        <v>11831620</v>
-      </c>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
+        <v>7053</v>
+      </c>
+      <c r="F44" t="n">
+        <v>31</v>
+      </c>
+      <c r="G44" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>sitelike.org</t>
+          <t>fbscan.com</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>www.sitelike.org/similar/imta.edu.vn/</t>
+          <t>www.fbscan.com/find/mail-merge-f9</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>/similar/imta.edu.vn/</t>
+          <t>/find/mail-merge-f9</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="E45" t="n">
-        <v>11831620</v>
-      </c>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
+        <v>7053</v>
+      </c>
+      <c r="F45" t="n">
+        <v>31</v>
+      </c>
+      <c r="G45" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>sitelike.org</t>
+          <t>fbscan.com</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>www.sitelike.org/similar/tranthinhlam.com/</t>
+          <t>www.fbscan.com/find/lucidgen.com</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>/similar/tranthinhlam.com/</t>
+          <t>/find/lucidgen.com</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="E46" t="n">
-        <v>11831620</v>
-      </c>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
+        <v>7053</v>
+      </c>
+      <c r="F46" t="n">
+        <v>31</v>
+      </c>
+      <c r="G46" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>sitelike.org</t>
+          <t>fbscan.com</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>www.sitelike.org/similar/hoanglongteam.com/</t>
+          <t>www.fbscan.com/find/driveuploader.com</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>/similar/hoanglongteam.com/</t>
+          <t>/find/driveuploader.com</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="E47" t="n">
-        <v>11831620</v>
-      </c>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
+        <v>7053</v>
+      </c>
+      <c r="F47" t="n">
+        <v>31</v>
+      </c>
+      <c r="G47" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>sitelike.org</t>
+          <t>fbscan.com</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>www.sitelike.org/similar/phuongphap.vn/</t>
+          <t>www.fbscan.com/find/email-hosting-outlook</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>/similar/phuongphap.vn/</t>
+          <t>/find/email-hosting-outlook</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="E48" t="n">
-        <v>11831620</v>
-      </c>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
+        <v>7053</v>
+      </c>
+      <c r="F48" t="n">
+        <v>31</v>
+      </c>
+      <c r="G48" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>sitelike.org</t>
+          <t>nichesblog.com</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>www.sitelike.org/similar/letrongdai.vn/</t>
+          <t>www.nichesblog.com/search/how-to-open-multiple-csv-files-in-one-excel</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>/similar/letrongdai.vn/</t>
+          <t>/search/how-to-open-multiple-csv-files-in-one-excel</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="E49" t="n">
-        <v>11831620</v>
-      </c>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
+        <v>6797</v>
+      </c>
+      <c r="F49" t="n">
+        <v>33</v>
+      </c>
+      <c r="G49" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>sitelike.org</t>
+          <t>tntcode.com</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>www.sitelike.org/similar/muafanpage.com/</t>
+          <t>domains.tntcode.com/ip/103.221.222.30</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>/similar/muafanpage.com/</t>
+          <t>/ip/103.221.222.30</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E50" t="n">
-        <v>11831620</v>
-      </c>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
+        <v>3726</v>
+      </c>
+      <c r="F50" t="n">
+        <v>55</v>
+      </c>
+      <c r="G50" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>sitelike.org</t>
+          <t>socialgrep.com</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>www.sitelike.org/similar/aimacademy.vn/</t>
+          <t>socialgrep.com/search?query=%2Fr%2Fu_lucidgen</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>/similar/aimacademy.vn/</t>
+          <t>/search</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="E51" t="n">
-        <v>11831620</v>
-      </c>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
+        <v>698537</v>
+      </c>
+      <c r="F51" t="n">
+        <v>26</v>
+      </c>
+      <c r="G51" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>sitelike.org</t>
+          <t>alotoi.com</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>www.sitelike.org/similar/fff.com.vn/</t>
+          <t>alotoi.com/</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>/similar/fff.com.vn/</t>
+          <t>/</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E52" t="n">
-        <v>11831620</v>
-      </c>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
+        <v>3463</v>
+      </c>
+      <c r="F52" t="n">
+        <v>8</v>
+      </c>
+      <c r="G52" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>sitelike.org</t>
+          <t>alotoi.com</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>www.sitelike.org/similar/autotreo.com/</t>
+          <t>alotoi.com/chia-se-yoast-seo-premium/</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>/similar/autotreo.com/</t>
+          <t>/chia-se-yoast-seo-premium/</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E53" t="n">
-        <v>11831620</v>
-      </c>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
+        <v>3463</v>
+      </c>
+      <c r="F53" t="n">
+        <v>8</v>
+      </c>
+      <c r="G53" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>kriesi.at</t>
+          <t>alotoi.com</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>kriesi.at/support/profile/nikko/replies/page/26/</t>
+          <t>alotoi.com/huong-dan-mua-hosting-godaddy/</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>/support/profile/nikko/replies/page/26/</t>
+          <t>/huong-dan-mua-hosting-godaddy/</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="E54" t="n">
-        <v>10729</v>
-      </c>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
+        <v>3463</v>
+      </c>
+      <c r="F54" t="n">
+        <v>8</v>
+      </c>
+      <c r="G54" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>sitelike.org</t>
+          <t>alotoi.com</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>www.sitelike.org/similar/atsit.in/</t>
+          <t>alotoi.com/wordpress/seo/</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>/similar/atsit.in/</t>
+          <t>/wordpress/seo/</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E55" t="n">
-        <v>11831620</v>
-      </c>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr"/>
+        <v>3463</v>
+      </c>
+      <c r="F55" t="n">
+        <v>8</v>
+      </c>
+      <c r="G55" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>sitelike.org</t>
+          <t>alotoi.com</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>www.sitelike.org/similar/nguyencaotu.com/</t>
+          <t>alotoi.com/coupon-theme-ma-giam-gia-cho-wordpress/</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>/similar/nguyencaotu.com/</t>
+          <t>/coupon-theme-ma-giam-gia-cho-wordpress/</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E56" t="n">
-        <v>11831620</v>
-      </c>
-      <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr"/>
+        <v>3463</v>
+      </c>
+      <c r="F56" t="n">
+        <v>8</v>
+      </c>
+      <c r="G56" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>sitelike.org</t>
+          <t>alotoi.com</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>www.sitelike.org/similar/moavn.com/</t>
+          <t>alotoi.com/hosting-su-dung-cpanel-tai-godaddy/</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>/similar/moavn.com/</t>
+          <t>/hosting-su-dung-cpanel-tai-godaddy/</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E57" t="n">
-        <v>11831620</v>
-      </c>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr"/>
+        <v>3463</v>
+      </c>
+      <c r="F57" t="n">
+        <v>8</v>
+      </c>
+      <c r="G57" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>sitelike.org</t>
+          <t>alotoi.com</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>www.sitelike.org/similar/sum.vn/</t>
+          <t>alotoi.com/kiem-tien-online/</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>/similar/sum.vn/</t>
+          <t>/kiem-tien-online/</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E58" t="n">
-        <v>11831620</v>
-      </c>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr"/>
+        <v>3463</v>
+      </c>
+      <c r="F58" t="n">
+        <v>8</v>
+      </c>
+      <c r="G58" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>sitelike.org</t>
+          <t>alotoi.com</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>www.sitelike.org/similar/gcloudvn.com/</t>
+          <t>alotoi.com/danh-gia-tinohost/</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>/similar/gcloudvn.com/</t>
+          <t>/danh-gia-tinohost/</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E59" t="n">
-        <v>11831620</v>
-      </c>
-      <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr"/>
+        <v>3463</v>
+      </c>
+      <c r="F59" t="n">
+        <v>8</v>
+      </c>
+      <c r="G59" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>sitelike.org</t>
+          <t>alotoi.com</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>www.sitelike.org/similar/anonyviet.com/</t>
+          <t>alotoi.com/wordpress/</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>/similar/anonyviet.com/</t>
+          <t>/wordpress/</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E60" t="n">
-        <v>11831620</v>
-      </c>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
+        <v>3463</v>
+      </c>
+      <c r="F60" t="n">
+        <v>8</v>
+      </c>
+      <c r="G60" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>nichesitemastery.com</t>
+          <t>alotoi.com</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>www.nichesitemastery.com/search/shopee-picture</t>
+          <t>alotoi.com/ma-giam-gia-godaddy/</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>/search/shopee-picture</t>
+          <t>/ma-giam-gia-godaddy/</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="E61" t="n">
-        <v>5152</v>
-      </c>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr"/>
+        <v>3463</v>
+      </c>
+      <c r="F61" t="n">
+        <v>8</v>
+      </c>
+      <c r="G61" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>sitelike.org</t>
+          <t>alotoi.com</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>www.sitelike.org/similar/dochacmarketing.com/</t>
+          <t>alotoi.com/ma-giam-gia-tinohost/</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>/similar/dochacmarketing.com/</t>
+          <t>/ma-giam-gia-tinohost/</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E62" t="n">
-        <v>11831620</v>
-      </c>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
+        <v>3463</v>
+      </c>
+      <c r="F62" t="n">
+        <v>8</v>
+      </c>
+      <c r="G62" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>sitelike.org</t>
+          <t>alotoi.com</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>www.sitelike.org/similar/run.vn/</t>
+          <t>alotoi.com/chia-se-theme-ma-giam-gia-cho-wordpress/</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>/similar/run.vn/</t>
+          <t>/chia-se-theme-ma-giam-gia-cho-wordpress/</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E63" t="n">
-        <v>11831620</v>
-      </c>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr"/>
+        <v>3463</v>
+      </c>
+      <c r="F63" t="n">
+        <v>8</v>
+      </c>
+      <c r="G63" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>cungcap.net</t>
+          <t>alotoi.com</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>d.cungcap.net/d/lucidgen.com</t>
+          <t>alotoi.com/danh-gia-godaddy-hosting/</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>/d/lucidgen.com</t>
+          <t>/danh-gia-godaddy-hosting/</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="E64" t="n">
-        <v>40456</v>
-      </c>
-      <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr"/>
+        <v>3463</v>
+      </c>
+      <c r="F64" t="n">
+        <v>8</v>
+      </c>
+      <c r="G64" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>sitelike.org</t>
+          <t>alotoi.com</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>www.sitelike.org/similar/pamarketing.vn/</t>
+          <t>alotoi.com/khuyen-mai-azdigi-moi-nhat/</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>/similar/pamarketing.vn/</t>
+          <t>/khuyen-mai-azdigi-moi-nhat/</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E65" t="n">
-        <v>11831620</v>
-      </c>
-      <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr"/>
+        <v>3463</v>
+      </c>
+      <c r="F65" t="n">
+        <v>8</v>
+      </c>
+      <c r="G65" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>sitelike.org</t>
+          <t>alotoi.com</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>www.sitelike.org/similar/vinno.vn/</t>
+          <t>alotoi.com/wordpress/theme-wordpress/</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>/similar/vinno.vn/</t>
+          <t>/wordpress/theme-wordpress/</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E66" t="n">
-        <v>11831620</v>
-      </c>
-      <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr"/>
+        <v>3463</v>
+      </c>
+      <c r="F66" t="n">
+        <v>8</v>
+      </c>
+      <c r="G66" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>sitelike.org</t>
+          <t>alotoi.com</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>www.sitelike.org/similar/markdao.com.vn/</t>
+          <t>alotoi.com/facebook/code-facebook/</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>/similar/markdao.com.vn/</t>
+          <t>/facebook/code-facebook/</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E67" t="n">
-        <v>11831620</v>
-      </c>
-      <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr"/>
+        <v>3463</v>
+      </c>
+      <c r="F67" t="n">
+        <v>8</v>
+      </c>
+      <c r="G67" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>sitelike.org</t>
+          <t>alotoi.com</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>www.sitelike.org/similar/dichvuhay.vn/</t>
+          <t>alotoi.com/gioi-thieu/</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>/similar/dichvuhay.vn/</t>
+          <t>/gioi-thieu/</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E68" t="n">
-        <v>11831620</v>
-      </c>
-      <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr"/>
+        <v>3463</v>
+      </c>
+      <c r="F68" t="n">
+        <v>8</v>
+      </c>
+      <c r="G68" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>sitelike.org</t>
+          <t>alotoi.com</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>www.sitelike.org/similar/bitly.com.vn/</t>
+          <t>alotoi.com/facebook/</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>/similar/bitly.com.vn/</t>
+          <t>/facebook/</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E69" t="n">
-        <v>11831620</v>
-      </c>
-      <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr"/>
+        <v>3463</v>
+      </c>
+      <c r="F69" t="n">
+        <v>8</v>
+      </c>
+      <c r="G69" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>consumerdatastandards.com</t>
+          <t>alotoi.com</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>consumerdatastandards.com/f-companies/facebook-login-forgot-email.html</t>
+          <t>alotoi.com/uu-dai-dac-biet/</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>/f-companies/facebook-login-forgot-email.html</t>
+          <t>/uu-dai-dac-biet/</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E70" t="n">
-        <v>194218</v>
+        <v>3463</v>
       </c>
       <c r="F70" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>sitelike.org</t>
+          <t>alotoi.com</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>www.sitelike.org/similar/jweb.vn/</t>
+          <t>alotoi.com/phan-mem-facebook-marketing/</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>/similar/jweb.vn/</t>
+          <t>/phan-mem-facebook-marketing/</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E71" t="n">
-        <v>11831620</v>
-      </c>
-      <c r="F71" t="inlineStr"/>
-      <c r="G71" t="inlineStr"/>
+        <v>3463</v>
+      </c>
+      <c r="F71" t="n">
+        <v>8</v>
+      </c>
+      <c r="G71" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>fbscan.com</t>
+          <t>alotoi.com</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>www.fbscan.com/find/gen.com-youtube</t>
+          <t>alotoi.com/ma-giam-gia-stablehost/</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>/find/gen.com-youtube</t>
+          <t>/ma-giam-gia-stablehost/</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E72" t="n">
-        <v>6280</v>
+        <v>3463</v>
       </c>
       <c r="F72" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="G72" t="n">
-        <v>29</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>sitelike.org</t>
+          <t>alotoi.com</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>www.sitelike.org/similar/estore-edu.com/</t>
+          <t>alotoi.com/mua-hosting-hostgator/</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>/similar/estore-edu.com/</t>
+          <t>/mua-hosting-hostgator/</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E73" t="n">
-        <v>11831620</v>
-      </c>
-      <c r="F73" t="inlineStr"/>
-      <c r="G73" t="inlineStr"/>
+        <v>3463</v>
+      </c>
+      <c r="F73" t="n">
+        <v>8</v>
+      </c>
+      <c r="G73" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>nichesitemastery.com</t>
+          <t>alotoi.com</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>www.nichesitemastery.com/search/powerpoint-icons</t>
+          <t>alotoi.com/wordpress/plugin-wordpress/</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>/search/powerpoint-icons</t>
+          <t>/wordpress/plugin-wordpress/</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="E74" t="n">
-        <v>5152</v>
-      </c>
-      <c r="F74" t="inlineStr"/>
-      <c r="G74" t="inlineStr"/>
+        <v>3463</v>
+      </c>
+      <c r="F74" t="n">
+        <v>8</v>
+      </c>
+      <c r="G74" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>sitelike.org</t>
+          <t>alotoi.com</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>www.sitelike.org/similar/minsoftware.vn/</t>
+          <t>alotoi.com/hosting-va-domain/</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>/similar/minsoftware.vn/</t>
+          <t>/hosting-va-domain/</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E75" t="n">
-        <v>11831620</v>
-      </c>
-      <c r="F75" t="inlineStr"/>
-      <c r="G75" t="inlineStr"/>
+        <v>3463</v>
+      </c>
+      <c r="F75" t="n">
+        <v>8</v>
+      </c>
+      <c r="G75" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>sitelike.org</t>
+          <t>alotoi.com</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>www.sitelike.org/similar/beobeomarketing.com/</t>
+          <t>alotoi.com/hosting-va-domain/godaddy/</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>/similar/beobeomarketing.com/</t>
+          <t>/hosting-va-domain/godaddy/</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E76" t="n">
-        <v>11831620</v>
-      </c>
-      <c r="F76" t="inlineStr"/>
-      <c r="G76" t="inlineStr"/>
+        <v>3463</v>
+      </c>
+      <c r="F76" t="n">
+        <v>8</v>
+      </c>
+      <c r="G76" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>sitelike.org</t>
+          <t>alotoi.com</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>www.sitelike.org/similar/keywordplanner.vn/</t>
+          <t>alotoi.com/kiem-tien-online/affiliate/</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>/similar/keywordplanner.vn/</t>
+          <t>/kiem-tien-online/affiliate/</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E77" t="n">
-        <v>11831620</v>
-      </c>
-      <c r="F77" t="inlineStr"/>
-      <c r="G77" t="inlineStr"/>
+        <v>3463</v>
+      </c>
+      <c r="F77" t="n">
+        <v>8</v>
+      </c>
+      <c r="G77" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>sitelike.org</t>
+          <t>alotoi.com</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>www.sitelike.org/similar/mediapulsertb.com/</t>
+          <t>alotoi.com/chia-se-tron-bo-genesis-va-child-theme-cua-studiopress/</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>/similar/mediapulsertb.com/</t>
+          <t>/chia-se-tron-bo-genesis-va-child-theme-cua-studiopress/</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E78" t="n">
-        <v>11831620</v>
-      </c>
-      <c r="F78" t="inlineStr"/>
-      <c r="G78" t="inlineStr"/>
+        <v>3463</v>
+      </c>
+      <c r="F78" t="n">
+        <v>8</v>
+      </c>
+      <c r="G78" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>kriesi.at</t>
+          <t>alotoi.com</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>kriesi.at/support/profile/nikko/replies/page/27/</t>
+          <t>alotoi.com/theme-wordpress-lam-tiep-thi-lien-ket/</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>/support/profile/nikko/replies/page/27/</t>
+          <t>/theme-wordpress-lam-tiep-thi-lien-ket/</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="E79" t="n">
-        <v>10729</v>
-      </c>
-      <c r="F79" t="inlineStr"/>
-      <c r="G79" t="inlineStr"/>
+        <v>3463</v>
+      </c>
+      <c r="F79" t="n">
+        <v>8</v>
+      </c>
+      <c r="G79" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>sitelike.org</t>
+          <t>alotoi.com</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>www.sitelike.org/similar/tomorrowmarketers.org/</t>
+          <t>alotoi.com/khuyen-mai-ten-mien-godaddy/</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>/similar/tomorrowmarketers.org/</t>
+          <t>/khuyen-mai-ten-mien-godaddy/</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E80" t="n">
-        <v>11831620</v>
-      </c>
-      <c r="F80" t="inlineStr"/>
-      <c r="G80" t="inlineStr"/>
+        <v>3463</v>
+      </c>
+      <c r="F80" t="n">
+        <v>8</v>
+      </c>
+      <c r="G80" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>sitelike.org</t>
+          <t>alotoi.com</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>www.sitelike.org/similar/atpsoftware.vn/</t>
+          <t>alotoi.com/kiem-tien-online/tien-dien-tu/</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>/similar/atpsoftware.vn/</t>
+          <t>/kiem-tien-online/tien-dien-tu/</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E81" t="n">
-        <v>11831620</v>
-      </c>
-      <c r="F81" t="inlineStr"/>
-      <c r="G81" t="inlineStr"/>
+        <v>3463</v>
+      </c>
+      <c r="F81" t="n">
+        <v>8</v>
+      </c>
+      <c r="G81" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>similars.net</t>
+          <t>alotoi.com</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>similars.net/sites-about/d%E1%BB%85</t>
+          <t>alotoi.com/kiem-tien-online/rut-gon-link/</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>/sites-about/d%E1%BB%85</t>
+          <t>/kiem-tien-online/rut-gon-link/</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="E82" t="n">
-        <v>18903</v>
-      </c>
-      <c r="F82" t="inlineStr"/>
-      <c r="G82" t="inlineStr"/>
+        <v>3463</v>
+      </c>
+      <c r="F82" t="n">
+        <v>8</v>
+      </c>
+      <c r="G82" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>technofizi.net</t>
+          <t>alotoi.com</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>technofizi.net/sitelike/lucidgen.com</t>
+          <t>alotoi.com/auto-nhan-tin-facebook/</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>/sitelike/lucidgen.com</t>
+          <t>/auto-nhan-tin-facebook/</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E83" t="n">
-        <v>173440</v>
-      </c>
-      <c r="F83" t="inlineStr"/>
-      <c r="G83" t="inlineStr"/>
+        <v>3463</v>
+      </c>
+      <c r="F83" t="n">
+        <v>8</v>
+      </c>
+      <c r="G83" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>jamviet.com</t>
+          <t>alotoi.com</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>www.jamviet.com/blog-comment-cach-lay-backlink-nay-van-tot-trong-seo.html</t>
+          <t>alotoi.com/su-dung-api-accesstrade-tich-hop-chatbot/</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>/blog-comment-cach-lay-backlink-nay-van-tot-trong-seo.html</t>
+          <t>/su-dung-api-accesstrade-tich-hop-chatbot/</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="E84" t="n">
-        <v>3246</v>
+        <v>3463</v>
       </c>
       <c r="F84" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="G84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>sitelike.org</t>
+          <t>alotoi.com</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>www.sitelike.org/similar/laivanduc.com/</t>
+          <t>alotoi.com/kiem-tien-online/dien-thoai/</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>/similar/laivanduc.com/</t>
+          <t>/kiem-tien-online/dien-thoai/</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E85" t="n">
-        <v>11831620</v>
-      </c>
-      <c r="F85" t="inlineStr"/>
-      <c r="G85" t="inlineStr"/>
+        <v>3463</v>
+      </c>
+      <c r="F85" t="n">
+        <v>8</v>
+      </c>
+      <c r="G85" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>sitelike.org</t>
+          <t>alotoi.com</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>www.sitelike.org/similar/hiepb.com/</t>
+          <t>alotoi.com/hosting-tot-nhat/</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>/similar/hiepb.com/</t>
+          <t>/hosting-tot-nhat/</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E86" t="n">
-        <v>11831620</v>
-      </c>
-      <c r="F86" t="inlineStr"/>
-      <c r="G86" t="inlineStr"/>
+        <v>3463</v>
+      </c>
+      <c r="F86" t="n">
+        <v>8</v>
+      </c>
+      <c r="G86" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>sitelike.org</t>
+          <t>alotoi.com</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>www.sitelike.org/similar/webico.vn/</t>
+          <t>alotoi.com/danh-gia-hosting-azdigi/</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>/similar/webico.vn/</t>
+          <t>/danh-gia-hosting-azdigi/</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E87" t="n">
-        <v>11831620</v>
-      </c>
-      <c r="F87" t="inlineStr"/>
-      <c r="G87" t="inlineStr"/>
+        <v>3463</v>
+      </c>
+      <c r="F87" t="n">
+        <v>8</v>
+      </c>
+      <c r="G87" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>sitelike.org</t>
+          <t>alotoi.com</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>www.sitelike.org/similar/janetejohnson.com/</t>
+          <t>alotoi.com/hosting-va-domain/azdigi/</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>/similar/janetejohnson.com/</t>
+          <t>/hosting-va-domain/azdigi/</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E88" t="n">
-        <v>11831620</v>
-      </c>
-      <c r="F88" t="inlineStr"/>
-      <c r="G88" t="inlineStr"/>
+        <v>3463</v>
+      </c>
+      <c r="F88" t="n">
+        <v>8</v>
+      </c>
+      <c r="G88" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>sitelike.org</t>
+          <t>alotoi.com</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>www.sitelike.org/similar/uidfb.com/</t>
+          <t>alotoi.com/huong-dan-cai-dat-wordpress-tren-hosting/</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>/similar/uidfb.com/</t>
+          <t>/huong-dan-cai-dat-wordpress-tren-hosting/</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E89" t="n">
-        <v>11831620</v>
-      </c>
-      <c r="F89" t="inlineStr"/>
-      <c r="G89" t="inlineStr"/>
+        <v>3463</v>
+      </c>
+      <c r="F89" t="n">
+        <v>8</v>
+      </c>
+      <c r="G89" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>sitelike.org</t>
+          <t>alotoi.com</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>www.sitelike.org/similar/cv.com.vn/</t>
+          <t>alotoi.com/hosting-va-domain/stablehost/</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>/similar/cv.com.vn/</t>
+          <t>/hosting-va-domain/stablehost/</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E90" t="n">
-        <v>11831620</v>
-      </c>
-      <c r="F90" t="inlineStr"/>
-      <c r="G90" t="inlineStr"/>
+        <v>3463</v>
+      </c>
+      <c r="F90" t="n">
+        <v>8</v>
+      </c>
+      <c r="G90" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>sitelike.org</t>
+          <t>alotoi.com</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>www.sitelike.org/similar/taidv.com/</t>
+          <t>alotoi.com/page/2/</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>/similar/taidv.com/</t>
+          <t>/page/2/</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E91" t="n">
-        <v>11831620</v>
-      </c>
-      <c r="F91" t="inlineStr"/>
-      <c r="G91" t="inlineStr"/>
+        <v>3463</v>
+      </c>
+      <c r="F91" t="n">
+        <v>8</v>
+      </c>
+      <c r="G91" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>sitelike.org</t>
+          <t>alotoi.com</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>www.sitelike.org/similar/wiki19.com/</t>
+          <t>alotoi.com/plugin-can-thiet-cho-wordpress/</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>/similar/wiki19.com/</t>
+          <t>/plugin-can-thiet-cho-wordpress/</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E92" t="n">
-        <v>11831620</v>
-      </c>
-      <c r="F92" t="inlineStr"/>
-      <c r="G92" t="inlineStr"/>
+        <v>3463</v>
+      </c>
+      <c r="F92" t="n">
+        <v>8</v>
+      </c>
+      <c r="G92" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>sitelike.org</t>
+          <t>alotoi.com</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>www.sitelike.org/similar/tamnghia.com/</t>
+          <t>alotoi.com/facebook/tool-facebook/</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>/similar/tamnghia.com/</t>
+          <t>/facebook/tool-facebook/</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E93" t="n">
-        <v>11831620</v>
-      </c>
-      <c r="F93" t="inlineStr"/>
-      <c r="G93" t="inlineStr"/>
+        <v>3463</v>
+      </c>
+      <c r="F93" t="n">
+        <v>8</v>
+      </c>
+      <c r="G93" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>sitelike.org</t>
+          <t>alotoi.com</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>www.sitelike.org/similar/lamweb.vn/</t>
+          <t>alotoi.com/hosting-va-domain/hawk-host/</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>/similar/lamweb.vn/</t>
+          <t>/hosting-va-domain/hawk-host/</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E94" t="n">
-        <v>11831620</v>
-      </c>
-      <c r="F94" t="inlineStr"/>
-      <c r="G94" t="inlineStr"/>
+        <v>3463</v>
+      </c>
+      <c r="F94" t="n">
+        <v>8</v>
+      </c>
+      <c r="G94" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>sitelike.org</t>
+          <t>alotoi.com</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>www.sitelike.org/similar/alosoft.vn/</t>
+          <t>alotoi.com/kiem-tien-online/youtube/</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>/similar/alosoft.vn/</t>
+          <t>/kiem-tien-online/youtube/</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E95" t="n">
-        <v>11831620</v>
-      </c>
-      <c r="F95" t="inlineStr"/>
-      <c r="G95" t="inlineStr"/>
+        <v>3463</v>
+      </c>
+      <c r="F95" t="n">
+        <v>8</v>
+      </c>
+      <c r="G95" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>sitelike.org</t>
+          <t>alotoi.com</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>www.sitelike.org/similar/brandee.edu.vn/</t>
+          <t>alotoi.com/dung-trinh-soan-thao-cu-trong-wordpress/</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>/similar/brandee.edu.vn/</t>
+          <t>/dung-trinh-soan-thao-cu-trong-wordpress/</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E96" t="n">
-        <v>11831620</v>
-      </c>
-      <c r="F96" t="inlineStr"/>
-      <c r="G96" t="inlineStr"/>
+        <v>3463</v>
+      </c>
+      <c r="F96" t="n">
+        <v>8</v>
+      </c>
+      <c r="G96" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>sitelike.org</t>
+          <t>alotoi.com</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>www.sitelike.org/similar/quetsodienthoai.com/</t>
+          <t>alotoi.com/plugin-bai-viet-lien-quan-cho-wordpress/</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>/similar/quetsodienthoai.com/</t>
+          <t>/plugin-bai-viet-lien-quan-cho-wordpress/</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E97" t="n">
-        <v>11831620</v>
-      </c>
-      <c r="F97" t="inlineStr"/>
-      <c r="G97" t="inlineStr"/>
+        <v>3463</v>
+      </c>
+      <c r="F97" t="n">
+        <v>8</v>
+      </c>
+      <c r="G97" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>inthienha.com</t>
+          <t>alotoi.com</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>inthienha.com/viet-chu-in-dam-nghieng-gach-ngang.htm</t>
+          <t>alotoi.com/hosting-va-domain/hostgator/</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>/viet-chu-in-dam-nghieng-gach-ngang.htm</t>
+          <t>/hosting-va-domain/hostgator/</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="E98" t="n">
-        <v>43353</v>
-      </c>
-      <c r="F98" t="inlineStr"/>
-      <c r="G98" t="inlineStr"/>
+        <v>3463</v>
+      </c>
+      <c r="F98" t="n">
+        <v>8</v>
+      </c>
+      <c r="G98" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>nichesitemastery.com</t>
+          <t>affiliatepal.net</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>www.nichesitemastery.com/search/emoji-copy-and-paste-fb</t>
+          <t>affiliatepal.net/create-mcc-adwords/</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>/search/emoji-copy-and-paste-fb</t>
+          <t>/create-mcc-adwords/</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E99" t="n">
-        <v>5152</v>
-      </c>
-      <c r="F99" t="inlineStr"/>
-      <c r="G99" t="inlineStr"/>
+        <v>49297</v>
+      </c>
+      <c r="F99" t="n">
+        <v>34</v>
+      </c>
+      <c r="G99" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>sitelike.org</t>
+          <t>alotoi.com</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>www.sitelike.org/similar/hieuunganh.com/</t>
+          <t>alotoi.com/huong-dan-mua-ten-mien-godaddy/</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>/similar/hieuunganh.com/</t>
+          <t>/huong-dan-mua-ten-mien-godaddy/</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E100" t="n">
-        <v>11831620</v>
-      </c>
-      <c r="F100" t="inlineStr"/>
-      <c r="G100" t="inlineStr"/>
+        <v>3463</v>
+      </c>
+      <c r="F100" t="n">
+        <v>8</v>
+      </c>
+      <c r="G100" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>sitelike.org</t>
+          <t>alotoi.com</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>www.sitelike.org/similar/minhduongads.com/</t>
+          <t>alotoi.com/chia-se-api-rut-gon-link-nhanh-voi-chatbot/</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>/similar/minhduongads.com/</t>
+          <t>/chia-se-api-rut-gon-link-nhanh-voi-chatbot/</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E101" t="n">
-        <v>11831620</v>
-      </c>
-      <c r="F101" t="inlineStr"/>
-      <c r="G101" t="inlineStr"/>
+        <v>3463</v>
+      </c>
+      <c r="F101" t="n">
+        <v>8</v>
+      </c>
+      <c r="G101" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>sitelike.org</t>
+          <t>alotoi.com</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>www.sitelike.org/similar/facebookbaovay.com/</t>
+          <t>alotoi.com/mua-hosting-ipage/</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>/similar/facebookbaovay.com/</t>
+          <t>/mua-hosting-ipage/</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E102" t="n">
-        <v>11831620</v>
-      </c>
-      <c r="F102" t="inlineStr"/>
-      <c r="G102" t="inlineStr"/>
+        <v>3463</v>
+      </c>
+      <c r="F102" t="n">
+        <v>8</v>
+      </c>
+      <c r="G102" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>sitelike.org</t>
+          <t>alotoi.com</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>www.sitelike.org/similar/dientuhoangvu.com/</t>
+          <t>alotoi.com/chia-se-theme-ban-hang-moi-nhat/</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>/similar/dientuhoangvu.com/</t>
+          <t>/chia-se-theme-ban-hang-moi-nhat/</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E103" t="n">
-        <v>11831620</v>
-      </c>
-      <c r="F103" t="inlineStr"/>
-      <c r="G103" t="inlineStr"/>
+        <v>3463</v>
+      </c>
+      <c r="F103" t="n">
+        <v>8</v>
+      </c>
+      <c r="G103" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>1ty.vn</t>
+          <t>alotoi.com</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>1ty.vn/Phai-Lam-Gi-Khi-May-Quet-Adobe-Khong-Ho-tro-cai-dat-Truoc-24281231739</t>
+          <t>alotoi.com/kiem-tien-voi-megaurl/</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>/Phai-Lam-Gi-Khi-May-Quet-Adobe-Khong-Ho-tro-cai-dat-Truoc-24281231739</t>
+          <t>/kiem-tien-voi-megaurl/</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E104" t="n">
-        <v>65672</v>
-      </c>
-      <c r="F104" t="inlineStr"/>
-      <c r="G104" t="inlineStr"/>
+        <v>3463</v>
+      </c>
+      <c r="F104" t="n">
+        <v>8</v>
+      </c>
+      <c r="G104" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>sitelike.org</t>
+          <t>alotoi.com</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>www.sitelike.org/similar/intero.vn/</t>
+          <t>alotoi.com/hosting-va-domain/khuyen-mai/</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>/similar/intero.vn/</t>
+          <t>/hosting-va-domain/khuyen-mai/</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E105" t="n">
-        <v>11831620</v>
-      </c>
-      <c r="F105" t="inlineStr"/>
-      <c r="G105" t="inlineStr"/>
+        <v>3463</v>
+      </c>
+      <c r="F105" t="n">
+        <v>8</v>
+      </c>
+      <c r="G105" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>forobeta.com</t>
+          <t>alotoi.com</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>forobeta.com/temas/colocar-anuncio-en-la-version-amp.857514/</t>
+          <t>alotoi.com/bat-khien-bao-ve-avatar-facebook/</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>/temas/colocar-anuncio-en-la-version-amp.857514/</t>
+          <t>/bat-khien-bao-ve-avatar-facebook/</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="E106" t="n">
-        <v>61542</v>
-      </c>
-      <c r="F106" t="inlineStr"/>
-      <c r="G106" t="inlineStr"/>
+        <v>3463</v>
+      </c>
+      <c r="F106" t="n">
+        <v>8</v>
+      </c>
+      <c r="G106" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>sitelike.org</t>
+          <t>alotoi.com</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>www.sitelike.org/similar/yaytext.com/</t>
+          <t>alotoi.com/author/hieule/</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>/similar/yaytext.com/</t>
+          <t>/author/hieule/</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E107" t="n">
-        <v>11831620</v>
-      </c>
-      <c r="F107" t="inlineStr"/>
-      <c r="G107" t="inlineStr"/>
+        <v>3463</v>
+      </c>
+      <c r="F107" t="n">
+        <v>8</v>
+      </c>
+      <c r="G107" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>consumerdatastandards.com</t>
+          <t>alotoi.com</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>consumerdatastandards.com/x-companies/xmind-login.html</t>
+          <t>alotoi.com/cai-wordpress-len-hosting-godaddy/</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>/x-companies/xmind-login.html</t>
+          <t>/cai-wordpress-len-hosting-godaddy/</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E108" t="n">
-        <v>194218</v>
+        <v>3463</v>
       </c>
       <c r="F108" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="G108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>tntcode.com</t>
+          <t>alotoi.com</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>domains.tntcode.com/ip/45.252.249.21</t>
+          <t>alotoi.com/lien-he/</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>/ip/45.252.249.21</t>
+          <t>/lien-he/</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E109" t="n">
-        <v>3033</v>
+        <v>3463</v>
       </c>
       <c r="F109" t="n">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="G109" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>sitelike.org</t>
+          <t>alotoi.com</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>www.sitelike.org/similar/gacongnghe.com/</t>
+          <t>alotoi.com/share-theme-bat-dong-san-dep/</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>/similar/gacongnghe.com/</t>
+          <t>/share-theme-bat-dong-san-dep/</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E110" t="n">
-        <v>11831620</v>
-      </c>
-      <c r="F110" t="inlineStr"/>
-      <c r="G110" t="inlineStr"/>
+        <v>3463</v>
+      </c>
+      <c r="F110" t="n">
+        <v>8</v>
+      </c>
+      <c r="G110" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>consumerdatastandards.com</t>
+          <t>alotoi.com</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>consumerdatastandards.com/f-companies/forgot-fb-login-email.html</t>
+          <t>alotoi.com/affiliate-va-lan-dau-nhan-hoa-hong/</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>/f-companies/forgot-fb-login-email.html</t>
+          <t>/affiliate-va-lan-dau-nhan-hoa-hong/</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E111" t="n">
-        <v>194218</v>
+        <v>3463</v>
       </c>
       <c r="F111" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="G111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>tntcode.com</t>
+          <t>alotoi.com</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>domains.tntcode.com/ip/45.252.248.23</t>
+          <t>alotoi.com/hosting-va-domain/tinohost/</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>/ip/45.252.248.23</t>
+          <t>/hosting-va-domain/tinohost/</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E112" t="n">
-        <v>3033</v>
+        <v>3463</v>
       </c>
       <c r="F112" t="n">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="G112" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>sitelike.org</t>
+          <t>alotoi.com</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>www.sitelike.org/similar/nguyenhuuhoang.com/</t>
+          <t>alotoi.com/marketing-online/facebook-marketing/</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>/similar/nguyenhuuhoang.com/</t>
+          <t>/marketing-online/facebook-marketing/</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E113" t="n">
-        <v>11831620</v>
-      </c>
-      <c r="F113" t="inlineStr"/>
-      <c r="G113" t="inlineStr"/>
+        <v>3463</v>
+      </c>
+      <c r="F113" t="n">
+        <v>8</v>
+      </c>
+      <c r="G113" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>sitelike.org</t>
+          <t>alotoi.com</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>www.sitelike.org/similar/thinhweb.com/</t>
+          <t>alotoi.com/tao-video-anh-bia-facebook-ca-nhan/</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>/similar/thinhweb.com/</t>
+          <t>/tao-video-anh-bia-facebook-ca-nhan/</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E114" t="n">
-        <v>11831620</v>
-      </c>
-      <c r="F114" t="inlineStr"/>
-      <c r="G114" t="inlineStr"/>
+        <v>3463</v>
+      </c>
+      <c r="F114" t="n">
+        <v>8</v>
+      </c>
+      <c r="G114" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>sitelike.org</t>
+          <t>alotoi.com</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>www.sitelike.org/similar/seoiclick.com/</t>
+          <t>alotoi.com/transfer-ten-mien-ve-godaddy/</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>/similar/seoiclick.com/</t>
+          <t>/transfer-ten-mien-ve-godaddy/</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E115" t="n">
-        <v>11831620</v>
-      </c>
-      <c r="F115" t="inlineStr"/>
-      <c r="G115" t="inlineStr"/>
+        <v>3463</v>
+      </c>
+      <c r="F115" t="n">
+        <v>8</v>
+      </c>
+      <c r="G115" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>nichesitemastery.com</t>
+          <t>alotoi.com</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>www.nichesitemastery.com/search/tai-mien-phi-coccoc</t>
+          <t>alotoi.com/azdigi-30-4/</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>/search/tai-mien-phi-coccoc</t>
+          <t>/azdigi-30-4/</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="E116" t="n">
-        <v>5152</v>
-      </c>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
+        <v>3463</v>
+      </c>
+      <c r="F116" t="n">
+        <v>8</v>
+      </c>
+      <c r="G116" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>fbscan.com</t>
+          <t>alotoi.com</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>www.fbscan.com/find/mail-merge-f9</t>
+          <t>alotoi.com/huong-dan-su-dung-godaddy-chi-tiet/</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>/find/mail-merge-f9</t>
+          <t>/huong-dan-su-dung-godaddy-chi-tiet/</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E117" t="n">
-        <v>6280</v>
+        <v>3463</v>
       </c>
       <c r="F117" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="G117" t="n">
-        <v>29</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>fbscan.com</t>
+          <t>alotoi.com</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>www.fbscan.com/find/lucidgen.com</t>
+          <t>alotoi.com/marketing-online/</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>/find/lucidgen.com</t>
+          <t>/marketing-online/</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E118" t="n">
-        <v>6280</v>
+        <v>3463</v>
       </c>
       <c r="F118" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="G118" t="n">
-        <v>29</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>consumerdatastandards.com</t>
+          <t>alotoi.com</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>consumerdatastandards.com/f-companies/facebook-login-gmail-email.html</t>
+          <t>alotoi.com/page/11/</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>/f-companies/facebook-login-gmail-email.html</t>
+          <t>/page/11/</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E119" t="n">
-        <v>194218</v>
+        <v>3463</v>
       </c>
       <c r="F119" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="G119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>bloggers.jp</t>
+          <t>alotoi.com</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>ping.bloggers.jp/index.php/www.wesharetemplates.com/http:/premierfurniture.info</t>
+          <t>alotoi.com/exxa-network/</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>/index.php/www.wesharetemplates.com/http:/premierfurniture.info</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr"/>
-      <c r="E120" t="inlineStr"/>
+          <t>/exxa-network/</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>53</v>
+      </c>
+      <c r="E120" t="n">
+        <v>3463</v>
+      </c>
       <c r="F120" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="G120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>bloggers.jp</t>
+          <t>alotoi.com</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>ping.bloggers.jp/index.php/www.livestraffic.com/asset-management/theblogprofboe.info</t>
+          <t>alotoi.com/marketing-online/email-marketing/</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>/index.php/www.livestraffic.com/asset-management/theblogprofboe.info</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr"/>
-      <c r="E121" t="inlineStr"/>
+          <t>/marketing-online/email-marketing/</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>53</v>
+      </c>
+      <c r="E121" t="n">
+        <v>3463</v>
+      </c>
       <c r="F121" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="G121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>bloggers.jp</t>
+          <t>alotoi.com</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>ping.bloggers.jp/index.php/www.wesharetemplates.com/https:/spesnet.info</t>
+          <t>alotoi.com/tu-dong-cap-nhat-nam-thang-vao-tieu-de-bai-viet/</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>/index.php/www.wesharetemplates.com/https:/spesnet.info</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr"/>
-      <c r="E122" t="inlineStr"/>
+          <t>/tu-dong-cap-nhat-nam-thang-vao-tieu-de-bai-viet/</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>53</v>
+      </c>
+      <c r="E122" t="n">
+        <v>3463</v>
+      </c>
       <c r="F122" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="G122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>bloggers.jp</t>
+          <t>alotoi.com</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>ping.bloggers.jp/index.php/www.wesharetemplates.com/http:/datc.info</t>
+          <t>alotoi.com/mot-theme-wordpress-dep-cho-blog-website/</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>/index.php/www.wesharetemplates.com/http:/datc.info</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr"/>
-      <c r="E123" t="inlineStr"/>
+          <t>/mot-theme-wordpress-dep-cho-blog-website/</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>53</v>
+      </c>
+      <c r="E123" t="n">
+        <v>3463</v>
+      </c>
       <c r="F123" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="G123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>bloggers.jp</t>
+          <t>alotoi.com</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>ping.bloggers.jp/index.php/www.wesharetemplates.com/yoga-world.athff.ru/sechaufferaubois.com</t>
+          <t>alotoi.com/vi-sao-nen-tham-gia-affiliate/</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>/index.php/www.wesharetemplates.com/yoga-world.athff.ru/sechaufferaubois.com</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr"/>
-      <c r="E124" t="inlineStr"/>
+          <t>/vi-sao-nen-tham-gia-affiliate/</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>53</v>
+      </c>
+      <c r="E124" t="n">
+        <v>3463</v>
+      </c>
       <c r="F124" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="G124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>bloggers.jp</t>
+          <t>alotoi.com</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>ping.bloggers.jp/index.php/cgi-bin/petit.cc/banana/orderaki.info</t>
+          <t>alotoi.com/huong-dan-cach-cai-dat-theme-cho-wordpress/</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>/index.php/cgi-bin/petit.cc/banana/orderaki.info</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr"/>
-      <c r="E125" t="inlineStr"/>
+          <t>/huong-dan-cach-cai-dat-theme-cho-wordpress/</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>53</v>
+      </c>
+      <c r="E125" t="n">
+        <v>3463</v>
+      </c>
       <c r="F125" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="G125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>bloggers.jp</t>
+          <t>alotoi.com</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>ping.bloggers.jp/index.php/www.wesharetemplates.com/http:/spesnet.info</t>
+          <t>alotoi.com/page/10/</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>/index.php/www.wesharetemplates.com/http:/spesnet.info</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr"/>
-      <c r="E126" t="inlineStr"/>
+          <t>/page/10/</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>53</v>
+      </c>
+      <c r="E126" t="n">
+        <v>3463</v>
+      </c>
       <c r="F126" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="G126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>bloggers.jp</t>
+          <t>alotoi.com</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>ping.bloggers.jp/index.php/cgi-bin/http:/the-misc.com</t>
+          <t>alotoi.com/tiep-thi-lien-ket-voi-accesstrade/</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>/index.php/cgi-bin/http:/the-misc.com</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr"/>
-      <c r="E127" t="inlineStr"/>
+          <t>/tiep-thi-lien-ket-voi-accesstrade/</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>53</v>
+      </c>
+      <c r="E127" t="n">
+        <v>3463</v>
+      </c>
       <c r="F127" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="G127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>bloggers.jp</t>
+          <t>alotoi.com</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>ping.bloggers.jp/index.php/www.wesharetemplates.com/yoga-world.athff.ru/ejocuricumotociclete.info</t>
+          <t>alotoi.com/smtp-mien-phi-tot-nhat/</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>/index.php/www.wesharetemplates.com/yoga-world.athff.ru/ejocuricumotociclete.info</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr"/>
-      <c r="E128" t="inlineStr"/>
+          <t>/smtp-mien-phi-tot-nhat/</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>53</v>
+      </c>
+      <c r="E128" t="n">
+        <v>3463</v>
+      </c>
       <c r="F128" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="G128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>bloggers.jp</t>
+          <t>alotoi.com</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>ping.bloggers.jp/index.php/automata.cc/https:/stroitelstvo.me</t>
+          <t>alotoi.com/author/hieule/page/2/</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>/index.php/automata.cc/https:/stroitelstvo.me</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr"/>
-      <c r="E129" t="inlineStr"/>
+          <t>/author/hieule/page/2/</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>53</v>
+      </c>
+      <c r="E129" t="n">
+        <v>3463</v>
+      </c>
       <c r="F129" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="G129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>bloggers.jp</t>
+          <t>alotoi.com</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>ping.bloggers.jp/index.php/cgi-bin/http:/franananen.tk/jaredp.info</t>
+          <t>alotoi.com/mang-affiliate-tot-nhat-viet-nam/</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>/index.php/cgi-bin/http:/franananen.tk/jaredp.info</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr"/>
-      <c r="E130" t="inlineStr"/>
+          <t>/mang-affiliate-tot-nhat-viet-nam/</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>53</v>
+      </c>
+      <c r="E130" t="n">
+        <v>3463</v>
+      </c>
       <c r="F130" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="G130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>bloggers.jp</t>
+          <t>alotoi.com</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>ping.bloggers.jp/index.php/cgi-bin/http:/franananen.tk/botlink.info</t>
+          <t>alotoi.com/author/hieule/page/9/</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>/index.php/cgi-bin/http:/franananen.tk/botlink.info</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr"/>
-      <c r="E131" t="inlineStr"/>
+          <t>/author/hieule/page/9/</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>53</v>
+      </c>
+      <c r="E131" t="n">
+        <v>3463</v>
+      </c>
       <c r="F131" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="G131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>bloggers.jp</t>
+          <t>alotoi.com</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>ping.bloggers.jp/index.php/cgi-bin/netbokov.ru/shelves.kinderreich-nuernberg.de</t>
+          <t>alotoi.com/page/7/</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>/index.php/cgi-bin/netbokov.ru/shelves.kinderreich-nuernberg.de</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr"/>
-      <c r="E132" t="inlineStr"/>
+          <t>/page/7/</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>53</v>
+      </c>
+      <c r="E132" t="n">
+        <v>3463</v>
+      </c>
       <c r="F132" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="G132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>bloggers.jp</t>
+          <t>alotoi.com</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>ping.bloggers.jp/index.php/cgi-bin/intyoga.ru/dreaminggenius.com</t>
+          <t>alotoi.com/kiem-tien-online/page/2/</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>/index.php/cgi-bin/intyoga.ru/dreaminggenius.com</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr"/>
-      <c r="E133" t="inlineStr"/>
+          <t>/kiem-tien-online/page/2/</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>53</v>
+      </c>
+      <c r="E133" t="n">
+        <v>3463</v>
+      </c>
       <c r="F133" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="G133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>bloggers.jp</t>
+          <t>alotoi.com</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>ping.bloggers.jp/index.php/cgi-bin/adzbux.com/mejiatelevision.com</t>
+          <t>alotoi.com/tag/kiem-tien-smartphone/</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>/index.php/cgi-bin/adzbux.com/mejiatelevision.com</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr"/>
-      <c r="E134" t="inlineStr"/>
+          <t>/tag/kiem-tien-smartphone/</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>53</v>
+      </c>
+      <c r="E134" t="n">
+        <v>3463</v>
+      </c>
       <c r="F134" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="G134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>bloggers.jp</t>
+          <t>alotoi.com</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>ping.bloggers.jp/index.php/cgi-bin/petit.cc/banana/wuluwu.me</t>
+          <t>alotoi.com/danh-gia-hosting-ipage/</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>/index.php/cgi-bin/petit.cc/banana/wuluwu.me</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr"/>
-      <c r="E135" t="inlineStr"/>
+          <t>/danh-gia-hosting-ipage/</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>53</v>
+      </c>
+      <c r="E135" t="n">
+        <v>3463</v>
+      </c>
       <c r="F135" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="G135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>bloggers.jp</t>
+          <t>alotoi.com</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>ping.bloggers.jp/index.php/cgi-bin/14/the-verandah-residences.co</t>
+          <t>alotoi.com/tag/megaurl/</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>/index.php/cgi-bin/14/the-verandah-residences.co</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr"/>
-      <c r="E136" t="inlineStr"/>
+          <t>/tag/megaurl/</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>53</v>
+      </c>
+      <c r="E136" t="n">
+        <v>3463</v>
+      </c>
       <c r="F136" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="G136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>bloggers.jp</t>
+          <t>alotoi.com</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>ping.bloggers.jp/index.php/cgi-bin/https:/crochetpatterns.info</t>
+          <t>alotoi.com/author/hieule/page/6/</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>/index.php/cgi-bin/https:/crochetpatterns.info</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr"/>
-      <c r="E137" t="inlineStr"/>
+          <t>/author/hieule/page/6/</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>53</v>
+      </c>
+      <c r="E137" t="n">
+        <v>3463</v>
+      </c>
       <c r="F137" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="G137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>bloggers.jp</t>
+          <t>alotoi.com</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>ping.bloggers.jp/index.php/cgi-bin/http:/franananen.tk/funfonez.com</t>
+          <t>alotoi.com/phan-mem-facebook-marketing/?replytocom=14</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>/index.php/cgi-bin/http:/franananen.tk/funfonez.com</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr"/>
-      <c r="E138" t="inlineStr"/>
+          <t>/phan-mem-facebook-marketing/</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>53</v>
+      </c>
+      <c r="E138" t="n">
+        <v>3463</v>
+      </c>
       <c r="F138" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="G138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>bloggers.jp</t>
+          <t>alotoi.com</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>ping.bloggers.jp/index.php/www.livestraffic.com/asset-management/josephharris.me</t>
+          <t>alotoi.com/tag/accesstrade/</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>/index.php/www.livestraffic.com/asset-management/josephharris.me</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr"/>
-      <c r="E139" t="inlineStr"/>
+          <t>/tag/accesstrade/</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>53</v>
+      </c>
+      <c r="E139" t="n">
+        <v>3463</v>
+      </c>
       <c r="F139" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="G139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>bloggers.jp</t>
+          <t>alotoi.com</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>ping.bloggers.jp/index.php/cgi-bin/adzbux.com/lacasablava.com</t>
+          <t>alotoi.com/tag/kien-thuc-wordpress/</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>/index.php/cgi-bin/adzbux.com/lacasablava.com</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr"/>
-      <c r="E140" t="inlineStr"/>
+          <t>/tag/kien-thuc-wordpress/</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>53</v>
+      </c>
+      <c r="E140" t="n">
+        <v>3463</v>
+      </c>
       <c r="F140" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="G140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>bloggers.jp</t>
+          <t>alotoi.com</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>ping.bloggers.jp/index.php/10,%208-1/article/13/BestFiles.org</t>
+          <t>alotoi.com/huong-dan-tung-buoc-cai-dat-plugin-wordpress-danh-cho-nguoi-moi/</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>/index.php/10,%208-1/article/13/BestFiles.org</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr"/>
-      <c r="E141" t="inlineStr"/>
+          <t>/huong-dan-tung-buoc-cai-dat-plugin-wordpress-danh-cho-nguoi-moi/</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>53</v>
+      </c>
+      <c r="E141" t="n">
+        <v>3463</v>
+      </c>
       <c r="F141" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="G141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>bloggers.jp</t>
+          <t>alotoi.com</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>ping.bloggers.jp/index.php/www.wesharetemplates.com/yoga-world.athff.ru/bandarbo.info</t>
+          <t>alotoi.com/tag/review-hosting/</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>/index.php/www.wesharetemplates.com/yoga-world.athff.ru/bandarbo.info</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr"/>
-      <c r="E142" t="inlineStr"/>
+          <t>/tag/review-hosting/</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>53</v>
+      </c>
+      <c r="E142" t="n">
+        <v>3463</v>
+      </c>
       <c r="F142" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="G142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>bloggers.jp</t>
+          <t>alotoi.com</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>ping.bloggers.jp/index.php/www.wesharetemplates.com/https:/tvnewsclips.info</t>
+          <t>alotoi.com/tag/giam-gia-hosting/</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>/index.php/www.wesharetemplates.com/https:/tvnewsclips.info</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr"/>
-      <c r="E143" t="inlineStr"/>
+          <t>/tag/giam-gia-hosting/</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>53</v>
+      </c>
+      <c r="E143" t="n">
+        <v>3463</v>
+      </c>
       <c r="F143" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="G143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>bloggers.jp</t>
+          <t>alotoi.com</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>ping.bloggers.jp/index.php/Ecommerce%20Resource%3C/Bloggity.biz/heavenbydeborahmitchell.me</t>
+          <t>alotoi.com/email-marketing-la-gi/</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>/index.php/Ecommerce%20Resource%3C/Bloggity.biz/heavenbydeborahmitchell.me</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr"/>
-      <c r="E144" t="inlineStr"/>
+          <t>/email-marketing-la-gi/</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>53</v>
+      </c>
+      <c r="E144" t="n">
+        <v>3463</v>
+      </c>
       <c r="F144" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="G144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>bloggers.jp</t>
+          <t>alotoi.com</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>ping.bloggers.jp/index.php/cgi-bin/tumabin/http:/mundodigital.pro</t>
+          <t>alotoi.com/tag/auto-facebook/</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>/index.php/cgi-bin/tumabin/http:/mundodigital.pro</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr"/>
-      <c r="E145" t="inlineStr"/>
+          <t>/tag/auto-facebook/</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>53</v>
+      </c>
+      <c r="E145" t="n">
+        <v>3463</v>
+      </c>
       <c r="F145" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="G145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>bloggers.jp</t>
+          <t>alotoi.com</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>ping.bloggers.jp/index.php/cgi-bin/http:/franananen.tk/dreads.me</t>
+          <t>alotoi.com/phan-mem-facebook-marketing/?replytocom=12</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>/index.php/cgi-bin/http:/franananen.tk/dreads.me</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr"/>
-      <c r="E146" t="inlineStr"/>
+          <t>/phan-mem-facebook-marketing/</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>53</v>
+      </c>
+      <c r="E146" t="n">
+        <v>3463</v>
+      </c>
       <c r="F146" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="G146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>bloggers.jp</t>
+          <t>alotoi.com</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>ping.bloggers.jp/index.php/10,%208-1/article/tatuirovki.198kaz.ru/anjaliarya.info</t>
+          <t>alotoi.com/tag/comment-wordpress/</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>/index.php/10,%208-1/article/tatuirovki.198kaz.ru/anjaliarya.info</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr"/>
-      <c r="E147" t="inlineStr"/>
+          <t>/tag/comment-wordpress/</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>53</v>
+      </c>
+      <c r="E147" t="n">
+        <v>3463</v>
+      </c>
       <c r="F147" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="G147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>wipsites.com</t>
+          <t>alotoi.com</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>www.wipsites.com/search/tai-mien-phi-office-2016-co-crack</t>
+          <t>alotoi.com/tag/plugin-wordpress/</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>/search/tai-mien-phi-office-2016-co-crack</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr"/>
-      <c r="E148" t="inlineStr"/>
+          <t>/tag/plugin-wordpress/</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>53</v>
+      </c>
+      <c r="E148" t="n">
+        <v>3463</v>
+      </c>
       <c r="F148" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="G148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>bingparachute.com</t>
+          <t>alotoi.com</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>s.bingparachute.com/search?q=facebook+messenger+on+website&amp;FORM=QSRE2</t>
+          <t>alotoi.com/tag/theme-coupon/</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>/search</t>
+          <t>/tag/theme-coupon/</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>2.9</v>
+        <v>53</v>
       </c>
       <c r="E149" t="n">
-        <v>0</v>
+        <v>3463</v>
       </c>
       <c r="F149" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="G149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>ipsispub.com.br</t>
+          <t>alotoi.com</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>blog.ipsispub.com.br/d/consolidate-cells-excel/hdr</t>
+          <t>alotoi.com/phan-mem-facebook-marketing/?replytocom=17</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>/d/consolidate-cells-excel/hdr</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr"/>
-      <c r="E150" t="inlineStr"/>
+          <t>/phan-mem-facebook-marketing/</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>53</v>
+      </c>
+      <c r="E150" t="n">
+        <v>3463</v>
+      </c>
       <c r="F150" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="G150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>sitelike.org</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr"/>
-      <c r="C151" t="inlineStr"/>
+          <t>alotoi.com</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>alotoi.com/tag/kiem-tien-online/</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>/tag/kiem-tien-online/</t>
+        </is>
+      </c>
       <c r="D151" t="n">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E151" t="n">
-        <v>11831620</v>
-      </c>
-      <c r="F151" t="inlineStr"/>
-      <c r="G151" t="inlineStr"/>
+        <v>3463</v>
+      </c>
+      <c r="F151" t="n">
+        <v>8</v>
+      </c>
+      <c r="G151" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>vnngaynay.net</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr"/>
-      <c r="C152" t="inlineStr"/>
+          <t>alotoi.com</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>alotoi.com/author/hieule/page/10/</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>/author/hieule/page/10/</t>
+        </is>
+      </c>
       <c r="D152" t="n">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="E152" t="n">
-        <v>11429</v>
+        <v>3463</v>
       </c>
       <c r="F152" t="n">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="G152" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>kriesi.at</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr"/>
-      <c r="C153" t="inlineStr"/>
+          <t>alotoi.com</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>alotoi.com/tag/tiep-thi-lien-ket/page/2/</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>/tag/tiep-thi-lien-ket/page/2/</t>
+        </is>
+      </c>
       <c r="D153" t="n">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="E153" t="n">
-        <v>10729</v>
-      </c>
-      <c r="F153" t="inlineStr"/>
-      <c r="G153" t="inlineStr"/>
+        <v>3463</v>
+      </c>
+      <c r="F153" t="n">
+        <v>8</v>
+      </c>
+      <c r="G153" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>forobeta.com</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr"/>
-      <c r="C154" t="inlineStr"/>
+          <t>alotoi.com</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>alotoi.com/hosting-va-domain/page/2/</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>/hosting-va-domain/page/2/</t>
+        </is>
+      </c>
       <c r="D154" t="n">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="E154" t="n">
-        <v>61542</v>
-      </c>
-      <c r="F154" t="inlineStr"/>
-      <c r="G154" t="inlineStr"/>
+        <v>3463</v>
+      </c>
+      <c r="F154" t="n">
+        <v>8</v>
+      </c>
+      <c r="G154" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>inthienha.com</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr"/>
-      <c r="C155" t="inlineStr"/>
+          <t>alotoi.com</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>alotoi.com/tag/khuyen-mai-30-04/</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>/tag/khuyen-mai-30-04/</t>
+        </is>
+      </c>
       <c r="D155" t="n">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="E155" t="n">
-        <v>43353</v>
-      </c>
-      <c r="F155" t="inlineStr"/>
-      <c r="G155" t="inlineStr"/>
+        <v>3463</v>
+      </c>
+      <c r="F155" t="n">
+        <v>8</v>
+      </c>
+      <c r="G155" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
+          <t>alotoi.com</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>alotoi.com/kiem-tien-online/affiliate/page/2/</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>/kiem-tien-online/affiliate/page/2/</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>53</v>
+      </c>
+      <c r="E156" t="n">
+        <v>3463</v>
+      </c>
+      <c r="F156" t="n">
+        <v>8</v>
+      </c>
+      <c r="G156" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>alotoi.com</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>alotoi.com/tag/stablehost/</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>/tag/stablehost/</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>53</v>
+      </c>
+      <c r="E157" t="n">
+        <v>3463</v>
+      </c>
+      <c r="F157" t="n">
+        <v>8</v>
+      </c>
+      <c r="G157" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>alotoi.com</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>alotoi.com/lam-viec-voi-menu-trong-wordpress/</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>/lam-viec-voi-menu-trong-wordpress/</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>53</v>
+      </c>
+      <c r="E158" t="n">
+        <v>3463</v>
+      </c>
+      <c r="F158" t="n">
+        <v>8</v>
+      </c>
+      <c r="G158" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>alotoi.com</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>alotoi.com/tag/zip-code-viet-nam/</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>/tag/zip-code-viet-nam/</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>53</v>
+      </c>
+      <c r="E159" t="n">
+        <v>3463</v>
+      </c>
+      <c r="F159" t="n">
+        <v>8</v>
+      </c>
+      <c r="G159" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>alotoi.com</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>alotoi.com/bloom-plugin-thu-thap-email-cho-wordpress/</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>/bloom-plugin-thu-thap-email-cho-wordpress/</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>53</v>
+      </c>
+      <c r="E160" t="n">
+        <v>3463</v>
+      </c>
+      <c r="F160" t="n">
+        <v>8</v>
+      </c>
+      <c r="G160" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>alotoi.com</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>alotoi.com/tag/theme-wordpress-tong-hop/</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>/tag/theme-wordpress-tong-hop/</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>53</v>
+      </c>
+      <c r="E161" t="n">
+        <v>3463</v>
+      </c>
+      <c r="F161" t="n">
+        <v>8</v>
+      </c>
+      <c r="G161" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>alotoi.com</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>alotoi.com/kiem-tien-online-va-nhung-dieu-can-biet/</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>/kiem-tien-online-va-nhung-dieu-can-biet/</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>53</v>
+      </c>
+      <c r="E162" t="n">
+        <v>3463</v>
+      </c>
+      <c r="F162" t="n">
+        <v>8</v>
+      </c>
+      <c r="G162" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>alotoi.com</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>alotoi.com/tag/hosting-tot-nhat/</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>/tag/hosting-tot-nhat/</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>53</v>
+      </c>
+      <c r="E163" t="n">
+        <v>3463</v>
+      </c>
+      <c r="F163" t="n">
+        <v>8</v>
+      </c>
+      <c r="G163" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>alotoi.com</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>alotoi.com/tag/tinohost/</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>/tag/tinohost/</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>53</v>
+      </c>
+      <c r="E164" t="n">
+        <v>3463</v>
+      </c>
+      <c r="F164" t="n">
+        <v>8</v>
+      </c>
+      <c r="G164" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>alotoi.com</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>alotoi.com/phan-mem-facebook-marketing/?replytocom=18</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>/phan-mem-facebook-marketing/</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>53</v>
+      </c>
+      <c r="E165" t="n">
+        <v>3463</v>
+      </c>
+      <c r="F165" t="n">
+        <v>8</v>
+      </c>
+      <c r="G165" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>alotoi.com</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>alotoi.com/wordpress/theme-wordpress/page/2/</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>/wordpress/theme-wordpress/page/2/</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>53</v>
+      </c>
+      <c r="E166" t="n">
+        <v>3463</v>
+      </c>
+      <c r="F166" t="n">
+        <v>8</v>
+      </c>
+      <c r="G166" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>alotoi.com</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>alotoi.com/cai-dat-wordpress-bang-filezilla/</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>/cai-dat-wordpress-bang-filezilla/</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>53</v>
+      </c>
+      <c r="E167" t="n">
+        <v>3463</v>
+      </c>
+      <c r="F167" t="n">
+        <v>8</v>
+      </c>
+      <c r="G167" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>alotoi.com</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>alotoi.com/author/hieule/page/8/</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>/author/hieule/page/8/</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>53</v>
+      </c>
+      <c r="E168" t="n">
+        <v>3463</v>
+      </c>
+      <c r="F168" t="n">
+        <v>8</v>
+      </c>
+      <c r="G168" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>alotoi.com</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>alotoi.com/tag/giam-gia-hosting/page/2/</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>/tag/giam-gia-hosting/page/2/</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>53</v>
+      </c>
+      <c r="E169" t="n">
+        <v>3463</v>
+      </c>
+      <c r="F169" t="n">
+        <v>8</v>
+      </c>
+      <c r="G169" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>alotoi.com</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>alotoi.com/tag/tiep-thi-lien-ket/</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>/tag/tiep-thi-lien-ket/</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>53</v>
+      </c>
+      <c r="E170" t="n">
+        <v>3463</v>
+      </c>
+      <c r="F170" t="n">
+        <v>8</v>
+      </c>
+      <c r="G170" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>alotoi.com</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>alotoi.com/author/lam-tran/</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>/author/lam-tran/</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>53</v>
+      </c>
+      <c r="E171" t="n">
+        <v>3463</v>
+      </c>
+      <c r="F171" t="n">
+        <v>8</v>
+      </c>
+      <c r="G171" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>alotoi.com</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>alotoi.com/author/hieule/page/5/</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>/author/hieule/page/5/</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>53</v>
+      </c>
+      <c r="E172" t="n">
+        <v>3463</v>
+      </c>
+      <c r="F172" t="n">
+        <v>8</v>
+      </c>
+      <c r="G172" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>alotoi.com</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>alotoi.com/tag/hosting-ipage/</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>/tag/hosting-ipage/</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>53</v>
+      </c>
+      <c r="E173" t="n">
+        <v>3463</v>
+      </c>
+      <c r="F173" t="n">
+        <v>8</v>
+      </c>
+      <c r="G173" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>alotoi.com</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>alotoi.com/page/3/</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>/page/3/</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>53</v>
+      </c>
+      <c r="E174" t="n">
+        <v>3463</v>
+      </c>
+      <c r="F174" t="n">
+        <v>8</v>
+      </c>
+      <c r="G174" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>alotoi.com</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>alotoi.com/tag/wordpress-theme-ban-hang/</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>/tag/wordpress-theme-ban-hang/</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>53</v>
+      </c>
+      <c r="E175" t="n">
+        <v>3463</v>
+      </c>
+      <c r="F175" t="n">
+        <v>8</v>
+      </c>
+      <c r="G175" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>alotoi.com</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>alotoi.com/tag/giam-gia-domain/</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>/tag/giam-gia-domain/</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>53</v>
+      </c>
+      <c r="E176" t="n">
+        <v>3463</v>
+      </c>
+      <c r="F176" t="n">
+        <v>8</v>
+      </c>
+      <c r="G176" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>alotoi.com</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>alotoi.com/tag/ten-mien-gia-re/</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>/tag/ten-mien-gia-re/</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>53</v>
+      </c>
+      <c r="E177" t="n">
+        <v>3463</v>
+      </c>
+      <c r="F177" t="n">
+        <v>8</v>
+      </c>
+      <c r="G177" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>alotoi.com</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>alotoi.com/hien-thi-bai-viet-cung-chuyen-muc/</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>/hien-thi-bai-viet-cung-chuyen-muc/</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>53</v>
+      </c>
+      <c r="E178" t="n">
+        <v>3463</v>
+      </c>
+      <c r="F178" t="n">
+        <v>8</v>
+      </c>
+      <c r="G178" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>alotoi.com</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>alotoi.com/huong-dan-dang-ky-payoneer/</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>/huong-dan-dang-ky-payoneer/</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>53</v>
+      </c>
+      <c r="E179" t="n">
+        <v>3463</v>
+      </c>
+      <c r="F179" t="n">
+        <v>8</v>
+      </c>
+      <c r="G179" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>alotoi.com</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>alotoi.com/wordpress/page/3/</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>/wordpress/page/3/</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>53</v>
+      </c>
+      <c r="E180" t="n">
+        <v>3463</v>
+      </c>
+      <c r="F180" t="n">
+        <v>8</v>
+      </c>
+      <c r="G180" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>alotoi.com</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>alotoi.com/wordpress/plugin-wordpress/page/2/</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>/wordpress/plugin-wordpress/page/2/</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>53</v>
+      </c>
+      <c r="E181" t="n">
+        <v>3463</v>
+      </c>
+      <c r="F181" t="n">
+        <v>8</v>
+      </c>
+      <c r="G181" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>alotoi.com</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>alotoi.com/kiem-tien-online/page/3/</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>/kiem-tien-online/page/3/</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>53</v>
+      </c>
+      <c r="E182" t="n">
+        <v>3463</v>
+      </c>
+      <c r="F182" t="n">
+        <v>8</v>
+      </c>
+      <c r="G182" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>alotoi.com</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>alotoi.com/affiliate-marketing-la-gi/</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>/affiliate-marketing-la-gi/</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>53</v>
+      </c>
+      <c r="E183" t="n">
+        <v>3463</v>
+      </c>
+      <c r="F183" t="n">
+        <v>8</v>
+      </c>
+      <c r="G183" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>alotoi.com</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>alotoi.com/phan-mem-facebook-marketing/?replytocom=16</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>/phan-mem-facebook-marketing/</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>53</v>
+      </c>
+      <c r="E184" t="n">
+        <v>3463</v>
+      </c>
+      <c r="F184" t="n">
+        <v>8</v>
+      </c>
+      <c r="G184" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>alotoi.com</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>alotoi.com/wordpress/page/4/</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>/wordpress/page/4/</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>53</v>
+      </c>
+      <c r="E185" t="n">
+        <v>3463</v>
+      </c>
+      <c r="F185" t="n">
+        <v>8</v>
+      </c>
+      <c r="G185" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>alotoi.com</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>alotoi.com/tag/kien-thuc-wordpress/page/3/</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>/tag/kien-thuc-wordpress/page/3/</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>53</v>
+      </c>
+      <c r="E186" t="n">
+        <v>3463</v>
+      </c>
+      <c r="F186" t="n">
+        <v>8</v>
+      </c>
+      <c r="G186" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>alotoi.com</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>alotoi.com/phan-mem-facebook-marketing/?replytocom=19</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>/phan-mem-facebook-marketing/</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>53</v>
+      </c>
+      <c r="E187" t="n">
+        <v>3463</v>
+      </c>
+      <c r="F187" t="n">
+        <v>8</v>
+      </c>
+      <c r="G187" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>alotoi.com</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>alotoi.com/phan-mem-facebook-marketing/?replytocom=21</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>/phan-mem-facebook-marketing/</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>53</v>
+      </c>
+      <c r="E188" t="n">
+        <v>3463</v>
+      </c>
+      <c r="F188" t="n">
+        <v>8</v>
+      </c>
+      <c r="G188" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>alotoi.com</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>alotoi.com/tag/chatbot/</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>/tag/chatbot/</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>53</v>
+      </c>
+      <c r="E189" t="n">
+        <v>3463</v>
+      </c>
+      <c r="F189" t="n">
+        <v>8</v>
+      </c>
+      <c r="G189" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>alotoi.com</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>alotoi.com/author/thaivinh/</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>/author/thaivinh/</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>53</v>
+      </c>
+      <c r="E190" t="n">
+        <v>3463</v>
+      </c>
+      <c r="F190" t="n">
+        <v>8</v>
+      </c>
+      <c r="G190" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>alotoi.com</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>alotoi.com/tag/godaddy/page/2/</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>/tag/godaddy/page/2/</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>53</v>
+      </c>
+      <c r="E191" t="n">
+        <v>3463</v>
+      </c>
+      <c r="F191" t="n">
+        <v>8</v>
+      </c>
+      <c r="G191" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>alotoi.com</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>alotoi.com/tag/facebook-marketing/</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>/tag/facebook-marketing/</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>53</v>
+      </c>
+      <c r="E192" t="n">
+        <v>3463</v>
+      </c>
+      <c r="F192" t="n">
+        <v>8</v>
+      </c>
+      <c r="G192" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>alotoi.com</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>alotoi.com/huong-dan-viet-bai-moi-tren-wordpress/</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>/huong-dan-viet-bai-moi-tren-wordpress/</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
+        <v>53</v>
+      </c>
+      <c r="E193" t="n">
+        <v>3463</v>
+      </c>
+      <c r="F193" t="n">
+        <v>8</v>
+      </c>
+      <c r="G193" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>alotoi.com</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>alotoi.com/tang-dungluong-upload-file-toi-da-trong-wordpress/</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>/tang-dungluong-upload-file-toi-da-trong-wordpress/</t>
+        </is>
+      </c>
+      <c r="D194" t="n">
+        <v>53</v>
+      </c>
+      <c r="E194" t="n">
+        <v>3463</v>
+      </c>
+      <c r="F194" t="n">
+        <v>8</v>
+      </c>
+      <c r="G194" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>alotoi.com</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>alotoi.com/phan-mem-facebook-marketing/?replytocom=13</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>/phan-mem-facebook-marketing/</t>
+        </is>
+      </c>
+      <c r="D195" t="n">
+        <v>53</v>
+      </c>
+      <c r="E195" t="n">
+        <v>3463</v>
+      </c>
+      <c r="F195" t="n">
+        <v>8</v>
+      </c>
+      <c r="G195" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>alotoi.com</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>alotoi.com/hosting-va-domain/page/4/</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>/hosting-va-domain/page/4/</t>
+        </is>
+      </c>
+      <c r="D196" t="n">
+        <v>53</v>
+      </c>
+      <c r="E196" t="n">
+        <v>3463</v>
+      </c>
+      <c r="F196" t="n">
+        <v>8</v>
+      </c>
+      <c r="G196" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>alotoi.com</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>alotoi.com/tag/plugin-seo/</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>/tag/plugin-seo/</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
+        <v>53</v>
+      </c>
+      <c r="E197" t="n">
+        <v>3463</v>
+      </c>
+      <c r="F197" t="n">
+        <v>8</v>
+      </c>
+      <c r="G197" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>alotoi.com</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>alotoi.com/author/hieule/page/7/</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>/author/hieule/page/7/</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
+        <v>53</v>
+      </c>
+      <c r="E198" t="n">
+        <v>3463</v>
+      </c>
+      <c r="F198" t="n">
+        <v>8</v>
+      </c>
+      <c r="G198" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>alotoi.com</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>alotoi.com/tag/ma-buu-chinh-viet-nam/</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>/tag/ma-buu-chinh-viet-nam/</t>
+        </is>
+      </c>
+      <c r="D199" t="n">
+        <v>53</v>
+      </c>
+      <c r="E199" t="n">
+        <v>3463</v>
+      </c>
+      <c r="F199" t="n">
+        <v>8</v>
+      </c>
+      <c r="G199" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>alotoi.com</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>alotoi.com/tag/payoneer/</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>/tag/payoneer/</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
+        <v>53</v>
+      </c>
+      <c r="E200" t="n">
+        <v>3463</v>
+      </c>
+      <c r="F200" t="n">
+        <v>8</v>
+      </c>
+      <c r="G200" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>alotoi.com</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>alotoi.com/tag/ma-giam-gia-hosting/</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>/tag/ma-giam-gia-hosting/</t>
+        </is>
+      </c>
+      <c r="D201" t="n">
+        <v>53</v>
+      </c>
+      <c r="E201" t="n">
+        <v>3463</v>
+      </c>
+      <c r="F201" t="n">
+        <v>8</v>
+      </c>
+      <c r="G201" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>alotoi.com</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>alotoi.com/tag/dich-vu-smtp/</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>/tag/dich-vu-smtp/</t>
+        </is>
+      </c>
+      <c r="D202" t="n">
+        <v>53</v>
+      </c>
+      <c r="E202" t="n">
+        <v>3463</v>
+      </c>
+      <c r="F202" t="n">
+        <v>8</v>
+      </c>
+      <c r="G202" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>alotoi.com</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>alotoi.com/tag/kien-thuc-seo/</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>/tag/kien-thuc-seo/</t>
+        </is>
+      </c>
+      <c r="D203" t="n">
+        <v>53</v>
+      </c>
+      <c r="E203" t="n">
+        <v>3463</v>
+      </c>
+      <c r="F203" t="n">
+        <v>8</v>
+      </c>
+      <c r="G203" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>alotoi.com</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>alotoi.com/wordpress/page/2/</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>/wordpress/page/2/</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>53</v>
+      </c>
+      <c r="E204" t="n">
+        <v>3463</v>
+      </c>
+      <c r="F204" t="n">
+        <v>8</v>
+      </c>
+      <c r="G204" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>alotoi.com</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>alotoi.com/tag/marketing/</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>/tag/marketing/</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>53</v>
+      </c>
+      <c r="E205" t="n">
+        <v>3463</v>
+      </c>
+      <c r="F205" t="n">
+        <v>8</v>
+      </c>
+      <c r="G205" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>alotoi.com</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>alotoi.com/tag/fox-trading/</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>/tag/fox-trading/</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>53</v>
+      </c>
+      <c r="E206" t="n">
+        <v>3463</v>
+      </c>
+      <c r="F206" t="n">
+        <v>8</v>
+      </c>
+      <c r="G206" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>alotoi.com</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>alotoi.com/author/hieule/page/4/</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>/author/hieule/page/4/</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>53</v>
+      </c>
+      <c r="E207" t="n">
+        <v>3463</v>
+      </c>
+      <c r="F207" t="n">
+        <v>8</v>
+      </c>
+      <c r="G207" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>alotoi.com</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>alotoi.com/phan-mem-facebook-marketing/?replytocom=15</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>/phan-mem-facebook-marketing/</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>53</v>
+      </c>
+      <c r="E208" t="n">
+        <v>3463</v>
+      </c>
+      <c r="F208" t="n">
+        <v>8</v>
+      </c>
+      <c r="G208" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>alotoi.com</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>alotoi.com/tag/the-thanh-toan/</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>/tag/the-thanh-toan/</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>53</v>
+      </c>
+      <c r="E209" t="n">
+        <v>3463</v>
+      </c>
+      <c r="F209" t="n">
+        <v>8</v>
+      </c>
+      <c r="G209" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>alotoi.com</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>alotoi.com/dieu-kien-can-de-tham-gia-tiep-thi-lien-ket/</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>/dieu-kien-can-de-tham-gia-tiep-thi-lien-ket/</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>53</v>
+      </c>
+      <c r="E210" t="n">
+        <v>3463</v>
+      </c>
+      <c r="F210" t="n">
+        <v>8</v>
+      </c>
+      <c r="G210" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>alotoi.com</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>alotoi.com/page/9/</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>/page/9/</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>53</v>
+      </c>
+      <c r="E211" t="n">
+        <v>3463</v>
+      </c>
+      <c r="F211" t="n">
+        <v>8</v>
+      </c>
+      <c r="G211" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>alotoi.com</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>alotoi.com/page/5/</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>/page/5/</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>53</v>
+      </c>
+      <c r="E212" t="n">
+        <v>3463</v>
+      </c>
+      <c r="F212" t="n">
+        <v>8</v>
+      </c>
+      <c r="G212" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>alotoi.com</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>alotoi.com/kiem-tien-tren-dien-thoai/</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>/kiem-tien-tren-dien-thoai/</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>53</v>
+      </c>
+      <c r="E213" t="n">
+        <v>3463</v>
+      </c>
+      <c r="F213" t="n">
+        <v>8</v>
+      </c>
+      <c r="G213" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>alotoi.com</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>alotoi.com/dich-vu-thuong-mai-fox-trading/</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>/dich-vu-thuong-mai-fox-trading/</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>53</v>
+      </c>
+      <c r="E214" t="n">
+        <v>3463</v>
+      </c>
+      <c r="F214" t="n">
+        <v>8</v>
+      </c>
+      <c r="G214" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>alotoi.com</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>alotoi.com/page/6/</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>/page/6/</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>53</v>
+      </c>
+      <c r="E215" t="n">
+        <v>3463</v>
+      </c>
+      <c r="F215" t="n">
+        <v>8</v>
+      </c>
+      <c r="G215" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>alotoi.com</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>alotoi.com/tag/email-marketing/</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>/tag/email-marketing/</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>53</v>
+      </c>
+      <c r="E216" t="n">
+        <v>3463</v>
+      </c>
+      <c r="F216" t="n">
+        <v>8</v>
+      </c>
+      <c r="G216" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>alotoi.com</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>alotoi.com/danh-sach-ma-zip-code-cac-tinh-thanh-viet-nam/</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>/danh-sach-ma-zip-code-cac-tinh-thanh-viet-nam/</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>53</v>
+      </c>
+      <c r="E217" t="n">
+        <v>3463</v>
+      </c>
+      <c r="F217" t="n">
+        <v>8</v>
+      </c>
+      <c r="G217" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>alotoi.com</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>alotoi.com/tag/plugin-bai-viet-lien-quan/</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>/tag/plugin-bai-viet-lien-quan/</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>53</v>
+      </c>
+      <c r="E218" t="n">
+        <v>3463</v>
+      </c>
+      <c r="F218" t="n">
+        <v>8</v>
+      </c>
+      <c r="G218" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>alotoi.com</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>alotoi.com/page/8/</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>/page/8/</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>53</v>
+      </c>
+      <c r="E219" t="n">
+        <v>3463</v>
+      </c>
+      <c r="F219" t="n">
+        <v>8</v>
+      </c>
+      <c r="G219" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>alotoi.com</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>alotoi.com/tag/godaddy/</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>/tag/godaddy/</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>53</v>
+      </c>
+      <c r="E220" t="n">
+        <v>3463</v>
+      </c>
+      <c r="F220" t="n">
+        <v>8</v>
+      </c>
+      <c r="G220" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>alotoi.com</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>alotoi.com/tag/meo-hay-facebook/</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>/tag/meo-hay-facebook/</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>53</v>
+      </c>
+      <c r="E221" t="n">
+        <v>3463</v>
+      </c>
+      <c r="F221" t="n">
+        <v>8</v>
+      </c>
+      <c r="G221" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>alotoi.com</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>alotoi.com/page/4/</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>/page/4/</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>53</v>
+      </c>
+      <c r="E222" t="n">
+        <v>3463</v>
+      </c>
+      <c r="F222" t="n">
+        <v>8</v>
+      </c>
+      <c r="G222" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>alotoi.com</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>alotoi.com/series/</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>/series/</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>53</v>
+      </c>
+      <c r="E223" t="n">
+        <v>3463</v>
+      </c>
+      <c r="F223" t="n">
+        <v>8</v>
+      </c>
+      <c r="G223" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>alotoi.com</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>alotoi.com/author/hieule/page/3/</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>/author/hieule/page/3/</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>53</v>
+      </c>
+      <c r="E224" t="n">
+        <v>3463</v>
+      </c>
+      <c r="F224" t="n">
+        <v>8</v>
+      </c>
+      <c r="G224" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>alotoi.com</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>alotoi.com/tag/hosting-domain/</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>/tag/hosting-domain/</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>53</v>
+      </c>
+      <c r="E225" t="n">
+        <v>3463</v>
+      </c>
+      <c r="F225" t="n">
+        <v>8</v>
+      </c>
+      <c r="G225" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>alotoi.com</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>alotoi.com/hosting-va-domain/godaddy/page/2/</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>/hosting-va-domain/godaddy/page/2/</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>53</v>
+      </c>
+      <c r="E226" t="n">
+        <v>3463</v>
+      </c>
+      <c r="F226" t="n">
+        <v>8</v>
+      </c>
+      <c r="G226" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>alotoi.com</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>alotoi.com/hosting-va-domain/page/3/</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>/hosting-va-domain/page/3/</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>53</v>
+      </c>
+      <c r="E227" t="n">
+        <v>3463</v>
+      </c>
+      <c r="F227" t="n">
+        <v>8</v>
+      </c>
+      <c r="G227" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>alotoi.com</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>alotoi.com/tag/mmo/</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>/tag/mmo/</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>53</v>
+      </c>
+      <c r="E228" t="n">
+        <v>3463</v>
+      </c>
+      <c r="F228" t="n">
+        <v>8</v>
+      </c>
+      <c r="G228" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>alotoi.com</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>alotoi.com/tag/azdigi/</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>/tag/azdigi/</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>53</v>
+      </c>
+      <c r="E229" t="n">
+        <v>3463</v>
+      </c>
+      <c r="F229" t="n">
+        <v>8</v>
+      </c>
+      <c r="G229" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>alotoi.com</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>alotoi.com/tag/kien-thuc-wordpress/page/2/</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>/tag/kien-thuc-wordpress/page/2/</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>53</v>
+      </c>
+      <c r="E230" t="n">
+        <v>3463</v>
+      </c>
+      <c r="F230" t="n">
+        <v>8</v>
+      </c>
+      <c r="G230" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>alotoi.com</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>alotoi.com/tag/code-facebook/</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>/tag/code-facebook/</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>53</v>
+      </c>
+      <c r="E231" t="n">
+        <v>3463</v>
+      </c>
+      <c r="F231" t="n">
+        <v>8</v>
+      </c>
+      <c r="G231" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>alotoi.com</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>alotoi.com/tag/shortener-url/</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>/tag/shortener-url/</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>53</v>
+      </c>
+      <c r="E232" t="n">
+        <v>3463</v>
+      </c>
+      <c r="F232" t="n">
+        <v>8</v>
+      </c>
+      <c r="G232" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>advancedsitestats.com</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>advancedsitestats.com/lucid.blog/</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>/lucid.blog/</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>32</v>
+      </c>
+      <c r="E233" t="n">
+        <v>45819</v>
+      </c>
+      <c r="F233" t="n">
+        <v>27</v>
+      </c>
+      <c r="G233" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>bloggers.jp</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>ping.bloggers.jp/index.php/www.wesharetemplates.com/http:/premierfurniture.info</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>/index.php/www.wesharetemplates.com/http:/premierfurniture.info</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr"/>
+      <c r="E234" t="inlineStr"/>
+      <c r="F234" t="n">
+        <v>29</v>
+      </c>
+      <c r="G234" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>bloggers.jp</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>ping.bloggers.jp/index.php/www.livestraffic.com/asset-management/theblogprofboe.info</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>/index.php/www.livestraffic.com/asset-management/theblogprofboe.info</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr"/>
+      <c r="E235" t="inlineStr"/>
+      <c r="F235" t="n">
+        <v>29</v>
+      </c>
+      <c r="G235" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>bloggers.jp</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>ping.bloggers.jp/index.php/www.wesharetemplates.com/https:/spesnet.info</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>/index.php/www.wesharetemplates.com/https:/spesnet.info</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr"/>
+      <c r="E236" t="inlineStr"/>
+      <c r="F236" t="n">
+        <v>29</v>
+      </c>
+      <c r="G236" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>bloggers.jp</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>ping.bloggers.jp/index.php/www.wesharetemplates.com/http:/datc.info</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>/index.php/www.wesharetemplates.com/http:/datc.info</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr"/>
+      <c r="E237" t="inlineStr"/>
+      <c r="F237" t="n">
+        <v>29</v>
+      </c>
+      <c r="G237" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>bloggers.jp</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>ping.bloggers.jp/index.php/www.wesharetemplates.com/yoga-world.athff.ru/sechaufferaubois.com</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>/index.php/www.wesharetemplates.com/yoga-world.athff.ru/sechaufferaubois.com</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr"/>
+      <c r="E238" t="inlineStr"/>
+      <c r="F238" t="n">
+        <v>29</v>
+      </c>
+      <c r="G238" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>bloggers.jp</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>ping.bloggers.jp/index.php/cgi-bin/petit.cc/banana/orderaki.info</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>/index.php/cgi-bin/petit.cc/banana/orderaki.info</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr"/>
+      <c r="E239" t="inlineStr"/>
+      <c r="F239" t="n">
+        <v>29</v>
+      </c>
+      <c r="G239" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>bloggers.jp</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>ping.bloggers.jp/index.php/www.wesharetemplates.com/http:/spesnet.info</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>/index.php/www.wesharetemplates.com/http:/spesnet.info</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr"/>
+      <c r="E240" t="inlineStr"/>
+      <c r="F240" t="n">
+        <v>29</v>
+      </c>
+      <c r="G240" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>bloggers.jp</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>ping.bloggers.jp/index.php/cgi-bin/http:/the-misc.com</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>/index.php/cgi-bin/http:/the-misc.com</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr"/>
+      <c r="E241" t="inlineStr"/>
+      <c r="F241" t="n">
+        <v>29</v>
+      </c>
+      <c r="G241" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>bloggers.jp</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>ping.bloggers.jp/index.php/www.wesharetemplates.com/yoga-world.athff.ru/ejocuricumotociclete.info</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>/index.php/www.wesharetemplates.com/yoga-world.athff.ru/ejocuricumotociclete.info</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr"/>
+      <c r="E242" t="inlineStr"/>
+      <c r="F242" t="n">
+        <v>29</v>
+      </c>
+      <c r="G242" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>bloggers.jp</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>ping.bloggers.jp/index.php/automata.cc/https:/stroitelstvo.me</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>/index.php/automata.cc/https:/stroitelstvo.me</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr"/>
+      <c r="E243" t="inlineStr"/>
+      <c r="F243" t="n">
+        <v>29</v>
+      </c>
+      <c r="G243" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>bloggers.jp</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>ping.bloggers.jp/index.php/cgi-bin/http:/franananen.tk/jaredp.info</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>/index.php/cgi-bin/http:/franananen.tk/jaredp.info</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr"/>
+      <c r="E244" t="inlineStr"/>
+      <c r="F244" t="n">
+        <v>29</v>
+      </c>
+      <c r="G244" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>bloggers.jp</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>ping.bloggers.jp/index.php/cgi-bin/http:/franananen.tk/botlink.info</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>/index.php/cgi-bin/http:/franananen.tk/botlink.info</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr"/>
+      <c r="E245" t="inlineStr"/>
+      <c r="F245" t="n">
+        <v>29</v>
+      </c>
+      <c r="G245" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>bloggers.jp</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>ping.bloggers.jp/index.php/cgi-bin/netbokov.ru/shelves.kinderreich-nuernberg.de</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>/index.php/cgi-bin/netbokov.ru/shelves.kinderreich-nuernberg.de</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr"/>
+      <c r="E246" t="inlineStr"/>
+      <c r="F246" t="n">
+        <v>29</v>
+      </c>
+      <c r="G246" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>bloggers.jp</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>ping.bloggers.jp/index.php/cgi-bin/intyoga.ru/dreaminggenius.com</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>/index.php/cgi-bin/intyoga.ru/dreaminggenius.com</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr"/>
+      <c r="E247" t="inlineStr"/>
+      <c r="F247" t="n">
+        <v>29</v>
+      </c>
+      <c r="G247" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>bloggers.jp</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>ping.bloggers.jp/index.php/cgi-bin/adzbux.com/mejiatelevision.com</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>/index.php/cgi-bin/adzbux.com/mejiatelevision.com</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr"/>
+      <c r="E248" t="inlineStr"/>
+      <c r="F248" t="n">
+        <v>29</v>
+      </c>
+      <c r="G248" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>bloggers.jp</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>ping.bloggers.jp/index.php/cgi-bin/petit.cc/banana/wuluwu.me</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>/index.php/cgi-bin/petit.cc/banana/wuluwu.me</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr"/>
+      <c r="E249" t="inlineStr"/>
+      <c r="F249" t="n">
+        <v>29</v>
+      </c>
+      <c r="G249" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>bloggers.jp</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>ping.bloggers.jp/index.php/cgi-bin/14/the-verandah-residences.co</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>/index.php/cgi-bin/14/the-verandah-residences.co</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr"/>
+      <c r="E250" t="inlineStr"/>
+      <c r="F250" t="n">
+        <v>29</v>
+      </c>
+      <c r="G250" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>bloggers.jp</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>ping.bloggers.jp/index.php/cgi-bin/https:/crochetpatterns.info</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>/index.php/cgi-bin/https:/crochetpatterns.info</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr"/>
+      <c r="E251" t="inlineStr"/>
+      <c r="F251" t="n">
+        <v>29</v>
+      </c>
+      <c r="G251" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>bloggers.jp</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>ping.bloggers.jp/index.php/cgi-bin/http:/franananen.tk/funfonez.com</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>/index.php/cgi-bin/http:/franananen.tk/funfonez.com</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr"/>
+      <c r="E252" t="inlineStr"/>
+      <c r="F252" t="n">
+        <v>29</v>
+      </c>
+      <c r="G252" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>bloggers.jp</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>ping.bloggers.jp/index.php/www.livestraffic.com/asset-management/josephharris.me</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>/index.php/www.livestraffic.com/asset-management/josephharris.me</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr"/>
+      <c r="E253" t="inlineStr"/>
+      <c r="F253" t="n">
+        <v>29</v>
+      </c>
+      <c r="G253" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>bloggers.jp</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>ping.bloggers.jp/index.php/cgi-bin/adzbux.com/lacasablava.com</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>/index.php/cgi-bin/adzbux.com/lacasablava.com</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr"/>
+      <c r="E254" t="inlineStr"/>
+      <c r="F254" t="n">
+        <v>29</v>
+      </c>
+      <c r="G254" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>bloggers.jp</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>ping.bloggers.jp/index.php/10,%208-1/article/13/BestFiles.org</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>/index.php/10,%208-1/article/13/BestFiles.org</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr"/>
+      <c r="E255" t="inlineStr"/>
+      <c r="F255" t="n">
+        <v>29</v>
+      </c>
+      <c r="G255" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>bloggers.jp</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>ping.bloggers.jp/index.php/www.wesharetemplates.com/yoga-world.athff.ru/bandarbo.info</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>/index.php/www.wesharetemplates.com/yoga-world.athff.ru/bandarbo.info</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr"/>
+      <c r="E256" t="inlineStr"/>
+      <c r="F256" t="n">
+        <v>29</v>
+      </c>
+      <c r="G256" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>bloggers.jp</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>ping.bloggers.jp/index.php/www.wesharetemplates.com/https:/tvnewsclips.info</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>/index.php/www.wesharetemplates.com/https:/tvnewsclips.info</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr"/>
+      <c r="E257" t="inlineStr"/>
+      <c r="F257" t="n">
+        <v>29</v>
+      </c>
+      <c r="G257" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>bloggers.jp</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>ping.bloggers.jp/index.php/Ecommerce%20Resource%3C/Bloggity.biz/heavenbydeborahmitchell.me</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>/index.php/Ecommerce%20Resource%3C/Bloggity.biz/heavenbydeborahmitchell.me</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr"/>
+      <c r="E258" t="inlineStr"/>
+      <c r="F258" t="n">
+        <v>29</v>
+      </c>
+      <c r="G258" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>bloggers.jp</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>ping.bloggers.jp/index.php/cgi-bin/tumabin/http:/mundodigital.pro</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>/index.php/cgi-bin/tumabin/http:/mundodigital.pro</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr"/>
+      <c r="E259" t="inlineStr"/>
+      <c r="F259" t="n">
+        <v>29</v>
+      </c>
+      <c r="G259" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>bloggers.jp</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>ping.bloggers.jp/index.php/cgi-bin/http:/franananen.tk/dreads.me</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>/index.php/cgi-bin/http:/franananen.tk/dreads.me</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr"/>
+      <c r="E260" t="inlineStr"/>
+      <c r="F260" t="n">
+        <v>29</v>
+      </c>
+      <c r="G260" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>bloggers.jp</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>ping.bloggers.jp/index.php/10,%208-1/article/tatuirovki.198kaz.ru/anjaliarya.info</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>/index.php/10,%208-1/article/tatuirovki.198kaz.ru/anjaliarya.info</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr"/>
+      <c r="E261" t="inlineStr"/>
+      <c r="F261" t="n">
+        <v>29</v>
+      </c>
+      <c r="G261" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>wipsites.com</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>www.wipsites.com/search/tai-mien-phi-office-2016-co-crack</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>/search/tai-mien-phi-office-2016-co-crack</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr"/>
+      <c r="E262" t="inlineStr"/>
+      <c r="F262" t="n">
+        <v>27</v>
+      </c>
+      <c r="G262" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>bingparachute.com</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>s.bingparachute.com/search?q=facebook+messenger+on+website&amp;FORM=QSRE2</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>/search</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E263" t="n">
+        <v>95</v>
+      </c>
+      <c r="F263" t="n">
+        <v>21</v>
+      </c>
+      <c r="G263" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>ipsispub.com.br</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>blog.ipsispub.com.br/d/consolidate-cells-excel/hdr</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>/d/consolidate-cells-excel/hdr</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr"/>
+      <c r="E264" t="inlineStr"/>
+      <c r="F264" t="n">
+        <v>23</v>
+      </c>
+      <c r="G264" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>talentum.org.rs</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>talentum.org.rs/k13gbfzv/what-are-davis-bacon-fringe-benefits.html</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>/k13gbfzv/what-are-davis-bacon-fringe-benefits.html</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr"/>
+      <c r="E265" t="inlineStr"/>
+      <c r="F265" t="n">
+        <v>19</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>talentum.org.rs</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>talentum.org.rs/k13gbfzv/wordpress-automatic-email-notification.html</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>/k13gbfzv/wordpress-automatic-email-notification.html</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr"/>
+      <c r="E266" t="inlineStr"/>
+      <c r="F266" t="n">
+        <v>19</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>sitelike.org</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr"/>
+      <c r="C267" t="inlineStr"/>
+      <c r="D267" t="n">
+        <v>64</v>
+      </c>
+      <c r="E267" t="n">
+        <v>14344949</v>
+      </c>
+      <c r="F267" t="inlineStr"/>
+      <c r="G267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>alotoi.com</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr"/>
+      <c r="C268" t="inlineStr"/>
+      <c r="D268" t="n">
+        <v>53</v>
+      </c>
+      <c r="E268" t="n">
+        <v>3463</v>
+      </c>
+      <c r="F268" t="n">
+        <v>8</v>
+      </c>
+      <c r="G268" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>socialgrep.com</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr"/>
+      <c r="C269" t="inlineStr"/>
+      <c r="D269" t="n">
+        <v>33</v>
+      </c>
+      <c r="E269" t="n">
+        <v>698537</v>
+      </c>
+      <c r="F269" t="n">
+        <v>26</v>
+      </c>
+      <c r="G269" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>affiliatepal.net</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr"/>
+      <c r="C270" t="inlineStr"/>
+      <c r="D270" t="n">
+        <v>36</v>
+      </c>
+      <c r="E270" t="n">
+        <v>49297</v>
+      </c>
+      <c r="F270" t="n">
+        <v>34</v>
+      </c>
+      <c r="G270" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>cungcap.net</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr"/>
+      <c r="C271" t="inlineStr"/>
+      <c r="D271" t="n">
+        <v>69</v>
+      </c>
+      <c r="E271" t="n">
+        <v>50727</v>
+      </c>
+      <c r="F271" t="inlineStr"/>
+      <c r="G271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>kriesi.at</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr"/>
+      <c r="C272" t="inlineStr"/>
+      <c r="D272" t="n">
+        <v>92</v>
+      </c>
+      <c r="E272" t="n">
+        <v>6393</v>
+      </c>
+      <c r="F272" t="inlineStr"/>
+      <c r="G272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
           <t>similars.net</t>
         </is>
       </c>
-      <c r="B156" t="inlineStr"/>
-      <c r="C156" t="inlineStr"/>
-      <c r="D156" t="n">
+      <c r="B273" t="inlineStr"/>
+      <c r="C273" t="inlineStr"/>
+      <c r="D273" t="n">
+        <v>42</v>
+      </c>
+      <c r="E273" t="n">
+        <v>39578</v>
+      </c>
+      <c r="F273" t="inlineStr"/>
+      <c r="G273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>technofizi.net</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr"/>
+      <c r="C274" t="inlineStr"/>
+      <c r="D274" t="n">
+        <v>48</v>
+      </c>
+      <c r="E274" t="n">
+        <v>437588</v>
+      </c>
+      <c r="F274" t="n">
+        <v>45</v>
+      </c>
+      <c r="G274" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>inthienha.com</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr"/>
+      <c r="C275" t="inlineStr"/>
+      <c r="D275" t="n">
         <v>39</v>
       </c>
-      <c r="E156" t="n">
-        <v>18903</v>
-      </c>
-      <c r="F156" t="inlineStr"/>
-      <c r="G156" t="inlineStr"/>
+      <c r="E275" t="n">
+        <v>31777</v>
+      </c>
+      <c r="F275" t="inlineStr"/>
+      <c r="G275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>advancedsitestats.com</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr"/>
+      <c r="C276" t="inlineStr"/>
+      <c r="D276" t="n">
+        <v>32</v>
+      </c>
+      <c r="E276" t="n">
+        <v>45819</v>
+      </c>
+      <c r="F276" t="n">
+        <v>27</v>
+      </c>
+      <c r="G276" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>plex.page</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr"/>
+      <c r="C277" t="inlineStr"/>
+      <c r="D277" t="n">
+        <v>40</v>
+      </c>
+      <c r="E277" t="n">
+        <v>135351</v>
+      </c>
+      <c r="F277" t="n">
+        <v>34</v>
+      </c>
+      <c r="G277" t="n">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
